--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$62</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="228">
   <si>
     <t>No.</t>
   </si>
@@ -83,6 +86,192 @@
     <t>Mol_Accessions</t>
   </si>
   <si>
+    <t>Intra epidemic evolutionary dynamics of a dengue virus type 1 population reveal mutant spectra that correlate with disease transmission</t>
+  </si>
+  <si>
+    <t>Scientific Report</t>
+  </si>
+  <si>
+    <t>National Environment Agency, Singapore</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>2013-2014</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Emergence of a new lineage of dengue virus type 2 identified in travelers entering western Australia from Indonesia, 2010-2012</t>
+  </si>
+  <si>
+    <t>PLoS Neglected Tropical Diseases</t>
+  </si>
+  <si>
+    <t>University of Western Australia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>2010-2012</t>
+  </si>
+  <si>
+    <t>Isolation of ancestral sylvatic dengue virus type 1, Malaysia</t>
+  </si>
+  <si>
+    <t>Emerging Infectious Diseases</t>
+  </si>
+  <si>
+    <t>University of Malaya</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Lineage shift in Indian strains of dengue virus serotype-3 Genotype III, evidenced by detection of lineage IV strains in clinical cases from Kerala</t>
+  </si>
+  <si>
+    <t>Virology Journal</t>
+  </si>
+  <si>
+    <t>Rajiv Gandhi Centre for Biotechnology</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>Severe dengue epidemic, Sir Lanka, 2017</t>
+  </si>
+  <si>
+    <t>National Dengue Control Unit, Sir Lanka</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Genetic diversity and dispersal of dengue virus among three main island groups of the Philippines during 2015-2017</t>
+  </si>
+  <si>
+    <t>viruese</t>
+  </si>
+  <si>
+    <t>Research Institute for Tropical Medicine, Philippines</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>DENV-1 Genotype V in Brazil spatiotemporal dispersion pattern reveals continuous cocirculation of distinct lineages until 2016</t>
+  </si>
+  <si>
+    <t>Oswaldo Cruz Institute</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
+  </si>
+  <si>
+    <t>Henri Mondor University Hospital</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Endemic dengue associated with the co-circulation of multiple viral lineages and localized density dependent transmission</t>
+  </si>
+  <si>
+    <t>PLoS Pathogens</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GMS-China</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2003-2008</t>
+  </si>
+  <si>
+    <t>Dengue virus in sub-tropical northern and central Viet Nam: population immunity and climate shape patterns of viral invasion and maintenance</t>
+  </si>
+  <si>
+    <t>HQ591537; HQ591538</t>
+  </si>
+  <si>
+    <t>Reconciling phylodynamics with epidemiology: the case of dengue virus in Southern Vietnam</t>
+  </si>
+  <si>
+    <t>Molecular Biology and Evolution</t>
+  </si>
+  <si>
+    <t>Oxford University Clinical Research Unit</t>
+  </si>
+  <si>
+    <t>A dengue virus serotype 4-dominated outbreak in central Vietnam, 2013</t>
+  </si>
+  <si>
+    <t>Journal of Clinical Virology</t>
+  </si>
+  <si>
+    <t>Nagasaki University</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Isolation of dengue serotype 3 virus from the cerebrospinal fluid of an encephalitis patient in Hai Phong, Vietnam in 2013</t>
+  </si>
+  <si>
+    <t>Synchrony of dengue incidence in Ho Chi Minh City and Bangkok</t>
+  </si>
+  <si>
+    <t>Pasteur Institute in Ho Chi Minh City</t>
+  </si>
+  <si>
+    <t>2003-2009</t>
+  </si>
+  <si>
+    <t>Urban livestock-keeping and dengue in urban and peri-urban Hanoi, Vietnam</t>
+  </si>
+  <si>
+    <t>Uppsala University</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>The 2017 dengue virus 1 outbreak in northern Vietnam was caused by a locally circulating virus group</t>
+  </si>
+  <si>
+    <t>Tropical Medicine and Health</t>
+  </si>
+  <si>
     <t>Molecular characterization of dengue virus strains from the 2019-2020 epidemic in Hanoi, Vietnam</t>
   </si>
   <si>
@@ -92,139 +281,46 @@
     <t>Osaka University</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3390/microorganisms11051267</t>
   </si>
   <si>
-    <t>GMS-China</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
     <t>Hanoi</t>
   </si>
   <si>
     <t>2019-2020</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
-  </si>
-  <si>
-    <t>Emerging Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Queensland University of Technology</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Intra epidemic evolutionary dynamics of a dengue virus type 1 population reveal mutant spectra that correlate with disease transmission</t>
-  </si>
-  <si>
-    <t>Scientific Report</t>
-  </si>
-  <si>
-    <t>National Environment Agency, Singapore</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>2013-2014</t>
-  </si>
-  <si>
-    <t>Emergence of a new lineage of dengue virus type 2 identified in travelers entering western Australia from Indonesia, 2010-2012</t>
-  </si>
-  <si>
-    <t>PLoS Neglected Tropical Diseases</t>
-  </si>
-  <si>
-    <t>University of Western Australia</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>2010-2012</t>
-  </si>
-  <si>
-    <t>Isolation of ancestral sylvatic dengue virus type 1, Malaysia</t>
-  </si>
-  <si>
-    <t>University of Malaya</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Lineage shift in Indian strains of dengue virus serotype-3 Genotype III, evidenced by detection of lineage IV strains in clinical cases from Kerala</t>
-  </si>
-  <si>
-    <t>Virology Journal</t>
-  </si>
-  <si>
-    <t>Rajiv Gandhi Centre for Biotechnology</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>Severe dengue epidemic, Sir Lanka, 2017</t>
-  </si>
-  <si>
-    <t>National Dengue Control Unit, Sir Lanka</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Genetic diversity and dispersal of dengue virus among three main island groups of the Philippines during 2015-2017</t>
-  </si>
-  <si>
-    <t>viruese</t>
-  </si>
-  <si>
-    <t>Research Institute for Tropical Medicine, Philippines</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>DENV-1 Genotype V in Brazil spatiotemporal dispersion pattern reveals continuous cocirculation of distinct lineages until 2016</t>
-  </si>
-  <si>
-    <t>Oswaldo Cruz Institute</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
-  </si>
-  <si>
-    <t>Henri Mondor University Hospital</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Paris</t>
+    <t>The molecular epidemiology of dengue virus serotype 4 in Bangkok, Thailand</t>
+  </si>
+  <si>
+    <t>Virology</t>
+  </si>
+  <si>
+    <t>U.S. Army Medical Component-Armed Forces Research Institute of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Structure and age of genetic diversity of dengue virus type 2 in Thailand</t>
+  </si>
+  <si>
+    <t>Journal of General Virology</t>
+  </si>
+  <si>
+    <t>Microevolution of dengue viruses circulating among primary school children in Kamphaeng Phet, Thailand</t>
+  </si>
+  <si>
+    <t>Journal of Virology</t>
+  </si>
+  <si>
+    <t>Comparative analysis of full-length genomic sequences of 10 dengue serotype 1 viruses associated with different genotypes, epidemics, and disease severity isolated in Thailand over 22 years</t>
+  </si>
+  <si>
+    <t>American Journal Of Tropical Medicine And Hygiene</t>
   </si>
   <si>
     <t>CN0001</t>
@@ -315,6 +411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广东省</t>
     </r>
     <r>
@@ -347,6 +449,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广东省</t>
     </r>
     <r>
@@ -376,6 +484,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2006-2007</t>
     </r>
     <r>
@@ -504,6 +618,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>登革热</t>
     </r>
     <r>
@@ -533,6 +653,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州市</t>
     </r>
     <r>
@@ -568,6 +694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州市</t>
     </r>
     <r>
@@ -600,6 +732,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州市</t>
     </r>
     <r>
@@ -626,6 +764,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州市</t>
     </r>
     <r>
@@ -706,6 +850,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州市</t>
     </r>
     <r>
@@ -726,6 +876,172 @@
       </rPr>
       <t>年登革病毒流行状况及E基因进化特征分析</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型登革热病例流行特征及其病毒E基因</t>
+    </r>
+  </si>
+  <si>
+    <t>中华疾病控制杂志</t>
+  </si>
+  <si>
+    <t>2010-2019</t>
+  </si>
+  <si>
+    <t>Decreased dengue cases attributable to the effect of COVID-19 in Guangzhou in 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>2015-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年广州市登革热本地病例流行病学特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>The increasing menace of dengue in Guangzhou, 2001-2016: the most important epicenter in mainland China</t>
+  </si>
+  <si>
+    <t>2001-2016</t>
+  </si>
+  <si>
+    <t>Molecular epidemiological characteristics of dengue virus carried by 34 patients in Guangzhou in 2018</t>
+  </si>
+  <si>
+    <t>Guangzhou University of Chinese Medicine</t>
+  </si>
+  <si>
+    <t>The dengue prefance to endemic in mainland China: the historical largest outbreak by Aedes albopictus in Guangzhou, 2014</t>
+  </si>
+  <si>
+    <t>Infectious Diseases of Poverty</t>
+  </si>
+  <si>
+    <t>Molecular epidemiology demonstrates that imported and local strains circulated during the 2014 dengue outbreak in Guangzhou, China</t>
+  </si>
+  <si>
+    <t>Molecular characterization and genotype shift of dengue virus strains between 2001 and 2014 in Guangzhou</t>
+  </si>
+  <si>
+    <t>2001-2014</t>
+  </si>
+  <si>
+    <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
+  </si>
+  <si>
+    <t>Queensland University of Technology</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
+  </si>
+  <si>
+    <t>Clinical, virological and epidemiological characterization of dengue outbreak in Myanmar, 2015</t>
+  </si>
+  <si>
+    <t>Dengue virus 1 in Buenos Aires from 1999 to 2010: towars local spread</t>
+  </si>
+  <si>
+    <t>Ciudad Autonoma de Bueno Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>1999-2010</t>
+  </si>
+  <si>
+    <t>Detection of dengue virus type 4 in Easter Island, Chile</t>
+  </si>
+  <si>
+    <t>Archives Of Virology</t>
+  </si>
+  <si>
+    <t>Public Health Institute of Chile</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Retrospective spatio-temporal dynamics of dengue virus 1,2, and 4 in Paraguay</t>
+  </si>
+  <si>
+    <t>Laboratorio Central de Salud Publica</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Heterogeneity of dengue illness in community-based prospective study, Iquitos, Peru</t>
+  </si>
+  <si>
+    <t>Unverisity of California</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>2016-2019</t>
   </si>
 </sst>
 </file>
@@ -1917,12 +2233,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2012,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -2020,477 +2336,410 @@
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:14">
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:9">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3">
-        <v>2001</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:14">
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
-        <v>2016</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="D5" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:9">
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:9">
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <v>2023</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:12">
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:9">
-      <c r="B10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:12">
+    </row>
+    <row r="11" customHeight="1" spans="2:18">
       <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="3" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="2:11">
+      <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:17">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:12">
+      <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2019</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:12">
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2007</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:12">
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:12">
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="4">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:12">
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="4">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>69</v>
@@ -2499,636 +2748,1501 @@
         <v>70</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D18" s="4">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:10">
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="4">
         <v>2006</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2011</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D21" s="4">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D24" s="4">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L24" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:12">
+        <v>2007</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:16">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>2022</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2002</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="C28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:13">
+      <c r="A29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L25" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:11">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D29" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="M29" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:13">
+      <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:12">
-      <c r="B27" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D30" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2006</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:11">
-      <c r="B28" s="7" t="s">
+      <c r="C31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="F31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:12">
+      <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="4">
-        <v>1992</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:12">
-      <c r="B29" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D32" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="4">
-        <v>2004</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:12">
-      <c r="B30" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2005</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:12">
-      <c r="B31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:12">
-      <c r="B32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:12">
-      <c r="B33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D33" s="4">
         <v>2012</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:17">
+      <c r="A34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:12">
+      <c r="B38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:11">
+      <c r="B39" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1992</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:12">
+      <c r="B40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:12">
+      <c r="B41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:12">
+      <c r="B42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:12">
+      <c r="B43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:12">
+      <c r="B44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:12">
+      <c r="B45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:12">
+      <c r="B46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:12">
+      <c r="B47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:12">
+      <c r="B48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:12">
+      <c r="B49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:12">
+      <c r="B50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:12">
+      <c r="B51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:12">
+      <c r="B52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:12">
+      <c r="B53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L53" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:12">
+      <c r="B54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:12">
+      <c r="B55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:14">
+      <c r="B56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="3">
+        <v>2001</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:12">
+      <c r="B57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:12">
+      <c r="B58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:12">
+      <c r="B59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:12">
-      <c r="B34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:12">
-      <c r="B35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:12">
-      <c r="B36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="3">
-        <v>2011</v>
+      <c r="H59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:12">
+      <c r="B60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:9">
+      <c r="B61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:9">
+      <c r="B62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:12">
+      <c r="B63" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R62">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="273">
   <si>
     <t>No.</t>
   </si>
@@ -321,6 +321,87 @@
   </si>
   <si>
     <t>American Journal Of Tropical Medicine And Hygiene</t>
+  </si>
+  <si>
+    <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
+  </si>
+  <si>
+    <t>Queensland University of Technology</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
+  </si>
+  <si>
+    <t>Infection, Genetics and Evolution</t>
+  </si>
+  <si>
+    <t>Clinical, virological and epidemiological characterization of dengue outbreak in Myanmar, 2015</t>
+  </si>
+  <si>
+    <t>Epidemiology And Infection</t>
+  </si>
+  <si>
+    <t>Dengue virus 1 in Buenos Aires from 1999 to 2010: towars local spread</t>
+  </si>
+  <si>
+    <t>PLoS One</t>
+  </si>
+  <si>
+    <t>Ciudad Autonoma de Bueno Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>1999-2010</t>
+  </si>
+  <si>
+    <t>Detection of dengue virus type 4 in Easter Island, Chile</t>
+  </si>
+  <si>
+    <t>Archives Of Virology</t>
+  </si>
+  <si>
+    <t>Public Health Institute of Chile</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Retrospective spatio-temporal dynamics of dengue virus 1,2, and 4 in Paraguay</t>
+  </si>
+  <si>
+    <t>Laboratorio Central de Salud Publica</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Heterogeneity of dengue illness in community-based prospective study, Iquitos, Peru</t>
+  </si>
+  <si>
+    <t>Unverisity of California</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>2016-2019</t>
   </si>
   <si>
     <t>CN0001</t>
@@ -515,9 +596,6 @@
     <t>Molecular characterization of the E gene of dengue virus type 1 isolated in Guangdong province, China, in 2006</t>
   </si>
   <si>
-    <t>Epidemiology And Infection</t>
-  </si>
-  <si>
     <t>CN0009</t>
   </si>
   <si>
@@ -533,9 +611,6 @@
     <t>The origin of dengue viruses caused the DF outbreak in Guangdong province, China, in 2006</t>
   </si>
   <si>
-    <t>Infection, Genetics and Evolution</t>
-  </si>
-  <si>
     <t>CN0011</t>
   </si>
   <si>
@@ -552,9 +627,6 @@
   </si>
   <si>
     <t>Re-emergence of dengue virus type 3 in Canton, China, 2009-2010, associated with multiple introductions through different geographical routes</t>
-  </si>
-  <si>
-    <t>PLoS One</t>
   </si>
   <si>
     <t>D3</t>
@@ -879,6 +951,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州市</t>
     </r>
     <r>
@@ -929,6 +1007,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2015-2019</t>
     </r>
     <r>
@@ -972,76 +1056,192 @@
     <t>2001-2014</t>
   </si>
   <si>
-    <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
-  </si>
-  <si>
-    <t>Queensland University of Technology</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
-  </si>
-  <si>
-    <t>Clinical, virological and epidemiological characterization of dengue outbreak in Myanmar, 2015</t>
-  </si>
-  <si>
-    <t>Dengue virus 1 in Buenos Aires from 1999 to 2010: towars local spread</t>
-  </si>
-  <si>
-    <t>Ciudad Autonoma de Bueno Aires</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>1999-2010</t>
-  </si>
-  <si>
-    <t>Detection of dengue virus type 4 in Easter Island, Chile</t>
-  </si>
-  <si>
-    <t>Archives Of Virology</t>
-  </si>
-  <si>
-    <t>Public Health Institute of Chile</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Retrospective spatio-temporal dynamics of dengue virus 1,2, and 4 in Paraguay</t>
-  </si>
-  <si>
-    <t>Laboratorio Central de Salud Publica</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Heterogeneity of dengue illness in community-based prospective study, Iquitos, Peru</t>
-  </si>
-  <si>
-    <t>Unverisity of California</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>2016-2019</t>
+    <r>
+      <t>2014-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年深圳市南山区本地登革热时空分析</t>
+    </r>
+  </si>
+  <si>
+    <t>Shenzhen Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>2014-2019</t>
+  </si>
+  <si>
+    <t>Molecular identification of the first local dengue fever outbreak in Shenzhen city, China: a potential imported vertical transmission from Southeast Asia?</t>
+  </si>
+  <si>
+    <r>
+      <t>深圳市南山区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热疫情流行病学特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>南昌大学学报（医学版）</t>
+  </si>
+  <si>
+    <t>Nanchang University</t>
+  </si>
+  <si>
+    <t>深圳市龙华区一起输入性登革热疫情的分子流行病学研究</t>
+  </si>
+  <si>
+    <t>中国热带医学</t>
+  </si>
+  <si>
+    <t>Shenzhen Longhua Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <r>
+      <t>2014-2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年深圳市登革热疫情流行特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>实用预防医学</t>
+  </si>
+  <si>
+    <t>2014-2018</t>
+  </si>
+  <si>
+    <t>Imported dengue serotype 1 outbreak in a non-endemic region, China, 2017: a molecular and seroepidemiological study</t>
+  </si>
+  <si>
+    <t>Journal of Infection</t>
+  </si>
+  <si>
+    <t>Shandong Provincial Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Jining</t>
+  </si>
+  <si>
+    <t>秦皇岛口岸首例输入性登革热病例的分子溯源</t>
+  </si>
+  <si>
+    <t>中国媒介生物学及控制杂志</t>
+  </si>
+  <si>
+    <t>Huaian Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Qinhuangdao</t>
+  </si>
+  <si>
+    <t>The epidemiology and evolutionary dynamics of massive dengue outbreak in China, 2019</t>
+  </si>
+  <si>
+    <t>Frontiers in Microbiology</t>
+  </si>
+  <si>
+    <t>Qilu Hospital of Shandong University</t>
+  </si>
+  <si>
+    <t>Epidemiological characteristics and temporal-spatial analysis of overseas imported dengue fever cases in outbreak provinces of China, 2005-2019</t>
+  </si>
+  <si>
+    <t>The epidemiological characteristics of dengue in high-risk areas of China, 2013-2016</t>
+  </si>
+  <si>
+    <t>2013-2016</t>
+  </si>
+  <si>
+    <t>Spatial dynamics of dengue fever in mainland China, 2019</t>
+  </si>
+  <si>
+    <t>International Journal of Environmental Research and Public Health</t>
+  </si>
+  <si>
+    <t>Increasingly expanded future risk of dengue fever in the Pearl River Delta, China</t>
+  </si>
+  <si>
+    <t>Institute of Geographic Sicences and Natural Resources Research</t>
+  </si>
+  <si>
+    <t>Dengue fever and dengue virus in People's Republic of China</t>
+  </si>
+  <si>
+    <t>Reviews In Medical Virology</t>
+  </si>
+  <si>
+    <t>Sun Yet-sen University</t>
+  </si>
+  <si>
+    <t>Increase in cases of dengue in China, 2004-2016: a retrospective observational study</t>
+  </si>
+  <si>
+    <t>Travel Medicine and Infectious Disease</t>
+  </si>
+  <si>
+    <t>South China Agricultural University</t>
+  </si>
+  <si>
+    <t>2004-2016</t>
+  </si>
+  <si>
+    <t>Epidemological characteristics of dengue in mainland China from 1990 to 2019</t>
+  </si>
+  <si>
+    <t>1990-2019</t>
+  </si>
+  <si>
+    <r>
+      <t>2014-2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年我国登革热病例空间特征及相关关系研究</t>
+    </r>
+  </si>
+  <si>
+    <t>Epidemological dynamics of dengue fever in mainland China, 2014-2018</t>
+  </si>
+  <si>
+    <t>International Journal of Infectious Diseases</t>
   </si>
 </sst>
 </file>
@@ -2233,12 +2433,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2893,419 +3093,380 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:17">
-      <c r="A23" s="2" t="s">
+    <row r="23" customHeight="1" spans="2:14">
+      <c r="B23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="L23" s="3">
-        <v>2019</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>104</v>
+        <v>2001</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="3" t="s">
+    </row>
+    <row r="24" customHeight="1" spans="2:12">
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:12">
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:12">
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="D26" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:12">
+      <c r="B27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:18">
-      <c r="A24" s="2" t="s">
+      <c r="D27" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="F27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="H27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="4">
+      <c r="I27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:9">
+      <c r="B28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:12">
+      <c r="B30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:17">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2019</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:18">
+      <c r="A32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="4">
         <v>2007</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="E32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="3">
         <v>2007</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:16">
-      <c r="A25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="M32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:16">
+      <c r="A33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D33" s="4">
         <v>2022</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:14">
-      <c r="A27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2002</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:13">
-      <c r="A29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2009</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:13">
-      <c r="A30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2009</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30" s="3">
-        <v>2006</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:12">
-      <c r="A32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:17">
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
@@ -3316,931 +3477,1513 @@
         <v>151</v>
       </c>
       <c r="D34" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:14">
+      <c r="A35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2002</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2006</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:17">
+      <c r="A42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="4">
         <v>2013</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="E42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:12">
+      <c r="A43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="4">
         <v>2020</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="E43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L36" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:11">
-      <c r="A37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:12">
-      <c r="B38" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:11">
-      <c r="B39" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1992</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:12">
-      <c r="B40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2004</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:12">
-      <c r="B41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2005</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:12">
-      <c r="B42" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:12">
-      <c r="B43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E43" s="3" t="s">
+    <row r="44" customHeight="1" spans="1:12">
+      <c r="A44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:12">
       <c r="B44" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="D44" s="4">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="L44" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:12">
-      <c r="B45" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>110</v>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D45" s="4">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:12">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="K46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:12">
+        <v>60</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:11">
       <c r="B47" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="D47" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>116</v>
+        <v>1992</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2011</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:12">
       <c r="B48" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D48" s="4">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2002</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:12">
-      <c r="B49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>26</v>
+      <c r="B49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D49" s="4">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2020</v>
+        <v>145</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:12">
-      <c r="B50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>110</v>
+      <c r="B50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D50" s="4">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>194</v>
+        <v>145</v>
+      </c>
+      <c r="L50" s="3">
+        <v>2006</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:12">
       <c r="B51" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>196</v>
+        <v>145</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2009</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:12">
       <c r="B52" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D52" s="4">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="L52" s="3">
-        <v>2018</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:12">
-      <c r="B53" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>200</v>
+      <c r="B53" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D53" s="4">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L53" s="3">
-        <v>2014</v>
+        <v>145</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:12">
-      <c r="B54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>155</v>
+      <c r="B54" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="D54" s="4">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="L54" s="3">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:12">
-      <c r="B55" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>138</v>
+      <c r="B55" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D55" s="4">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:14">
-      <c r="B56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>32</v>
+        <v>145</v>
+      </c>
+      <c r="L55" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:12">
+      <c r="B56" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="D56" s="4">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L56" s="3">
-        <v>2001</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>24</v>
+        <v>145</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:12">
       <c r="B57" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="L57" s="3">
-        <v>2001</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:12">
       <c r="B58" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D58" s="4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2013</v>
+        <v>145</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:12">
       <c r="B59" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D59" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2015</v>
+        <v>145</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:12">
       <c r="B60" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="D60" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:12">
+      <c r="B61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L61" s="3">
         <v>2014</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:9">
+    </row>
+    <row r="62" customHeight="1" spans="2:12">
       <c r="B62" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>44</v>
+        <v>179</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2017</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>222</v>
+        <v>128</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>222</v>
+        <v>128</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2014</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:12">
       <c r="B63" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D63" s="4">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>225</v>
+        <v>128</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>226</v>
+        <v>128</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>227</v>
       </c>
     </row>
+    <row r="64" customHeight="1" spans="2:12">
+      <c r="B64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:12">
+      <c r="B65" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L65" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:12">
+      <c r="B66" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:12">
+      <c r="B67" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:12">
+      <c r="B68" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:12">
+      <c r="B69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:12">
+      <c r="B70" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L70" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:12">
+      <c r="B71" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:12">
+      <c r="B72" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:12">
+      <c r="B73" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:12">
+      <c r="B74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:12">
+      <c r="B75" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:12">
+      <c r="B76" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:12">
+      <c r="B77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:12">
+      <c r="B78" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:12">
+      <c r="B79" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="2:12">
+      <c r="B80" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R62">
+  <autoFilter ref="A1:R78">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="307">
   <si>
     <t>No.</t>
   </si>
@@ -86,72 +86,198 @@
     <t>Mol_Accessions</t>
   </si>
   <si>
+    <t>Dengue virus 1 in Buenos Aires from 1999 to 2010: towars local spread</t>
+  </si>
+  <si>
+    <t>PLoS One</t>
+  </si>
+  <si>
+    <t>Ciudad Autonoma de Bueno Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1999-2010</t>
+  </si>
+  <si>
+    <t>DENV-1 Genotype V in Brazil spatiotemporal dispersion pattern reveals continuous cocirculation of distinct lineages until 2016</t>
+  </si>
+  <si>
+    <t>Scientific Report</t>
+  </si>
+  <si>
+    <t>Oswaldo Cruz Institute</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Detection of dengue virus type 4 in Easter Island, Chile</t>
+  </si>
+  <si>
+    <t>Archives Of Virology</t>
+  </si>
+  <si>
+    <t>Public Health Institute of Chile</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
+  </si>
+  <si>
+    <t>Emerging Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Henri Mondor University Hospital</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Lineage shift in Indian strains of dengue virus serotype-3 Genotype III, evidenced by detection of lineage IV strains in clinical cases from Kerala</t>
+  </si>
+  <si>
+    <t>Virology Journal</t>
+  </si>
+  <si>
+    <t>Rajiv Gandhi Centre for Biotechnology</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>Emergence of a new lineage of dengue virus type 2 identified in travelers entering western Australia from Indonesia, 2010-2012</t>
+  </si>
+  <si>
+    <t>PLoS Neglected Tropical Diseases</t>
+  </si>
+  <si>
+    <t>University of Western Australia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>2010-2012</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Isolation of ancestral sylvatic dengue virus type 1, Malaysia</t>
+  </si>
+  <si>
+    <t>University of Malaya</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Queensland University of Technology</t>
+  </si>
+  <si>
+    <t>GMS-China</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
+  </si>
+  <si>
+    <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
+  </si>
+  <si>
+    <t>Infection, Genetics and Evolution</t>
+  </si>
+  <si>
+    <t>Nagasaki University</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Clinical, virological and epidemiological characterization of dengue outbreak in Myanmar, 2015</t>
+  </si>
+  <si>
+    <t>Epidemiology And Infection</t>
+  </si>
+  <si>
+    <t>Retrospective spatio-temporal dynamics of dengue virus 1,2, and 4 in Paraguay</t>
+  </si>
+  <si>
+    <t>viruese</t>
+  </si>
+  <si>
+    <t>Laboratorio Central de Salud Publica</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Heterogeneity of dengue illness in community-based prospective study, Iquitos, Peru</t>
+  </si>
+  <si>
+    <t>Unverisity of California</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>2016-2019</t>
+  </si>
+  <si>
+    <t>Genetic diversity and dispersal of dengue virus among three main island groups of the Philippines during 2015-2017</t>
+  </si>
+  <si>
+    <t>Research Institute for Tropical Medicine, Philippines</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Intra epidemic evolutionary dynamics of a dengue virus type 1 population reveal mutant spectra that correlate with disease transmission</t>
   </si>
   <si>
-    <t>Scientific Report</t>
-  </si>
-  <si>
     <t>National Environment Agency, Singapore</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>SEA</t>
-  </si>
-  <si>
     <t>2013-2014</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Emergence of a new lineage of dengue virus type 2 identified in travelers entering western Australia from Indonesia, 2010-2012</t>
-  </si>
-  <si>
-    <t>PLoS Neglected Tropical Diseases</t>
-  </si>
-  <si>
-    <t>University of Western Australia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>2010-2012</t>
-  </si>
-  <si>
-    <t>Isolation of ancestral sylvatic dengue virus type 1, Malaysia</t>
-  </si>
-  <si>
-    <t>Emerging Infectious Diseases</t>
-  </si>
-  <si>
-    <t>University of Malaya</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Lineage shift in Indian strains of dengue virus serotype-3 Genotype III, evidenced by detection of lineage IV strains in clinical cases from Kerala</t>
-  </si>
-  <si>
-    <t>Virology Journal</t>
-  </si>
-  <si>
-    <t>Rajiv Gandhi Centre for Biotechnology</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
     <t>Severe dengue epidemic, Sir Lanka, 2017</t>
   </si>
   <si>
@@ -161,37 +287,37 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Genetic diversity and dispersal of dengue virus among three main island groups of the Philippines during 2015-2017</t>
-  </si>
-  <si>
-    <t>viruese</t>
-  </si>
-  <si>
-    <t>Research Institute for Tropical Medicine, Philippines</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>DENV-1 Genotype V in Brazil spatiotemporal dispersion pattern reveals continuous cocirculation of distinct lineages until 2016</t>
-  </si>
-  <si>
-    <t>Oswaldo Cruz Institute</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
-  </si>
-  <si>
-    <t>Henri Mondor University Hospital</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Paris</t>
+    <t>The molecular epidemiology of dengue virus serotype 4 in Bangkok, Thailand</t>
+  </si>
+  <si>
+    <t>Virology</t>
+  </si>
+  <si>
+    <t>U.S. Army Medical Component-Armed Forces Research Institute of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Structure and age of genetic diversity of dengue virus type 2 in Thailand</t>
+  </si>
+  <si>
+    <t>Journal of General Virology</t>
+  </si>
+  <si>
+    <t>Microevolution of dengue viruses circulating among primary school children in Kamphaeng Phet, Thailand</t>
+  </si>
+  <si>
+    <t>Journal of Virology</t>
+  </si>
+  <si>
+    <t>Comparative analysis of full-length genomic sequences of 10 dengue serotype 1 viruses associated with different genotypes, epidemics, and disease severity isolated in Thailand over 22 years</t>
+  </si>
+  <si>
+    <t>American Journal Of Tropical Medicine And Hygiene</t>
   </si>
   <si>
     <t>Endemic dengue associated with the co-circulation of multiple viral lineages and localized density dependent transmission</t>
@@ -206,15 +332,9 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>GMS-China</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>2003-2008</t>
   </si>
   <si>
@@ -239,12 +359,6 @@
     <t>Journal of Clinical Virology</t>
   </si>
   <si>
-    <t>Nagasaki University</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>Isolation of dengue serotype 3 virus from the cerebrospinal fluid of an encephalitis patient in Hai Phong, Vietnam in 2013</t>
   </si>
   <si>
@@ -290,186 +404,472 @@
     <t>2019-2020</t>
   </si>
   <si>
-    <t>The molecular epidemiology of dengue virus serotype 4 in Bangkok, Thailand</t>
-  </si>
-  <si>
-    <t>Virology</t>
-  </si>
-  <si>
-    <t>U.S. Army Medical Component-Armed Forces Research Institute of Medical Sciences</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>Structure and age of genetic diversity of dengue virus type 2 in Thailand</t>
-  </si>
-  <si>
-    <t>Journal of General Virology</t>
-  </si>
-  <si>
-    <t>Microevolution of dengue viruses circulating among primary school children in Kamphaeng Phet, Thailand</t>
-  </si>
-  <si>
-    <t>Journal of Virology</t>
-  </si>
-  <si>
-    <t>Comparative analysis of full-length genomic sequences of 10 dengue serotype 1 viruses associated with different genotypes, epidemics, and disease severity isolated in Thailand over 22 years</t>
-  </si>
-  <si>
-    <t>American Journal Of Tropical Medicine And Hygiene</t>
-  </si>
-  <si>
-    <t>Myanmar dengue outbreak associated with displacement of serotype 2, 3, and 4 by dengue 1</t>
-  </si>
-  <si>
-    <t>Queensland University of Technology</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
-  </si>
-  <si>
-    <t>Infection, Genetics and Evolution</t>
-  </si>
-  <si>
-    <t>Clinical, virological and epidemiological characterization of dengue outbreak in Myanmar, 2015</t>
-  </si>
-  <si>
-    <t>Epidemiology And Infection</t>
-  </si>
-  <si>
-    <t>Dengue virus 1 in Buenos Aires from 1999 to 2010: towars local spread</t>
-  </si>
-  <si>
-    <t>PLoS One</t>
-  </si>
-  <si>
-    <t>Ciudad Autonoma de Bueno Aires</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>1999-2010</t>
-  </si>
-  <si>
-    <t>Detection of dengue virus type 4 in Easter Island, Chile</t>
-  </si>
-  <si>
-    <t>Archives Of Virology</t>
-  </si>
-  <si>
-    <t>Public Health Institute of Chile</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Retrospective spatio-temporal dynamics of dengue virus 1,2, and 4 in Paraguay</t>
-  </si>
-  <si>
-    <t>Laboratorio Central de Salud Publica</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Heterogeneity of dengue illness in community-based prospective study, Iquitos, Peru</t>
-  </si>
-  <si>
-    <t>Unverisity of California</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>2016-2019</t>
-  </si>
-  <si>
-    <t>CN0001</t>
-  </si>
-  <si>
-    <t>Genomic epidemiology of dengue in Shantou, China, 2019</t>
-  </si>
-  <si>
-    <t>Frontiers in Public Health</t>
-  </si>
-  <si>
-    <t>Guangdong Provincial Center for Disease Control and Prevention</t>
+    <t>CN0013</t>
+  </si>
+  <si>
+    <t>Seroprevalence of dengue virus among young adults in Beijing, China, 2019</t>
+  </si>
+  <si>
+    <t>Virologica Sinica</t>
+  </si>
+  <si>
+    <t>Research Unit of Critical Infection in Children</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>潮州市2006年登革热疫情流行病学分析</t>
+  </si>
+  <si>
+    <t>华南预防医学</t>
+  </si>
+  <si>
+    <t>Chaozhou Center for Disease Control and Prevention</t>
+  </si>
+  <si>
     <t>Guangdong</t>
   </si>
   <si>
-    <t>Shantou</t>
+    <t>Chaozhou</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>Genome</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>CN0002</t>
-  </si>
-  <si>
-    <t>潮州市2006年登革热疫情流行病学分析</t>
-  </si>
-  <si>
-    <t>华南预防医学</t>
-  </si>
-  <si>
-    <t>Chaozhou Center for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t>Chaozhou</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登革热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>136</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例临床分析</t>
+    </r>
+  </si>
+  <si>
+    <t>暨南大学学报（医学）</t>
+  </si>
+  <si>
+    <t>暨南大学医学院附属医院</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热爆发疫情流行病学特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>热带医学杂志</t>
+  </si>
+  <si>
+    <t>Guangzhou Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>广州市2002-2003年1032例登革热患者流行病学特征分析</t>
+  </si>
+  <si>
+    <t>中华流行病学杂志</t>
+  </si>
+  <si>
+    <t>Guangzhou Eighth Peoples's Hospital</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热疫情流行病学特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>Co-circulation of two genotypes of dengue virus serotype 3 in Guangzhou, China, 2009</t>
+  </si>
+  <si>
+    <t>Beijing Institute of Microbiology and Epidemiology</t>
+  </si>
+  <si>
+    <t>Emergence of dengue virus 4 genotype II in Guangzhou, China, 2010: survey and molecular epidemiology of one community outbreak</t>
+  </si>
+  <si>
+    <t>BMC Infectious Diseases</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2006-2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热流行病学分析</t>
+    </r>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型登革病毒E基因进化分析</t>
+    </r>
+  </si>
+  <si>
+    <t>中华传染病杂志</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革病毒流行状况及E基因进化特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>CN0012</t>
+  </si>
+  <si>
+    <t>Re-emergence of dengue virus type 3 in Canton, China, 2009-2010, associated with multiple introductions through different geographical routes</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>The dengue prefance to endemic in mainland China: the historical largest outbreak by Aedes albopictus in Guangzhou, 2014</t>
+  </si>
+  <si>
+    <t>Infectious Diseases of Poverty</t>
+  </si>
+  <si>
+    <t>Molecular epidemiology demonstrates that imported and local strains circulated during the 2014 dengue outbreak in Guangzhou, China</t>
+  </si>
+  <si>
+    <t>Guangzhou University of Chinese Medicine</t>
+  </si>
+  <si>
+    <t>Molecular characterization and genotype shift of dengue virus strains between 2001 and 2014 in Guangzhou</t>
+  </si>
+  <si>
+    <t>2001-2014</t>
+  </si>
+  <si>
+    <t>Dynamic spatiotemporal analysis of indigenous dengue fever at street-level in Guangzhou city, China</t>
+  </si>
+  <si>
+    <t>Sun Yet-sen University</t>
+  </si>
+  <si>
+    <t>2006-2014</t>
+  </si>
+  <si>
+    <t>Dengue infection spectrum in Guangzhou: a cross-sectional seroepidemiology study among community residents between 2013 and 2015</t>
+  </si>
+  <si>
+    <t>International Journal of Environmental Research and Public Health</t>
+  </si>
+  <si>
+    <t>2013-2015</t>
+  </si>
+  <si>
+    <t>The increasing menace of dengue in Guangzhou, 2001-2016: the most important epicenter in mainland China</t>
+  </si>
+  <si>
+    <t>2001-2016</t>
+  </si>
+  <si>
+    <t>Molecular epidemiological characteristics of dengue virus carried by 34 patients in Guangzhou in 2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2015-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年广州市登革热本地病例流行病学特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>CN0004</t>
+  </si>
+  <si>
+    <t>New genotype invasion of dengue virus serotype 1 drove massive outbreak in Guangzhou, China</t>
+  </si>
+  <si>
+    <t>Parasites Vectors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型登革热病例流行特征及其病毒E基因</t>
+    </r>
+  </si>
+  <si>
+    <t>中华疾病控制杂志</t>
+  </si>
+  <si>
+    <t>2010-2019</t>
+  </si>
+  <si>
+    <t>Decreased dengue cases attributable to the effect of COVID-19 in Guangzhou in 2020</t>
+  </si>
+  <si>
     <t>CN0003</t>
   </si>
   <si>
     <t>Circulation of genotypes of dengue virus serotype2 in Guangzhou over a period of 20 years</t>
   </si>
   <si>
-    <t>Guangzhou Center for Disease Control and Prevention</t>
-  </si>
-  <si>
     <t>https://virologyj.biomedcentral.com/counter/pdf/10.1186/s12985-022-01773-7.pdf</t>
   </si>
   <si>
-    <t>Guangzhou</t>
-  </si>
-  <si>
     <t>2001-2020</t>
   </si>
   <si>
@@ -477,15 +877,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>CN0004</t>
-  </si>
-  <si>
-    <t>New genotype invasion of dengue virus serotype 1 drove massive outbreak in Guangzhou, China</t>
-  </si>
-  <si>
-    <t>Parasites Vectors</t>
   </si>
   <si>
     <t>CN0005</t>
@@ -520,7 +911,7 @@
     </r>
   </si>
   <si>
-    <t>中华流行病学杂志</t>
+    <t>Guangdong Provincial Center for Disease Control and Prevention</t>
   </si>
   <si>
     <t>1990-2000</t>
@@ -596,97 +987,34 @@
     <t>Molecular characterization of the E gene of dengue virus type 1 isolated in Guangdong province, China, in 2006</t>
   </si>
   <si>
-    <t>CN0009</t>
-  </si>
-  <si>
-    <t>Molecular epidemiology of dengue viruses in southern China from 1978 to 2006</t>
-  </si>
-  <si>
-    <t>Beijing Institute of Genomics</t>
-  </si>
-  <si>
-    <t>CN0010</t>
-  </si>
-  <si>
-    <t>The origin of dengue viruses caused the DF outbreak in Guangdong province, China, in 2006</t>
-  </si>
-  <si>
-    <t>CN0011</t>
-  </si>
-  <si>
-    <t>Spatiotemporal analysis of indigenous and imported dengue fever cases in Guangdong province, China</t>
-  </si>
-  <si>
-    <t>BMC Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Chinese Center for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t>CN0012</t>
-  </si>
-  <si>
-    <t>Re-emergence of dengue virus type 3 in Canton, China, 2009-2010, associated with multiple introductions through different geographical routes</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>CN0013</t>
-  </si>
-  <si>
-    <t>Seroprevalence of dengue virus among young adults in Beijing, China, 2019</t>
-  </si>
-  <si>
-    <t>Virologica Sinica</t>
-  </si>
-  <si>
-    <t>Research Unit of Critical Infection in Children</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>CN0014</t>
-  </si>
-  <si>
-    <t>Molecular characterization and phylogenetic analysis of the 2019 dengue outbreak in Wenzhou, China</t>
-  </si>
-  <si>
-    <t>Frontiers in Cellular and Infection Microbiology</t>
-  </si>
-  <si>
-    <t>Wenzhou Medical University</t>
-  </si>
-  <si>
-    <t>Zhejiang</t>
-  </si>
-  <si>
-    <t>Wenzhou</t>
-  </si>
-  <si>
-    <t>CN0015</t>
-  </si>
-  <si>
-    <t>Epidemiology of indigenous dengue cases in Zhejiang province, Southeast China</t>
-  </si>
-  <si>
-    <t>Zhejiang Provincial Center for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/public-health/articles/10.3389/fpubh.2022.857911/full</t>
-  </si>
-  <si>
-    <t>A survey of clinical and laboratory characteristics of the dengue fever epidemic from 2017 to 2019 in Zhejiang, China</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>The Second Affiliated Hospital of Zhejiang Chinese Medicine University</t>
-  </si>
-  <si>
-    <t>2017-2019</t>
+    <t>CN0001</t>
+  </si>
+  <si>
+    <t>Genomic epidemiology of dengue in Shantou, China, 2019</t>
+  </si>
+  <si>
+    <t>Frontiers in Public Health</t>
+  </si>
+  <si>
+    <t>Shantou</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>Genome</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Molecular identification of the first local dengue fever outbreak in Shenzhen city, China: a potential imported vertical transmission from Southeast Asia?</t>
+  </si>
+  <si>
+    <t>Shenzhen Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
   </si>
   <si>
     <r>
@@ -696,393 +1024,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>登革热</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>136</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例临床分析</t>
-    </r>
-  </si>
-  <si>
-    <t>暨南大学学报（医学）</t>
-  </si>
-  <si>
-    <t>暨南大学医学院附属医院</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年登革热爆发疫情流行病学特征分析</t>
-    </r>
-  </si>
-  <si>
-    <t>热带医学杂志</t>
-  </si>
-  <si>
-    <t>广州市2002-2003年1032例登革热患者流行病学特征分析</t>
-  </si>
-  <si>
-    <t>Guangzhou Eighth Peoples's Hospital</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年登革热疫情流行病学特征分析</t>
-    </r>
-  </si>
-  <si>
-    <t>Co-circulation of two genotypes of dengue virus serotype 3 in Guangzhou, China, 2009</t>
-  </si>
-  <si>
-    <t>Beijing Institute of Microbiology and Epidemiology</t>
-  </si>
-  <si>
-    <t>Emergence of dengue virus 4 genotype II in Guangzhou, China, 2010: survey and molecular epidemiology of one community outbreak</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2006-2010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年登革热流行病学分析</t>
-    </r>
-  </si>
-  <si>
-    <t>2006-2010</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型登革病毒E基因进化分析</t>
-    </r>
-  </si>
-  <si>
-    <t>中华传染病杂志</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年登革病毒流行状况及E基因进化特征分析</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广州市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2010-2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型登革热病例流行特征及其病毒E基因</t>
-    </r>
-  </si>
-  <si>
-    <t>中华疾病控制杂志</t>
-  </si>
-  <si>
-    <t>2010-2019</t>
-  </si>
-  <si>
-    <t>Decreased dengue cases attributable to the effect of COVID-19 in Guangzhou in 2020</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2015-2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年广州市登革热本地病例流行病学特征分析</t>
-    </r>
-  </si>
-  <si>
-    <t>2015-2019</t>
-  </si>
-  <si>
-    <t>The increasing menace of dengue in Guangzhou, 2001-2016: the most important epicenter in mainland China</t>
-  </si>
-  <si>
-    <t>2001-2016</t>
-  </si>
-  <si>
-    <t>Molecular epidemiological characteristics of dengue virus carried by 34 patients in Guangzhou in 2018</t>
-  </si>
-  <si>
-    <t>Guangzhou University of Chinese Medicine</t>
-  </si>
-  <si>
-    <t>The dengue prefance to endemic in mainland China: the historical largest outbreak by Aedes albopictus in Guangzhou, 2014</t>
-  </si>
-  <si>
-    <t>Infectious Diseases of Poverty</t>
-  </si>
-  <si>
-    <t>Molecular epidemiology demonstrates that imported and local strains circulated during the 2014 dengue outbreak in Guangzhou, China</t>
-  </si>
-  <si>
-    <t>Molecular characterization and genotype shift of dengue virus strains between 2001 and 2014 in Guangzhou</t>
-  </si>
-  <si>
-    <t>2001-2014</t>
-  </si>
-  <si>
-    <r>
-      <t>2014-2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年深圳市南山区本地登革热时空分析</t>
-    </r>
-  </si>
-  <si>
-    <t>Shenzhen Center for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>2014-2019</t>
-  </si>
-  <si>
-    <t>Molecular identification of the first local dengue fever outbreak in Shenzhen city, China: a potential imported vertical transmission from Southeast Asia?</t>
-  </si>
-  <si>
-    <r>
       <t>深圳市南山区</t>
     </r>
     <r>
@@ -1121,6 +1062,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2014-2018</t>
     </r>
     <r>
@@ -1140,70 +1087,177 @@
     <t>2014-2018</t>
   </si>
   <si>
-    <t>Imported dengue serotype 1 outbreak in a non-endemic region, China, 2017: a molecular and seroepidemiological study</t>
-  </si>
-  <si>
-    <t>Journal of Infection</t>
-  </si>
-  <si>
-    <t>Shandong Provincial Center for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t>Shandong</t>
-  </si>
-  <si>
-    <t>Jining</t>
-  </si>
-  <si>
-    <t>秦皇岛口岸首例输入性登革热病例的分子溯源</t>
-  </si>
-  <si>
-    <t>中国媒介生物学及控制杂志</t>
-  </si>
-  <si>
-    <t>Huaian Center for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t>Qinhuangdao</t>
-  </si>
-  <si>
-    <t>The epidemiology and evolutionary dynamics of massive dengue outbreak in China, 2019</t>
+    <r>
+      <t>深圳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热的流行病学和基因分型</t>
+    </r>
+  </si>
+  <si>
+    <t>深圳市罗湖区1例本地登革热疫情处置分析</t>
+  </si>
+  <si>
+    <t>职业与健康</t>
+  </si>
+  <si>
+    <t>Shenzhen Luohu Center for Diseaes Control and Provention</t>
+  </si>
+  <si>
+    <t>深圳市大鹏新区首发登革热病例的分子病毒学分析</t>
+  </si>
+  <si>
+    <t>上海预防医学</t>
+  </si>
+  <si>
+    <t>Dapeng New District Center for Public Health Management and Service</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年深圳市南山区本地登革热时空分析</t>
+    </r>
+  </si>
+  <si>
+    <t>2014-2019</t>
+  </si>
+  <si>
+    <t>CN0010</t>
+  </si>
+  <si>
+    <t>The origin of dengue viruses caused the DF outbreak in Guangdong province, China, in 2006</t>
+  </si>
+  <si>
+    <t>Beijing Institute of Genomics</t>
+  </si>
+  <si>
+    <t>CN0011</t>
+  </si>
+  <si>
+    <t>Spatiotemporal analysis of indigenous and imported dengue fever cases in Guangdong province, China</t>
+  </si>
+  <si>
+    <t>Chinese Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <r>
+      <t>广西壮族自治区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热暴发疫情流行病学特征和病原溯源</t>
+    </r>
+  </si>
+  <si>
+    <t>Guangxi Provincial Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Establishment and application of heminested RT-PCR assay for detection of mosquito-borne flavivirus - Guizhou Province, China, 2018</t>
+  </si>
+  <si>
+    <t>CCDC Weekly</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>The origin of molecular epidemiology of dengue fever in Hainan province, China, 2019</t>
   </si>
   <si>
     <t>Frontiers in Microbiology</t>
   </si>
   <si>
-    <t>Qilu Hospital of Shandong University</t>
-  </si>
-  <si>
-    <t>Epidemiological characteristics and temporal-spatial analysis of overseas imported dengue fever cases in outbreak provinces of China, 2005-2019</t>
-  </si>
-  <si>
-    <t>The epidemiological characteristics of dengue in high-risk areas of China, 2013-2016</t>
-  </si>
-  <si>
-    <t>2013-2016</t>
-  </si>
-  <si>
-    <t>Spatial dynamics of dengue fever in mainland China, 2019</t>
-  </si>
-  <si>
-    <t>International Journal of Environmental Research and Public Health</t>
-  </si>
-  <si>
-    <t>Increasingly expanded future risk of dengue fever in the Pearl River Delta, China</t>
-  </si>
-  <si>
-    <t>Institute of Geographic Sicences and Natural Resources Research</t>
-  </si>
-  <si>
-    <t>Dengue fever and dengue virus in People's Republic of China</t>
-  </si>
-  <si>
-    <t>Reviews In Medical Virology</t>
-  </si>
-  <si>
-    <t>Sun Yet-sen University</t>
+    <t>Hainan Medical University</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <r>
+      <t>2005-2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年河南省输入性登革热病例分析</t>
+    </r>
+  </si>
+  <si>
+    <t>中国国境卫生检疫杂志</t>
+  </si>
+  <si>
+    <t>河南出入境检验检疫局</t>
+  </si>
+  <si>
+    <t>Henan</t>
+  </si>
+  <si>
+    <t>2005-2016</t>
+  </si>
+  <si>
+    <t>CN0009</t>
+  </si>
+  <si>
+    <t>Molecular epidemiology of dengue viruses in southern China from 1978 to 2006</t>
+  </si>
+  <si>
+    <t>Nationwide</t>
+  </si>
+  <si>
+    <t>Epidemological dynamics of dengue fever in mainland China, 2014-2018</t>
+  </si>
+  <si>
+    <t>International Journal of Infectious Diseases</t>
   </si>
   <si>
     <t>Increase in cases of dengue in China, 2004-2016: a retrospective observational study</t>
@@ -1221,10 +1275,19 @@
     <t>Epidemological characteristics of dengue in mainland China from 1990 to 2019</t>
   </si>
   <si>
+    <t>Medicine</t>
+  </si>
+  <si>
     <t>1990-2019</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2014-2018</t>
     </r>
     <r>
@@ -1238,10 +1301,124 @@
     </r>
   </si>
   <si>
-    <t>Epidemological dynamics of dengue fever in mainland China, 2014-2018</t>
-  </si>
-  <si>
-    <t>International Journal of Infectious Diseases</t>
+    <t>中国媒介生物学及控制杂志</t>
+  </si>
+  <si>
+    <t>The epidemiological characteristics of dengue in high-risk areas of China, 2013-2016</t>
+  </si>
+  <si>
+    <t>Qilu Hospital of Shandong University</t>
+  </si>
+  <si>
+    <t>2013-2016</t>
+  </si>
+  <si>
+    <t>Spatial dynamics of dengue fever in mainland China, 2019</t>
+  </si>
+  <si>
+    <t>Increasingly expanded future risk of dengue fever in the Pearl River Delta, China</t>
+  </si>
+  <si>
+    <t>Institute of Geographic Sicences and Natural Resources Research</t>
+  </si>
+  <si>
+    <t>Dengue fever and dengue virus in People's Republic of China</t>
+  </si>
+  <si>
+    <t>Reviews In Medical Virology</t>
+  </si>
+  <si>
+    <t>Epidemiological characteristics and temporal-spatial analysis of overseas imported dengue fever cases in outbreak provinces of China, 2005-2019</t>
+  </si>
+  <si>
+    <t>The epidemiology and evolutionary dynamics of massive dengue outbreak in China, 2019</t>
+  </si>
+  <si>
+    <t>Imported dengue serotype 1 outbreak in a non-endemic region, China, 2017: a molecular and seroepidemiological study</t>
+  </si>
+  <si>
+    <t>Journal of Infection</t>
+  </si>
+  <si>
+    <t>Shandong Provincial Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Jining</t>
+  </si>
+  <si>
+    <t>秦皇岛口岸首例输入性登革热病例的分子溯源</t>
+  </si>
+  <si>
+    <t>Huaian Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Qinhuangdao</t>
+  </si>
+  <si>
+    <t>Molecular characterization of dengue virus imported into Taiwan during 2003-2007: geographic distribution and genotype shift</t>
+  </si>
+  <si>
+    <t>Taiwan Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>2003-2007</t>
+  </si>
+  <si>
+    <t>Clinical characteristics and risk factors for severe dengue fever in Xishuangbanna, during the dengue outbreak in 2019</t>
+  </si>
+  <si>
+    <t>Chinese Academy of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Xishuangbanna</t>
+  </si>
+  <si>
+    <t>CN0015</t>
+  </si>
+  <si>
+    <t>Epidemiology of indigenous dengue cases in Zhejiang province, Southeast China</t>
+  </si>
+  <si>
+    <t>Zhejiang Provincial Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/public-health/articles/10.3389/fpubh.2022.857911/full</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>A survey of clinical and laboratory characteristics of the dengue fever epidemic from 2017 to 2019 in Zhejiang, China</t>
+  </si>
+  <si>
+    <t>The Second Affiliated Hospital of Zhejiang Chinese Medicine University</t>
+  </si>
+  <si>
+    <t>2017-2019</t>
+  </si>
+  <si>
+    <t>CN0014</t>
+  </si>
+  <si>
+    <t>Molecular characterization and phylogenetic analysis of the 2019 dengue outbreak in Wenzhou, China</t>
+  </si>
+  <si>
+    <t>Frontiers in Cellular and Infection Microbiology</t>
+  </si>
+  <si>
+    <t>Wenzhou Medical University</t>
+  </si>
+  <si>
+    <t>Wenzhou</t>
   </si>
 </sst>
 </file>
@@ -2433,12 +2610,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2520,7 +2697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:14">
+    <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +2705,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -2542,14 +2719,17 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:14">
+    <row r="3" customHeight="1" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2737,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="4">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -2565,86 +2745,79 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:9">
       <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4">
-        <v>2010</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:12">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:9">
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4">
-        <v>2013</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>2023</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:9">
       <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
@@ -2652,7 +2825,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="4">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>45</v>
@@ -2660,121 +2833,145 @@
       <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:12">
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4">
-        <v>2023</v>
+        <v>2006</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L9" s="3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2001</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:12">
+      <c r="B11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="3">
         <v>2013</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:11">
+    </row>
+    <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
@@ -2782,411 +2979,361 @@
         <v>65</v>
       </c>
       <c r="D12" s="4">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2013</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:12">
+        <v>73</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:14">
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:12">
+        <v>80</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:9">
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D18" s="4">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:10">
+        <v>88</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="4">
-        <v>2004</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:12">
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:14">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:18">
       <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2001</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:12">
+        <v>23</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:11">
       <c r="B24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2006</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2001</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:12">
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L25" s="3">
         <v>2013</v>
@@ -3194,74 +3341,77 @@
     </row>
     <row r="26" customHeight="1" spans="2:12">
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L26" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:12">
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D27" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:12">
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>113</v>
+        <v>44</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>114</v>
@@ -3269,121 +3419,113 @@
       <c r="F28" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I28" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:9">
+        <v>100</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:12">
       <c r="B29" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>117</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2022</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:14">
+      <c r="B30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:12">
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D30" s="4">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="H30" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>122</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:17">
-      <c r="A31" s="2" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:12">
+      <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D32" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2019</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>128</v>
@@ -3392,1598 +3534,2033 @@
         <v>129</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:18">
+      <c r="A33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2007</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:11">
+      <c r="B34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L32" s="3">
+      <c r="D34" s="4">
+        <v>1992</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:12">
+      <c r="B35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:12">
+      <c r="B36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:12">
+      <c r="B37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="4">
         <v>2007</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:16">
-      <c r="A33" s="2" t="s">
+      <c r="E37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="L37" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:12">
+      <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:12">
+      <c r="B39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:14">
-      <c r="A35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="F39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L39" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:12">
+      <c r="B40" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="4">
-        <v>2002</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="C40" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:13">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="41" customHeight="1" spans="2:12">
+      <c r="B41" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2007</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:13">
-      <c r="A37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2009</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:13">
-      <c r="A38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2009</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38" s="3">
-        <v>2006</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:12">
-      <c r="A40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:10">
-      <c r="A41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D41" s="4">
         <v>2012</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="H41" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="I41" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:17">
-      <c r="A42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:12">
+      <c r="B42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D42" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:17">
+      <c r="A43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="4">
         <v>2013</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:12">
-      <c r="A43" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2020</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:12">
-      <c r="A44" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="Q43" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:12">
       <c r="B44" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D44" s="4">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="L44" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:11">
-      <c r="A45" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:12">
       <c r="B45" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="4">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>60</v>
+        <v>141</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2014</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:12">
       <c r="B46" s="3" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D46" s="4">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:11">
-      <c r="B47" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>197</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:12">
+      <c r="B47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D47" s="4">
-        <v>1992</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>198</v>
+        <v>2018</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:12">
-      <c r="B48" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>200</v>
+      <c r="B48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D48" s="4">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2002</v>
+        <v>141</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:12">
-      <c r="B49" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>154</v>
+      <c r="B49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D49" s="4">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:12">
-      <c r="B50" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>137</v>
+      <c r="B50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="4">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L50" s="3">
-        <v>2006</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:12">
       <c r="B51" s="3" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="D51" s="4">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L51" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:12">
+        <v>141</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:11">
+      <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D52" s="4">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2010</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:12">
       <c r="B53" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:12">
+      <c r="B54" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:16">
+      <c r="A55" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:14">
+      <c r="A56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2002</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:13">
+      <c r="A57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2006</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:17">
+      <c r="A60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L53" s="3" t="s">
+      <c r="L60" s="3">
+        <v>2019</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:12">
-      <c r="B54" s="7" t="s">
+      <c r="P60" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="Q60" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:12">
-      <c r="B55" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L55" s="3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:12">
-      <c r="B56" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:12">
-      <c r="B57" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:12">
-      <c r="B58" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:12">
-      <c r="B59" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:12">
-      <c r="B60" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2018</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:12">
       <c r="B61" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="D61" s="4">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="L61" s="3">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:12">
-      <c r="B62" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>179</v>
+      <c r="B62" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D62" s="4">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="L62" s="3">
         <v>2014</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:12">
-      <c r="B63" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>105</v>
+      <c r="B63" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="D63" s="4">
         <v>2017</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
+      </c>
+      <c r="L63" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:12">
       <c r="B64" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>200</v>
+        <v>221</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D64" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:12">
-      <c r="B65" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>105</v>
+      <c r="B65" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D65" s="4">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L65" s="3">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:12">
       <c r="B66" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D66" s="4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L66" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:12">
       <c r="B67" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D67" s="4">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L67" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:12">
       <c r="B68" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:12">
+      <c r="A69" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:11">
+      <c r="A70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:12">
+      <c r="B71" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C71" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="F71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:12">
-      <c r="B69" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="L69" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:12">
-      <c r="B70" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L70" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:12">
-      <c r="B71" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="K71" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L71" s="3">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:12">
       <c r="B72" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D72" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>218</v>
+        <v>23</v>
+      </c>
+      <c r="L72" s="3">
+        <v>2018</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:12">
       <c r="B73" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="D73" s="4">
         <v>2021</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>256</v>
+        <v>23</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2019</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:12">
       <c r="B74" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D74" s="4">
-        <v>2021</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>173</v>
+        <v>2018</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L74" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:12">
+        <v>23</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:11">
+      <c r="A75" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B75" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D75" s="4">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="I75" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:12">
       <c r="B76" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D76" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:12">
       <c r="B77" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D77" s="4">
         <v>2020</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:12">
       <c r="B78" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="D78" s="4">
         <v>2020</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:12">
       <c r="B79" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D79" s="4">
         <v>2020</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>128</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:12">
       <c r="B80" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:12">
+      <c r="B81" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:12">
+      <c r="B82" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="4">
+      <c r="C82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:12">
+      <c r="B83" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:12">
+      <c r="B84" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:12">
+      <c r="B85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="3">
         <v>2019</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>241</v>
+    </row>
+    <row r="86" customHeight="1" spans="2:12">
+      <c r="B86" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L86" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:12">
+      <c r="B87" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L87" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:12">
+      <c r="B88" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="4">
+        <v>2009</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:12">
+      <c r="B89" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:11">
+      <c r="A90" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:12">
+      <c r="B91" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:12">
+      <c r="A92" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L92" s="3">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R78">
+  <autoFilter ref="A1:R30">
+    <sortState ref="A2:R30">
+      <sortCondition ref="I2:I88"/>
+      <sortCondition ref="J2:J88"/>
+      <sortCondition ref="K2:K88"/>
+      <sortCondition ref="D2:D88"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="508">
   <si>
     <t>Pub_Access</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2016-2017</t>
     </r>
     <r>
@@ -547,6 +553,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1999</t>
     </r>
     <r>
@@ -1375,6 +1387,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2015-2019</t>
     </r>
     <r>
@@ -1688,6 +1706,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2006-2007</t>
     </r>
     <r>
@@ -1891,6 +1915,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2014-2018</t>
     </r>
     <r>
@@ -2005,6 +2035,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2014-2019</t>
     </r>
     <r>
@@ -2146,6 +2182,20 @@
     </r>
   </si>
   <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海南</t>
+    </r>
+  </si>
+  <si>
     <t>The origin of molecular epidemiology of dengue fever in Hainan province, China, 2019</t>
   </si>
   <si>
@@ -2166,20 +2216,6 @@
     </r>
   </si>
   <si>
-    <t>Hainan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>海南</t>
-    </r>
-  </si>
-  <si>
     <t>Hebei</t>
   </si>
   <si>
@@ -2209,6 +2245,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2005-2016</t>
     </r>
     <r>
@@ -2280,6 +2322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>湖北省</t>
     </r>
     <r>
@@ -2469,6 +2517,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>澳门老年登革热患者</t>
     </r>
     <r>
@@ -2633,6 +2687,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2014-2018</t>
     </r>
     <r>
@@ -2825,6 +2885,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2018-2020</t>
     </r>
     <r>
@@ -3074,6 +3140,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2005-2019</t>
     </r>
     <r>
@@ -3248,6 +3320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2004-2016</t>
     </r>
     <r>
@@ -4652,12 +4730,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -8092,50 +8170,26 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="2:14">
-      <c r="B81" s="2" t="s">
+    <row r="81" customHeight="1" spans="4:11">
+      <c r="D81" s="3">
+        <v>1980</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D81" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="2">
-        <v>2019</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="4:11">
       <c r="D82" s="3">
-        <v>2020</v>
+        <v>1985</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>60</v>
@@ -8144,15 +8198,15 @@
         <v>131</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="4:11">
       <c r="D83" s="3">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>60</v>
@@ -8161,15 +8215,30 @@
         <v>131</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="4:11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:14">
+      <c r="B84" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="D84" s="3">
-        <v>2015</v>
+        <v>2021</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>60</v>
@@ -8178,15 +8247,24 @@
         <v>131</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="4:11">
       <c r="D85" s="3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>60</v>
@@ -8195,15 +8273,15 @@
         <v>131</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="4:11">
       <c r="D86" s="3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>60</v>
@@ -8218,22 +8296,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="2:14">
-      <c r="B87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>321</v>
-      </c>
+    <row r="87" customHeight="1" spans="4:11">
       <c r="D87" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>131</v>
+        <v>2015</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>60</v>
@@ -8247,19 +8312,10 @@
       <c r="K87" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="L87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="88" customHeight="1" spans="4:11">
       <c r="D88" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>60</v>
@@ -8274,24 +8330,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="2:21">
-      <c r="B89" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>325</v>
-      </c>
+    <row r="89" customHeight="1" spans="4:11">
       <c r="D89" s="3">
-        <v>2008</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>2017</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>60</v>
@@ -8300,57 +8341,24 @@
         <v>131</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="2:21">
-      <c r="B90" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:14">
+      <c r="B90" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D90" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>335</v>
+        <v>2018</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>131</v>
@@ -8362,10 +8370,10 @@
         <v>131</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>24</v>
@@ -8373,34 +8381,13 @@
       <c r="M90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="2">
-        <v>2019</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>24</v>
+      <c r="N90" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="4:11">
       <c r="D91" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>60</v>
@@ -8409,15 +8396,30 @@
         <v>131</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="4:11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:21">
+      <c r="B92" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="D92" s="3">
-        <v>2020</v>
+        <v>2008</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>60</v>
@@ -8426,16 +8428,61 @@
         <v>131</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="4:11">
+        <v>329</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="2:21">
+      <c r="B93" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D93" s="3">
         <v>2021</v>
       </c>
+      <c r="E93" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H93" s="2" t="s">
         <v>60</v>
       </c>
@@ -8443,15 +8490,45 @@
         <v>131</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="4:11">
       <c r="D94" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>60</v>
@@ -8468,7 +8545,7 @@
     </row>
     <row r="95" customHeight="1" spans="4:11">
       <c r="D95" s="3">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>60</v>
@@ -8477,163 +8554,145 @@
         <v>131</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="4:11">
       <c r="D96" s="3">
+        <v>2021</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="4:11">
+      <c r="D97" s="3">
+        <v>2021</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="4:11">
+      <c r="D98" s="3">
+        <v>2007</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="4:11">
+      <c r="D99" s="3">
         <v>2010</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J96" s="2" t="s">
+      <c r="H99" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="2:21">
-      <c r="B97" s="2" t="s">
+    <row r="100" customHeight="1" spans="2:21">
+      <c r="B100" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D100" s="3">
         <v>2015</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J97" s="2" t="s">
+      <c r="G100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="M97" s="7" t="s">
+      <c r="M100" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="N97" s="2">
+      <c r="N100" s="2">
         <v>2012</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="O100" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P97" s="2" t="s">
+      <c r="P100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q97" s="2" t="s">
+      <c r="Q100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R97" s="2" t="s">
+      <c r="R100" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S97" s="2" t="s">
+      <c r="S100" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="T97" s="2" t="s">
+      <c r="T100" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="U97" s="2" t="s">
+      <c r="U100" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="4:13">
-      <c r="D98" s="3">
+    <row r="101" customHeight="1" spans="4:13">
+      <c r="D101" s="3">
         <v>2019</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" customHeight="1" spans="4:13">
-      <c r="D99" s="3">
-        <v>2020</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M99" s="7"/>
-    </row>
-    <row r="100" customHeight="1" spans="4:13">
-      <c r="D100" s="3">
-        <v>2020</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M100" s="7"/>
-    </row>
-    <row r="101" customHeight="1" spans="2:21">
-      <c r="B101" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D101" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>60</v>
@@ -8647,55 +8706,11 @@
       <c r="K101" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L101" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M101" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="N101" s="2">
-        <v>2019</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U101" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="2:21">
-      <c r="B102" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" customHeight="1" spans="4:13">
       <c r="D102" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>2020</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>60</v>
@@ -8709,55 +8724,11 @@
       <c r="K102" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N102" s="2">
-        <v>2019</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="R102" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U102" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="2:21">
-      <c r="B103" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>362</v>
-      </c>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" customHeight="1" spans="4:13">
       <c r="D103" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>2020</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>60</v>
@@ -8766,57 +8737,28 @@
         <v>131</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N103" s="2">
-        <v>2001</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U103" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M103" s="7"/>
     </row>
     <row r="104" customHeight="1" spans="2:21">
       <c r="B104" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D104" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>131</v>
@@ -8828,19 +8770,19 @@
         <v>131</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="N104" s="2">
+        <v>2019</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>145</v>
@@ -8866,22 +8808,22 @@
     </row>
     <row r="105" customHeight="1" spans="2:21">
       <c r="B105" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>64</v>
+        <v>358</v>
       </c>
       <c r="D105" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>60</v>
@@ -8890,19 +8832,19 @@
         <v>131</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="N105" s="2">
-        <v>1874</v>
+        <v>2019</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>145</v>
@@ -8911,7 +8853,7 @@
         <v>163</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="R105" s="2" t="s">
         <v>138</v>
@@ -8928,13 +8870,13 @@
     </row>
     <row r="106" customHeight="1" spans="2:21">
       <c r="B106" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D106" s="3">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>363</v>
@@ -8963,14 +8905,14 @@
       <c r="M106" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>24</v>
+      <c r="N106" s="2">
+        <v>2001</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>24</v>
@@ -8988,138 +8930,204 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="2:13">
+    <row r="107" customHeight="1" spans="2:21">
       <c r="B107" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="2:21">
+      <c r="B108" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N108" s="2">
+        <v>1874</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="2:21">
+      <c r="B109" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="2:13">
+      <c r="B110" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D110" s="3">
         <v>2011</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="2:14">
-      <c r="B108" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D108" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="2:14">
-      <c r="B109" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D109" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="2:14">
-      <c r="B110" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D110" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>131</v>
@@ -9142,19 +9150,16 @@
       <c r="M110" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N110" s="2" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="111" customHeight="1" spans="2:14">
       <c r="B111" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D111" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>296</v>
@@ -9189,19 +9194,19 @@
     </row>
     <row r="112" customHeight="1" spans="2:14">
       <c r="B112" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="D112" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>131</v>
@@ -9225,24 +9230,24 @@
         <v>24</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:14">
       <c r="B113" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="D113" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>131</v>
@@ -9265,22 +9270,25 @@
       <c r="M113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N113" s="2">
-        <v>2019</v>
+      <c r="N113" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:14">
       <c r="B114" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="D114" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>395</v>
+        <v>296</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>131</v>
@@ -9304,24 +9312,24 @@
         <v>24</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:14">
       <c r="B115" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>397</v>
+        <v>47</v>
       </c>
       <c r="D115" s="3">
         <v>2021</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>222</v>
+        <v>391</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>131</v>
@@ -9345,18 +9353,18 @@
         <v>24</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>24</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:14">
       <c r="B116" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D116" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>296</v>
@@ -9385,25 +9393,22 @@
       <c r="M116" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N116" s="2" t="s">
-        <v>231</v>
+      <c r="N116" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="2:14">
       <c r="B117" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="D117" s="3">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>131</v>
@@ -9426,25 +9431,25 @@
       <c r="M117" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N117" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="2:21">
+      <c r="N117" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="2:14">
       <c r="B118" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D118" s="3">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>131</v>
@@ -9456,10 +9461,10 @@
         <v>131</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>24</v>
@@ -9467,43 +9472,25 @@
       <c r="M118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N118" s="2">
-        <v>2007</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="R118" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U118" s="2" t="s">
-        <v>404</v>
+      <c r="N118" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="2:14">
       <c r="B119" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>406</v>
+        <v>214</v>
       </c>
       <c r="D119" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>131</v>
@@ -9515,36 +9502,36 @@
         <v>131</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>411</v>
+        <v>24</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="N119" s="2">
-        <v>2017</v>
+        <v>24</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:14">
       <c r="B120" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="D120" s="3">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>131</v>
@@ -9556,36 +9543,36 @@
         <v>131</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>416</v>
+        <v>24</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>417</v>
+        <v>24</v>
       </c>
       <c r="N120" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:21">
       <c r="B121" s="2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D121" s="3">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>421</v>
+        <v>297</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>131</v>
@@ -9597,19 +9584,19 @@
         <v>131</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>422</v>
+        <v>24</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>424</v>
+        <v>24</v>
+      </c>
+      <c r="N121" s="2">
+        <v>2007</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>145</v>
@@ -9623,31 +9610,28 @@
       <c r="R121" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S121" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="T121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="2:21">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="2:14">
       <c r="B122" s="2" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D122" s="3">
         <v>2020</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>131</v>
@@ -9659,57 +9643,36 @@
         <v>131</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q122" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="R122" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S122" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U122" s="2" t="s">
-        <v>24</v>
+        <v>412</v>
+      </c>
+      <c r="N122" s="2">
+        <v>2017</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:14">
       <c r="B123" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="D123" s="3">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>131</v>
@@ -9721,36 +9684,36 @@
         <v>131</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>24</v>
+        <v>416</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>436</v>
+        <v>417</v>
+      </c>
+      <c r="N123" s="2">
+        <v>2012</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:21">
       <c r="B124" s="2" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D124" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>131</v>
@@ -9762,19 +9725,19 @@
         <v>131</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>24</v>
+        <v>423</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>145</v>
@@ -9783,36 +9746,36 @@
         <v>163</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>441</v>
+        <v>137</v>
       </c>
       <c r="R124" s="2" t="s">
         <v>53</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>24</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:21">
       <c r="B125" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D125" s="3">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>131</v>
@@ -9824,54 +9787,57 @@
         <v>131</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>24</v>
+        <v>423</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>163</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>24</v>
+        <v>430</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="2:21">
+    <row r="126" customHeight="1" spans="2:14">
       <c r="B126" s="2" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="D126" s="3">
-        <v>2002</v>
+        <v>2009</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>131</v>
@@ -9883,10 +9849,10 @@
         <v>131</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>24</v>
@@ -9895,45 +9861,24 @@
         <v>24</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R126" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U126" s="2" t="s">
-        <v>24</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:21">
       <c r="B127" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="D127" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>131</v>
@@ -9945,10 +9890,10 @@
         <v>131</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>24</v>
@@ -9956,8 +9901,8 @@
       <c r="M127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N127" s="2">
-        <v>2013</v>
+      <c r="N127" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>145</v>
@@ -9966,36 +9911,36 @@
         <v>163</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>212</v>
+        <v>441</v>
       </c>
       <c r="R127" s="2" t="s">
         <v>53</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>453</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:21">
       <c r="B128" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="D128" s="3">
-        <v>2022</v>
+        <v>1999</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>131</v>
@@ -10019,10 +9964,10 @@
         <v>24</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>455</v>
+        <v>24</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>145</v>
+        <v>331</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>163</v>
@@ -10043,18 +9988,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="2:14">
+    <row r="129" customHeight="1" spans="2:21">
       <c r="B129" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D129" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>457</v>
+        <v>2002</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>131</v>
@@ -10072,30 +10017,51 @@
         <v>447</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>458</v>
+        <v>24</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N129" s="2">
-        <v>2019</v>
+        <v>24</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="2:21">
       <c r="B130" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="D130" s="3">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>131</v>
@@ -10107,57 +10073,57 @@
         <v>131</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>466</v>
+        <v>24</v>
       </c>
       <c r="N130" s="2">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>163</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>53</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>467</v>
+        <v>179</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>180</v>
       </c>
       <c r="U130" s="2" t="s">
-        <v>24</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="2:21">
       <c r="B131" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D131" s="3">
-        <v>2005</v>
+        <v>2022</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>462</v>
+        <v>297</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>131</v>
@@ -10169,19 +10135,19 @@
         <v>131</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="N131" s="2">
-        <v>2004</v>
+        <v>24</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>145</v>
@@ -10190,7 +10156,7 @@
         <v>163</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="R131" s="2" t="s">
         <v>138</v>
@@ -10205,71 +10171,62 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="2:21">
+    <row r="132" customHeight="1" spans="2:14">
       <c r="B132" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="D132" s="3">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N132" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="2:21">
+      <c r="B133" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2005</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="N132" s="2">
-        <v>2004</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q132" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="R132" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S132" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="T132" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U132" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="4:11">
-      <c r="D133" s="3">
-        <v>2007</v>
+      <c r="G133" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>60</v>
@@ -10283,16 +10240,46 @@
       <c r="K133" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="L133" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N133" s="2">
+        <v>2004</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U133" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="134" customHeight="1" spans="2:21">
       <c r="B134" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="D134" s="3">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>461</v>
@@ -10316,13 +10303,13 @@
         <v>464</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>24</v>
+        <v>465</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>24</v>
+        <v>466</v>
       </c>
       <c r="N134" s="2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>145</v>
@@ -10331,16 +10318,16 @@
         <v>163</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="U134" s="2" t="s">
         <v>24</v>
@@ -10348,19 +10335,19 @@
     </row>
     <row r="135" customHeight="1" spans="2:21">
       <c r="B135" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D135" s="3">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>131</v>
@@ -10378,54 +10365,39 @@
         <v>464</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>24</v>
+        <v>470</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
+      </c>
+      <c r="N135" s="2">
+        <v>2004</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>163</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>24</v>
+        <v>473</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="2:21">
-      <c r="B136" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>388</v>
-      </c>
+    <row r="136" customHeight="1" spans="4:11">
       <c r="D136" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>131</v>
+        <v>2007</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>60</v>
@@ -10439,52 +10411,22 @@
       <c r="K136" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="L136" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N136" s="2">
-        <v>2019</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S136" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="T136" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U136" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="137" customHeight="1" spans="2:21">
       <c r="B137" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="D137" s="3">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>131</v>
@@ -10502,13 +10444,13 @@
         <v>464</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>487</v>
+        <v>24</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="N137" s="2">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>145</v>
@@ -10517,16 +10459,16 @@
         <v>163</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="U137" s="2" t="s">
         <v>24</v>
@@ -10534,19 +10476,19 @@
     </row>
     <row r="138" customHeight="1" spans="2:21">
       <c r="B138" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="D138" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>131</v>
@@ -10569,8 +10511,8 @@
       <c r="M138" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N138" s="2">
-        <v>2019</v>
+      <c r="N138" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>145</v>
@@ -10579,33 +10521,36 @@
         <v>163</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="U138" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="2:14">
+    <row r="139" customHeight="1" spans="2:21">
       <c r="B139" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D139" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>131</v>
@@ -10623,33 +10568,51 @@
         <v>464</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>24</v>
+        <v>482</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:13">
-      <c r="A140" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N139" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:21">
       <c r="B140" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>265</v>
+        <v>388</v>
       </c>
       <c r="D140" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>131</v>
@@ -10667,27 +10630,51 @@
         <v>464</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="2:14">
+        <v>488</v>
+      </c>
+      <c r="N140" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="2:21">
       <c r="B141" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>358</v>
       </c>
       <c r="D141" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>131</v>
@@ -10705,30 +10692,48 @@
         <v>464</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>498</v>
+        <v>24</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>499</v>
+        <v>24</v>
       </c>
       <c r="N141" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="142" customHeight="1" spans="2:21">
+      <c r="O141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:14">
       <c r="B142" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="D142" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>131</v>
@@ -10752,45 +10757,27 @@
         <v>24</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R142" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U142" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="2:21">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:13">
+      <c r="A143" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="B143" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="D143" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>131</v>
@@ -10808,39 +10795,180 @@
         <v>464</v>
       </c>
       <c r="L143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="2:14">
+      <c r="B144" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N144" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="2:21">
+      <c r="B145" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="2:21">
+      <c r="B146" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L146" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="M146" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="N146" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="O143" s="2" t="s">
+      <c r="O146" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P143" s="2" t="s">
+      <c r="P146" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q143" s="2" t="s">
+      <c r="Q146" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="R143" s="2" t="s">
+      <c r="R146" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S143" s="2" t="s">
+      <c r="S146" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="T143" s="2" t="s">
+      <c r="T146" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="U143" s="2" t="s">
+      <c r="U146" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U143">
-    <sortState ref="A1:U143">
+  <autoFilter ref="A1:U146">
+    <sortState ref="A1:U146">
       <sortCondition ref="I2:I88"/>
       <sortCondition ref="J2:J88"/>
       <sortCondition ref="L2:L88"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="603">
   <si>
     <t>Pub_Access</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2005-2017</t>
     </r>
     <r>
@@ -940,6 +946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2017</t>
     </r>
     <r>
@@ -1445,6 +1457,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>佛山市顺德区</t>
     </r>
     <r>
@@ -2478,6 +2496,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中山市</t>
     </r>
     <r>
@@ -2531,6 +2555,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中山市</t>
     </r>
     <r>
@@ -2717,6 +2747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>河北省</t>
     </r>
     <r>
@@ -3715,6 +3751,21 @@
     <t>Dengue virus serotype 3 subtype III, Zhejiang province, China</t>
   </si>
   <si>
+    <t>一起登革热暴发疫情调查</t>
+  </si>
+  <si>
+    <t>预防医学</t>
+  </si>
+  <si>
+    <t>Zhejiang Ningbo Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>浙江省宁波市疾病预防控制中心</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3747,6 +3798,73 @@
       </rPr>
       <t>杭州市疾病预防控制中心</t>
     </r>
+  </si>
+  <si>
+    <t>宁波市登革热病例流行病学特征分析</t>
+  </si>
+  <si>
+    <t>2009-2018</t>
+  </si>
+  <si>
+    <r>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年浙江省岱山县首起海岛登革热本地暴发疫情流行病学调查</t>
+    </r>
+  </si>
+  <si>
+    <t>疾病监测</t>
+  </si>
+  <si>
+    <t>Zhejiang Daishan Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>浙江省岱山县疾病预防控制中心</t>
+  </si>
+  <si>
+    <t>Daishan</t>
+  </si>
+  <si>
+    <t>岱山</t>
+  </si>
+  <si>
+    <r>
+      <t>杭州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年一起农村登革热暴发疫情调查研究</t>
+    </r>
+  </si>
+  <si>
+    <t>Zhejiang Hangzhou Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>浙江省杭州市疾病预防控制中心</t>
+  </si>
+  <si>
+    <t>杭州</t>
   </si>
   <si>
     <r>
@@ -5120,12 +5238,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U341"/>
+  <dimension ref="A1:U342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N102" sqref="N102"/>
+      <selection pane="bottomLeft" activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -7720,7 +7838,6 @@
       <c r="P67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
         <v>135</v>
       </c>
@@ -8794,77 +8911,21 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="2:21">
-      <c r="B102" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>266</v>
-      </c>
+    <row r="102" customHeight="1" spans="4:13">
       <c r="D102" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="N102" s="2">
-        <v>2014</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="R102" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U102" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="M102" s="7"/>
     </row>
     <row r="103" customHeight="1" spans="2:21">
       <c r="B103" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="D103" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>260</v>
@@ -8920,19 +8981,19 @@
     </row>
     <row r="104" customHeight="1" spans="2:21">
       <c r="B104" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="D104" s="3">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>127</v>
@@ -8950,31 +9011,31 @@
         <v>236</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>272</v>
+        <v>237</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="N104" s="2">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>139</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>24</v>
@@ -8982,19 +9043,19 @@
     </row>
     <row r="105" customHeight="1" spans="2:21">
       <c r="B105" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="D105" s="3">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>127</v>
@@ -9018,7 +9079,7 @@
         <v>272</v>
       </c>
       <c r="N105" s="2">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>139</v>
@@ -9027,10 +9088,10 @@
         <v>157</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>24</v>
@@ -9043,20 +9104,20 @@
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:21">
-      <c r="B106" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>277</v>
+      <c r="B106" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D106" s="3">
-        <v>1985</v>
+        <v>2019</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>127</v>
@@ -9074,13 +9135,13 @@
         <v>236</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N106" s="2">
-        <v>1985</v>
+        <v>2015</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>139</v>
@@ -9089,10 +9150,10 @@
         <v>157</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>24</v>
@@ -9105,20 +9166,20 @@
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:21">
-      <c r="B107" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>282</v>
+      <c r="B107" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="D107" s="3">
-        <v>2012</v>
+        <v>1985</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>283</v>
+        <v>233</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>127</v>
@@ -9142,7 +9203,7 @@
         <v>280</v>
       </c>
       <c r="N107" s="2">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>139</v>
@@ -9151,16 +9212,16 @@
         <v>157</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="U107" s="2" t="s">
         <v>24</v>
@@ -9168,19 +9229,19 @@
     </row>
     <row r="108" customHeight="1" spans="2:21">
       <c r="B108" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D108" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>127</v>
@@ -9203,8 +9264,8 @@
       <c r="M108" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="N108" s="2" t="s">
-        <v>288</v>
+      <c r="N108" s="2">
+        <v>2010</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>139</v>
@@ -9213,7 +9274,7 @@
         <v>157</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="R108" s="2" t="s">
         <v>53</v>
@@ -9228,9 +9289,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="4:13">
+    <row r="109" customHeight="1" spans="2:21">
+      <c r="B109" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D109" s="3">
-        <v>1978</v>
+        <v>2019</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>60</v>
@@ -9245,10 +9321,34 @@
         <v>236</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="4:13">
@@ -9276,7 +9376,7 @@
     </row>
     <row r="111" customHeight="1" spans="4:13">
       <c r="D111" s="3">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>60</v>
@@ -9299,7 +9399,7 @@
     </row>
     <row r="112" customHeight="1" spans="4:13">
       <c r="D112" s="3">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>60</v>
@@ -9322,7 +9422,7 @@
     </row>
     <row r="113" customHeight="1" spans="4:13">
       <c r="D113" s="3">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>60</v>
@@ -9345,16 +9445,7 @@
     </row>
     <row r="114" customHeight="1" spans="4:13">
       <c r="D114" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>127</v>
+        <v>1998</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>60</v>
@@ -9375,21 +9466,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="2:21">
-      <c r="B115" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>293</v>
-      </c>
+    <row r="115" customHeight="1" spans="4:13">
       <c r="D115" s="3">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>127</v>
@@ -9412,34 +9497,25 @@
       <c r="M115" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U115" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="4:13">
+    </row>
+    <row r="116" customHeight="1" spans="2:21">
+      <c r="B116" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="D116" s="3">
-        <v>2020</v>
+        <v>2010</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>60</v>
@@ -9459,10 +9535,34 @@
       <c r="M116" s="7" t="s">
         <v>291</v>
       </c>
+      <c r="N116" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="117" customHeight="1" spans="4:13">
       <c r="D117" s="3">
-        <v>1980</v>
+        <v>2020</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>60</v>
@@ -9477,10 +9577,10 @@
         <v>236</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="4:13">
@@ -9531,7 +9631,7 @@
     </row>
     <row r="120" customHeight="1" spans="4:13">
       <c r="D120" s="3">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>60</v>
@@ -9554,7 +9654,7 @@
     </row>
     <row r="121" customHeight="1" spans="4:13">
       <c r="D121" s="3">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>60</v>
@@ -9575,24 +9675,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="2:13">
-      <c r="B122" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>300</v>
-      </c>
+    <row r="122" customHeight="1" spans="4:13">
       <c r="D122" s="3">
-        <v>1992</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>127</v>
+        <v>1986</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>60</v>
@@ -9613,9 +9698,24 @@
         <v>298</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="4:13">
+    <row r="123" customHeight="1" spans="2:13">
+      <c r="B123" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D123" s="3">
-        <v>1998</v>
+        <v>1992</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>60</v>
@@ -9636,24 +9736,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="2:21">
-      <c r="B124" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>303</v>
-      </c>
+    <row r="124" customHeight="1" spans="4:13">
       <c r="D124" s="3">
-        <v>2004</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>127</v>
+        <v>1998</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>60</v>
@@ -9673,37 +9758,13 @@
       <c r="M124" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N124" s="2">
-        <v>2002</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R124" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U124" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="2:14">
-      <c r="B125" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>307</v>
+    </row>
+    <row r="125" customHeight="1" spans="2:21">
+      <c r="B125" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="D125" s="3">
         <v>2004</v>
@@ -9738,22 +9799,43 @@
       <c r="N125" s="2">
         <v>2002</v>
       </c>
+      <c r="O125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="126" customHeight="1" spans="2:14">
       <c r="B126" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="D126" s="3">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>127</v>
@@ -9776,25 +9858,25 @@
       <c r="M126" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N126" s="2" t="s">
-        <v>310</v>
+      <c r="N126" s="2">
+        <v>2002</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:14">
       <c r="B127" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D127" s="3">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>127</v>
@@ -9817,14 +9899,29 @@
       <c r="M127" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N127" s="2">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="4:13">
+      <c r="N127" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="2:14">
+      <c r="B128" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D128" s="3">
         <v>2007</v>
       </c>
+      <c r="E128" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H128" s="2" t="s">
         <v>60</v>
       </c>
@@ -9842,6 +9939,9 @@
       </c>
       <c r="M128" s="2" t="s">
         <v>298</v>
+      </c>
+      <c r="N128" s="2">
+        <v>2006</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="4:13">
@@ -9892,7 +9992,7 @@
     </row>
     <row r="131" customHeight="1" spans="4:13">
       <c r="D131" s="3">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>60</v>
@@ -9915,7 +10015,7 @@
     </row>
     <row r="132" customHeight="1" spans="4:13">
       <c r="D132" s="3">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>60</v>
@@ -9938,7 +10038,7 @@
     </row>
     <row r="133" customHeight="1" spans="4:13">
       <c r="D133" s="3">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>60</v>
@@ -9959,21 +10059,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="2:14">
-      <c r="B134" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="134" customHeight="1" spans="4:13">
       <c r="D134" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>127</v>
+        <v>2011</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>60</v>
@@ -9993,25 +10081,19 @@
       <c r="M134" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N134" s="2">
-        <v>2009</v>
-      </c>
     </row>
     <row r="135" customHeight="1" spans="2:14">
       <c r="B135" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="D135" s="3">
         <v>2012</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>127</v>
@@ -10035,15 +10117,15 @@
         <v>298</v>
       </c>
       <c r="N135" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:14">
       <c r="B136" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D136" s="3">
         <v>2012</v>
@@ -10075,16 +10157,16 @@
       <c r="M136" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N136" s="2" t="s">
-        <v>315</v>
+      <c r="N136" s="2">
+        <v>2010</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:14">
       <c r="B137" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="D137" s="3">
         <v>2012</v>
@@ -10116,16 +10198,16 @@
       <c r="M137" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N137" s="2">
-        <v>2010</v>
+      <c r="N137" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:14">
       <c r="B138" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="D138" s="3">
         <v>2012</v>
@@ -10158,18 +10240,18 @@
         <v>298</v>
       </c>
       <c r="N138" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="2:17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="2:14">
       <c r="B139" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="D139" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>304</v>
@@ -10198,19 +10280,19 @@
       <c r="M139" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="Q139" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="2:14">
+      <c r="N139" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:17">
       <c r="B140" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="D140" s="3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>304</v>
@@ -10239,25 +10321,25 @@
       <c r="M140" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N140" s="2">
-        <v>2014</v>
+      <c r="Q140" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="2:14">
       <c r="B141" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D141" s="3">
         <v>2017</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>127</v>
@@ -10286,19 +10368,19 @@
     </row>
     <row r="142" customHeight="1" spans="2:14">
       <c r="B142" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D142" s="3">
         <v>2017</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>127</v>
@@ -10321,25 +10403,25 @@
       <c r="M142" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N142" s="2" t="s">
-        <v>324</v>
+      <c r="N142" s="2">
+        <v>2014</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:14">
       <c r="B143" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D143" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>127</v>
@@ -10363,15 +10445,15 @@
         <v>298</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="2:14">
       <c r="B144" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="D144" s="3">
         <v>2018</v>
@@ -10404,24 +10486,24 @@
         <v>298</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:14">
       <c r="B145" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="D145" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>127</v>
@@ -10445,24 +10527,24 @@
         <v>298</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="2:14">
       <c r="B146" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="D146" s="3">
         <v>2019</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>127</v>
@@ -10485,25 +10567,25 @@
       <c r="M146" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N146" s="2">
-        <v>2018</v>
+      <c r="N146" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:14">
       <c r="B147" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="D147" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>127</v>
@@ -10526,19 +10608,19 @@
       <c r="M147" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N147" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="2:13">
+      <c r="N147" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:14">
       <c r="B148" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="D148" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>304</v>
@@ -10567,13 +10649,16 @@
       <c r="M148" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="149" customHeight="1" spans="2:14">
+      <c r="N148" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="2:13">
       <c r="B149" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D149" s="3">
         <v>2021</v>
@@ -10605,16 +10690,13 @@
       <c r="M149" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N149" s="2" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="150" customHeight="1" spans="2:14">
       <c r="B150" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>47</v>
+        <v>336</v>
       </c>
       <c r="D150" s="3">
         <v>2021</v>
@@ -10646,22 +10728,19 @@
       <c r="M150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N150" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:20">
-      <c r="A151" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="N150" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="2:14">
       <c r="B151" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D151" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>304</v>
@@ -10690,37 +10769,28 @@
       <c r="M151" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N151" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="R151" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S151" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T151" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="2:21">
+      <c r="N151" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:20">
+      <c r="A152" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="B152" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="D152" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>127</v>
@@ -10738,39 +10808,45 @@
         <v>236</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="N152" s="2">
-        <v>2017</v>
-      </c>
-      <c r="O152" s="2" t="s">
-        <v>139</v>
+        <v>298</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q152" s="2" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U152" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="4:13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="2:21">
+      <c r="B153" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="D153" s="3">
-        <v>2000</v>
+        <v>2019</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>60</v>
@@ -10785,30 +10861,39 @@
         <v>236</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="2:21">
-      <c r="B154" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N153" s="2">
+        <v>2017</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U153" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="4:13">
       <c r="D154" s="3">
-        <v>2004</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>127</v>
+        <v>2000</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>60</v>
@@ -10828,34 +10913,25 @@
       <c r="M154" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="N154" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="O154" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P154" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R154" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U154" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="4:13">
+    </row>
+    <row r="155" customHeight="1" spans="2:21">
+      <c r="B155" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="D155" s="3">
-        <v>2014</v>
+        <v>2004</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>60</v>
@@ -10875,10 +10951,34 @@
       <c r="M155" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="N155" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U155" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="156" customHeight="1" spans="4:13">
       <c r="D156" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>60</v>
@@ -10939,15 +11039,15 @@
         <v>236</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M158" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="4:13">
       <c r="D159" s="3">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>60</v>
@@ -10962,10 +11062,10 @@
         <v>236</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="4:13">
@@ -10991,24 +11091,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="2:20">
-      <c r="B161" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>360</v>
-      </c>
+    <row r="161" customHeight="1" spans="4:13">
       <c r="D161" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>127</v>
+        <v>2020</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>60</v>
@@ -11025,43 +11110,25 @@
       <c r="L161" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M161" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="N161" s="2">
-        <v>2019</v>
-      </c>
-      <c r="P161" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q161" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="R161" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S161" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="T161" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="2:14">
+      <c r="M161" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:20">
       <c r="B162" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>68</v>
+        <v>360</v>
       </c>
       <c r="D162" s="3">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>127</v>
@@ -11079,30 +11146,45 @@
         <v>236</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="N162" s="2">
-        <v>2010</v>
+        <v>2019</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q162" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R162" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="2:14">
       <c r="B163" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>370</v>
+        <v>68</v>
       </c>
       <c r="D163" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>127</v>
@@ -11126,24 +11208,24 @@
         <v>368</v>
       </c>
       <c r="N163" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="2:14">
       <c r="B164" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="D164" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>127</v>
@@ -11167,24 +11249,24 @@
         <v>368</v>
       </c>
       <c r="N164" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="2:14">
       <c r="B165" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="D165" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>127</v>
@@ -11207,16 +11289,16 @@
       <c r="M165" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N165" s="2" t="s">
-        <v>159</v>
+      <c r="N165" s="2">
+        <v>2017</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="2:14">
       <c r="B166" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="D166" s="3">
         <v>2020</v>
@@ -11248,22 +11330,25 @@
       <c r="M166" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N166" s="2">
-        <v>2018</v>
+      <c r="N166" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="2:14">
       <c r="B167" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="D167" s="3">
         <v>2020</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>127</v>
@@ -11292,16 +11377,16 @@
     </row>
     <row r="168" customHeight="1" spans="2:14">
       <c r="B168" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>382</v>
+        <v>218</v>
       </c>
       <c r="D168" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>127</v>
@@ -11325,24 +11410,21 @@
         <v>368</v>
       </c>
       <c r="N168" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="2:14">
       <c r="B169" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="D169" s="3">
         <v>2021</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>127</v>
@@ -11365,13 +11447,28 @@
       <c r="M169" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N169" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="4:13">
+      <c r="N169" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="2:14">
+      <c r="B170" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="D170" s="3">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>60</v>
@@ -11386,15 +11483,18 @@
         <v>236</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="M170" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N170" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="4:13">
       <c r="D171" s="3">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>60</v>
@@ -11409,15 +11509,15 @@
         <v>236</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="4:13">
       <c r="D172" s="3">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>60</v>
@@ -11440,7 +11540,7 @@
     </row>
     <row r="173" customHeight="1" spans="4:13">
       <c r="D173" s="3">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>60</v>
@@ -11455,15 +11555,15 @@
         <v>236</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="4:13">
       <c r="D174" s="3">
-        <v>1982</v>
+        <v>2018</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>60</v>
@@ -11478,15 +11578,15 @@
         <v>236</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="4:13">
       <c r="D175" s="3">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>60</v>
@@ -11509,7 +11609,7 @@
     </row>
     <row r="176" customHeight="1" spans="4:13">
       <c r="D176" s="3">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>60</v>
@@ -11555,7 +11655,7 @@
     </row>
     <row r="178" customHeight="1" spans="4:13">
       <c r="D178" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>60</v>
@@ -11578,7 +11678,7 @@
     </row>
     <row r="179" customHeight="1" spans="4:13">
       <c r="D179" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>60</v>
@@ -11624,7 +11724,7 @@
     </row>
     <row r="181" customHeight="1" spans="4:13">
       <c r="D181" s="3">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>60</v>
@@ -11647,7 +11747,7 @@
     </row>
     <row r="182" customHeight="1" spans="4:13">
       <c r="D182" s="3">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>60</v>
@@ -11716,7 +11816,7 @@
     </row>
     <row r="185" customHeight="1" spans="4:13">
       <c r="D185" s="3">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>60</v>
@@ -11739,7 +11839,7 @@
     </row>
     <row r="186" customHeight="1" spans="4:13">
       <c r="D186" s="3">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>60</v>
@@ -11829,24 +11929,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="2:21">
-      <c r="B190" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>395</v>
-      </c>
+    <row r="190" customHeight="1" spans="4:13">
       <c r="D190" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>127</v>
+        <v>2013</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>60</v>
@@ -11866,34 +11951,25 @@
       <c r="M190" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="N190" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O190" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P190" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q190" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="R190" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S190" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T190" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U190" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" customHeight="1" spans="4:13">
+    </row>
+    <row r="191" customHeight="1" spans="2:21">
+      <c r="B191" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D191" s="3">
-        <v>2018</v>
+        <v>2017</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>60</v>
@@ -11913,10 +11989,34 @@
       <c r="M191" s="7" t="s">
         <v>393</v>
       </c>
+      <c r="N191" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P191" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R191" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T191" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U191" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="192" customHeight="1" spans="4:13">
       <c r="D192" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>60</v>
@@ -11937,25 +12037,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="2:21">
-      <c r="B193" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>400</v>
-      </c>
+    <row r="193" customHeight="1" spans="4:13">
       <c r="D193" s="3">
         <v>2019</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="H193" s="2" t="s">
         <v>60</v>
       </c>
@@ -11974,34 +12059,25 @@
       <c r="M193" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="N193" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="O193" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q193" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R193" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S193" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T193" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U193" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" customHeight="1" spans="4:13">
+    </row>
+    <row r="194" customHeight="1" spans="2:21">
+      <c r="B194" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="D194" s="3">
-        <v>2020</v>
+        <v>2019</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>60</v>
@@ -12021,10 +12097,34 @@
       <c r="M194" s="7" t="s">
         <v>393</v>
       </c>
+      <c r="N194" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P194" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T194" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U194" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="195" customHeight="1" spans="4:13">
       <c r="D195" s="3">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>60</v>
@@ -12039,15 +12139,15 @@
         <v>236</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="M195" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="4:13">
       <c r="D196" s="3">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>60</v>
@@ -12093,7 +12193,7 @@
     </row>
     <row r="198" customHeight="1" spans="4:13">
       <c r="D198" s="3">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>60</v>
@@ -12116,7 +12216,7 @@
     </row>
     <row r="199" customHeight="1" spans="4:13">
       <c r="D199" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>60</v>
@@ -12139,7 +12239,7 @@
     </row>
     <row r="200" customHeight="1" spans="4:13">
       <c r="D200" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>60</v>
@@ -12162,7 +12262,7 @@
     </row>
     <row r="201" customHeight="1" spans="4:13">
       <c r="D201" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>60</v>
@@ -12183,77 +12283,38 @@
         <v>403</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="2:21">
-      <c r="B202" s="2" t="s">
+    <row r="202" customHeight="1" spans="4:13">
+      <c r="D202" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M202" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="2:21">
+      <c r="B203" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D203" s="3">
         <v>2011</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="K202" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L202" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M202" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N202" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="O202" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P202" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q202" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R202" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S202" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T202" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U202" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" customHeight="1" spans="2:14">
-      <c r="B203" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D203" s="3">
-        <v>2016</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>406</v>
@@ -12282,55 +12343,91 @@
       <c r="M203" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N203" s="2">
-        <v>2014</v>
+      <c r="N203" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U203" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="2:14">
       <c r="B204" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N204" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="2:14">
+      <c r="B205" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D204" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K204" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="L204" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M204" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N204" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="205" customHeight="1" spans="4:11">
       <c r="D205" s="3">
         <v>2020</v>
       </c>
+      <c r="E205" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H205" s="2" t="s">
         <v>60</v>
       </c>
@@ -12343,10 +12440,19 @@
       <c r="K205" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="L205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N205" s="2">
+        <v>2018</v>
+      </c>
     </row>
     <row r="206" customHeight="1" spans="4:11">
       <c r="D206" s="3">
-        <v>1980</v>
+        <v>2020</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>60</v>
@@ -12355,15 +12461,15 @@
         <v>127</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="4:11">
       <c r="D207" s="3">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>60</v>
@@ -12397,7 +12503,7 @@
     </row>
     <row r="209" customHeight="1" spans="4:11">
       <c r="D209" s="3">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>60</v>
@@ -12482,7 +12588,7 @@
     </row>
     <row r="214" customHeight="1" spans="4:11">
       <c r="D214" s="3">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>60</v>
@@ -12499,7 +12605,7 @@
     </row>
     <row r="215" customHeight="1" spans="4:11">
       <c r="D215" s="3">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>60</v>
@@ -12516,7 +12622,7 @@
     </row>
     <row r="216" customHeight="1" spans="4:11">
       <c r="D216" s="3">
-        <v>2020</v>
+        <v>1994</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>60</v>
@@ -12531,24 +12637,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="2:14">
-      <c r="B217" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>187</v>
-      </c>
+    <row r="217" customHeight="1" spans="4:11">
       <c r="D217" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>127</v>
+        <v>2020</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>60</v>
@@ -12562,31 +12653,22 @@
       <c r="K217" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L217" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N217" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="218" customHeight="1" spans="2:21">
-      <c r="B218" s="7" t="s">
-        <v>421</v>
+    </row>
+    <row r="218" customHeight="1" spans="2:14">
+      <c r="B218" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="D218" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>127</v>
@@ -12598,10 +12680,10 @@
         <v>127</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>24</v>
@@ -12612,48 +12694,72 @@
       <c r="N218" s="2">
         <v>2019</v>
       </c>
-      <c r="O218" s="2" t="s">
+    </row>
+    <row r="219" customHeight="1" spans="2:21">
+      <c r="B219" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="L219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N219" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O219" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P218" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q218" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R218" s="2" t="s">
+      <c r="P219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R219" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S218" s="2" t="s">
+      <c r="S219" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="T218" s="2" t="s">
+      <c r="T219" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="U218" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" customHeight="1" spans="4:11">
-      <c r="D219" s="3">
-        <v>2014</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I219" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="K219" s="2" t="s">
-        <v>428</v>
+      <c r="U219" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="4:11">
       <c r="D220" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>60</v>
@@ -12670,7 +12776,7 @@
     </row>
     <row r="221" customHeight="1" spans="4:11">
       <c r="D221" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>60</v>
@@ -12687,7 +12793,7 @@
     </row>
     <row r="222" customHeight="1" spans="4:11">
       <c r="D222" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>60</v>
@@ -12702,21 +12808,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="2:14">
-      <c r="B223" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>430</v>
-      </c>
+    <row r="223" customHeight="1" spans="4:11">
       <c r="D223" s="3">
-        <v>2018</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>127</v>
+        <v>2017</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>60</v>
@@ -12730,19 +12824,22 @@
       <c r="K223" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="L223" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M223" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N223" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="224" customHeight="1" spans="4:11">
+    </row>
+    <row r="224" customHeight="1" spans="2:14">
+      <c r="B224" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="D224" s="3">
-        <v>2020</v>
+        <v>2018</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>60</v>
@@ -12756,111 +12853,75 @@
       <c r="K224" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="225" customHeight="1" spans="2:21">
-      <c r="B225" s="2" t="s">
+      <c r="L224" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="4:11">
+      <c r="D225" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="2:21">
+      <c r="B226" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D226" s="3">
         <v>2008</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="F226" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J225" s="2" t="s">
+      <c r="G226" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J226" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="K225" s="2" t="s">
+      <c r="K226" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="L225" s="2" t="s">
+      <c r="L226" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="M225" s="2" t="s">
+      <c r="M226" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="N225" s="2" t="s">
+      <c r="N226" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="O225" s="2" t="s">
+      <c r="O226" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="P225" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q225" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R225" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S225" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T225" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U225" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="226" customHeight="1" spans="2:21">
-      <c r="B226" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D226" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J226" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="K226" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L226" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M226" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N226" s="2">
-        <v>2019</v>
-      </c>
-      <c r="O226" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="P226" s="2" t="s">
         <v>24</v>
@@ -12881,26 +12942,71 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="4:11">
+    <row r="227" customHeight="1" spans="2:21">
+      <c r="B227" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D227" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N227" s="2">
         <v>2019</v>
       </c>
-      <c r="H227" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J227" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>446</v>
+      <c r="O227" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R227" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U227" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="228" customHeight="1" spans="4:11">
       <c r="D228" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>60</v>
@@ -12917,7 +13023,7 @@
     </row>
     <row r="229" customHeight="1" spans="4:11">
       <c r="D229" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>60</v>
@@ -12951,7 +13057,7 @@
     </row>
     <row r="231" customHeight="1" spans="4:11">
       <c r="D231" s="3">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>60</v>
@@ -12960,15 +13066,15 @@
         <v>127</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="4:11">
       <c r="D232" s="3">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>60</v>
@@ -12983,24 +13089,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="2:21">
-      <c r="B233" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>450</v>
-      </c>
+    <row r="233" customHeight="1" spans="4:11">
       <c r="D233" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>127</v>
+        <v>2010</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>60</v>
@@ -13014,58 +13105,72 @@
       <c r="K233" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="L233" s="2" t="s">
+    </row>
+    <row r="234" customHeight="1" spans="2:21">
+      <c r="B234" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L234" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="M233" s="7" t="s">
+      <c r="M234" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="N233" s="2">
+      <c r="N234" s="2">
         <v>2012</v>
       </c>
-      <c r="O233" s="2" t="s">
+      <c r="O234" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P233" s="2" t="s">
+      <c r="P234" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q233" s="2" t="s">
+      <c r="Q234" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R233" s="2" t="s">
+      <c r="R234" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S233" s="2" t="s">
+      <c r="S234" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="T233" s="2" t="s">
+      <c r="T234" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="U233" s="2" t="s">
+      <c r="U234" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="234" customHeight="1" spans="4:13">
-      <c r="D234" s="3">
-        <v>2019</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J234" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="M234" s="7"/>
     </row>
     <row r="235" customHeight="1" spans="4:13">
       <c r="D235" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>60</v>
@@ -13099,25 +13204,10 @@
       </c>
       <c r="M236" s="7"/>
     </row>
-    <row r="237" customHeight="1" spans="2:21">
-      <c r="B237" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>459</v>
-      </c>
+    <row r="237" customHeight="1" spans="4:13">
       <c r="D237" s="3">
         <v>2020</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="H237" s="2" t="s">
         <v>60</v>
       </c>
@@ -13130,52 +13220,23 @@
       <c r="K237" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L237" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="M237" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="N237" s="2">
-        <v>2019</v>
-      </c>
-      <c r="O237" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P237" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q237" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R237" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S237" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T237" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U237" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="M237" s="7"/>
     </row>
     <row r="238" customHeight="1" spans="2:21">
       <c r="B238" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D238" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>127</v>
@@ -13193,10 +13254,10 @@
         <v>457</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M238" s="2" t="s">
-        <v>24</v>
+        <v>462</v>
+      </c>
+      <c r="M238" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="N238" s="2">
         <v>2019</v>
@@ -13208,7 +13269,7 @@
         <v>157</v>
       </c>
       <c r="Q238" s="2" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="R238" s="2" t="s">
         <v>135</v>
@@ -13224,20 +13285,20 @@
       </c>
     </row>
     <row r="239" customHeight="1" spans="2:21">
-      <c r="B239" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>468</v>
+      <c r="B239" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="D239" s="3">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>127</v>
@@ -13249,28 +13310,28 @@
         <v>127</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L239" s="2" t="s">
-        <v>471</v>
+        <v>24</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>472</v>
+        <v>24</v>
       </c>
       <c r="N239" s="2">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="P239" s="2" t="s">
         <v>157</v>
       </c>
       <c r="Q239" s="2" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="R239" s="2" t="s">
         <v>135</v>
@@ -13286,14 +13347,14 @@
       </c>
     </row>
     <row r="240" customHeight="1" spans="2:21">
-      <c r="B240" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>474</v>
+      <c r="B240" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="D240" s="3">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>469</v>
@@ -13322,11 +13383,11 @@
       <c r="M240" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="N240" s="2" t="s">
-        <v>475</v>
+      <c r="N240" s="2">
+        <v>2001</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="P240" s="2" t="s">
         <v>157</v>
@@ -13349,22 +13410,22 @@
     </row>
     <row r="241" customHeight="1" spans="2:21">
       <c r="B241" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>64</v>
+        <v>474</v>
       </c>
       <c r="D241" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>60</v>
@@ -13384,8 +13445,8 @@
       <c r="M241" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="N241" s="2">
-        <v>1874</v>
+      <c r="N241" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="O241" s="2" t="s">
         <v>139</v>
@@ -13410,23 +13471,23 @@
       </c>
     </row>
     <row r="242" customHeight="1" spans="2:21">
-      <c r="B242" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>479</v>
+      <c r="B242" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D242" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>60</v>
@@ -13446,14 +13507,14 @@
       <c r="M242" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="N242" s="2" t="s">
-        <v>24</v>
+      <c r="N242" s="2">
+        <v>1874</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="Q242" s="2" t="s">
         <v>24</v>
@@ -13472,120 +13533,141 @@
       </c>
     </row>
     <row r="243" customHeight="1" spans="2:21">
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L243" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O243" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R243" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U243" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="2:21">
+      <c r="B244" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D244" s="3">
         <v>2009</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="F244" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G243" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J243" s="2" t="s">
+      <c r="G244" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J244" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="K243" s="2" t="s">
+      <c r="K244" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="L243" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M243" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N243" s="2">
+      <c r="L244" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N244" s="2">
         <v>2007</v>
       </c>
-      <c r="O243" s="2" t="s">
+      <c r="O244" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P243" s="2" t="s">
+      <c r="P244" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q243" s="2" t="s">
+      <c r="Q244" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R243" s="2" t="s">
+      <c r="R244" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T243" s="2" t="s">
+      <c r="T244" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="U243" s="2" t="s">
+      <c r="U244" s="2" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="244" customHeight="1" spans="2:14">
-      <c r="B244" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D244" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I244" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J244" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K244" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L244" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M244" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="N244" s="2">
-        <v>2017</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="2:14">
       <c r="B245" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>171</v>
+        <v>486</v>
       </c>
       <c r="D245" s="3">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>127</v>
@@ -13603,92 +13685,71 @@
         <v>490</v>
       </c>
       <c r="L245" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M245" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N245" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="2:14">
+      <c r="B246" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="L246" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="M245" s="2" t="s">
+      <c r="M246" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="N245" s="2">
+      <c r="N246" s="2">
         <v>2012</v>
-      </c>
-    </row>
-    <row r="246" customHeight="1" spans="2:21">
-      <c r="B246" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D246" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I246" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J246" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K246" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L246" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="M246" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="N246" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="O246" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P246" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q246" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="R246" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S246" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="T246" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U246" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="2:21">
       <c r="B247" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D247" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>127</v>
@@ -13712,7 +13773,7 @@
         <v>503</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>24</v>
+        <v>504</v>
       </c>
       <c r="O247" s="2" t="s">
         <v>139</v>
@@ -13721,24 +13782,39 @@
         <v>157</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="R247" s="2" t="s">
         <v>53</v>
       </c>
       <c r="S247" s="2" t="s">
-        <v>226</v>
+        <v>362</v>
       </c>
       <c r="T247" s="2" t="s">
         <v>227</v>
       </c>
       <c r="U247" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="248" customHeight="1" spans="4:11">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="2:21">
+      <c r="B248" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="D248" s="3">
-        <v>1989</v>
+        <v>2020</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>60</v>
@@ -13747,15 +13823,45 @@
         <v>127</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
+      </c>
+      <c r="L248" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O248" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P248" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q248" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R248" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S248" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T248" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U248" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="249" customHeight="1" spans="4:11">
       <c r="D249" s="3">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>60</v>
@@ -13772,7 +13878,7 @@
     </row>
     <row r="250" customHeight="1" spans="4:11">
       <c r="D250" s="3">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>60</v>
@@ -13806,7 +13912,7 @@
     </row>
     <row r="252" customHeight="1" spans="4:11">
       <c r="D252" s="3">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>60</v>
@@ -13823,7 +13929,7 @@
     </row>
     <row r="253" customHeight="1" spans="4:11">
       <c r="D253" s="3">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>60</v>
@@ -13857,7 +13963,7 @@
     </row>
     <row r="255" customHeight="1" spans="4:11">
       <c r="D255" s="3">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>60</v>
@@ -13874,7 +13980,7 @@
     </row>
     <row r="256" customHeight="1" spans="4:11">
       <c r="D256" s="3">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>60</v>
@@ -13891,7 +13997,7 @@
     </row>
     <row r="257" customHeight="1" spans="4:11">
       <c r="D257" s="3">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>60</v>
@@ -13908,7 +14014,7 @@
     </row>
     <row r="258" customHeight="1" spans="4:11">
       <c r="D258" s="3">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>60</v>
@@ -13942,7 +14048,7 @@
     </row>
     <row r="260" customHeight="1" spans="4:11">
       <c r="D260" s="3">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>60</v>
@@ -13959,7 +14065,7 @@
     </row>
     <row r="261" customHeight="1" spans="4:11">
       <c r="D261" s="3">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>60</v>
@@ -13974,24 +14080,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="2:14">
-      <c r="B262" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>98</v>
-      </c>
+    <row r="262" customHeight="1" spans="4:11">
       <c r="D262" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>127</v>
+        <v>2008</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>60</v>
@@ -14005,19 +14096,25 @@
       <c r="K262" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="L262" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M262" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N262" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="263" customHeight="1" spans="4:11">
+    </row>
+    <row r="263" customHeight="1" spans="2:14">
+      <c r="B263" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D263" s="3">
-        <v>2012</v>
+        <v>2009</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>60</v>
@@ -14031,10 +14128,19 @@
       <c r="K263" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="L263" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="264" customHeight="1" spans="4:11">
       <c r="D264" s="3">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>60</v>
@@ -14051,7 +14157,7 @@
     </row>
     <row r="265" customHeight="1" spans="4:11">
       <c r="D265" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>60</v>
@@ -14068,7 +14174,7 @@
     </row>
     <row r="266" customHeight="1" spans="4:11">
       <c r="D266" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>60</v>
@@ -14102,7 +14208,7 @@
     </row>
     <row r="268" customHeight="1" spans="4:11">
       <c r="D268" s="3">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>60</v>
@@ -14134,24 +14240,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="2:21">
-      <c r="B270" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>517</v>
-      </c>
+    <row r="270" customHeight="1" spans="4:11">
       <c r="D270" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>127</v>
+        <v>2022</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>60</v>
@@ -14165,72 +14256,72 @@
       <c r="K270" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="L270" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M270" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N270" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O270" s="2" t="s">
+    </row>
+    <row r="271" customHeight="1" spans="2:21">
+      <c r="B271" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O271" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P270" s="2" t="s">
+      <c r="P271" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q270" s="2" t="s">
+      <c r="Q271" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="R270" s="2" t="s">
+      <c r="R271" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S270" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T270" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U270" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="271" customHeight="1" spans="4:11">
-      <c r="D271" s="3">
+      <c r="S271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U271" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="4:11">
+      <c r="D272" s="3">
         <v>1981</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J271" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K271" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="272" customHeight="1" spans="2:21">
-      <c r="B272" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D272" s="3">
-        <v>1999</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>521</v>
@@ -14253,49 +14344,22 @@
       <c r="K272" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="L272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O272" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P272" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R272" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U272" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="273" customHeight="1" spans="2:21">
       <c r="B273" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="D273" s="3">
-        <v>2002</v>
+        <v>1999</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>127</v>
@@ -14322,7 +14386,7 @@
         <v>24</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="P273" s="2" t="s">
         <v>157</v>
@@ -14343,9 +14407,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="4:11">
+    <row r="274" customHeight="1" spans="2:21">
+      <c r="B274" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="D274" s="3">
-        <v>2009</v>
+        <v>2002</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>60</v>
@@ -14358,6 +14434,36 @@
       </c>
       <c r="K274" s="2" t="s">
         <v>524</v>
+      </c>
+      <c r="L274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O274" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P274" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R274" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U274" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="4:11">
@@ -14396,7 +14502,7 @@
     </row>
     <row r="277" customHeight="1" spans="4:11">
       <c r="D277" s="3">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>60</v>
@@ -14413,7 +14519,7 @@
     </row>
     <row r="278" customHeight="1" spans="4:11">
       <c r="D278" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>60</v>
@@ -14430,7 +14536,7 @@
     </row>
     <row r="279" customHeight="1" spans="4:11">
       <c r="D279" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>60</v>
@@ -14447,7 +14553,7 @@
     </row>
     <row r="280" customHeight="1" spans="4:11">
       <c r="D280" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>60</v>
@@ -14462,25 +14568,10 @@
         <v>524</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="2:21">
-      <c r="B281" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>143</v>
-      </c>
+    <row r="281" customHeight="1" spans="4:11">
       <c r="D281" s="3">
         <v>2014</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="H281" s="2" t="s">
         <v>60</v>
       </c>
@@ -14493,46 +14584,22 @@
       <c r="K281" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="L281" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M281" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N281" s="2">
-        <v>2013</v>
-      </c>
-      <c r="O281" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P281" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q281" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R281" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S281" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T281" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U281" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="282" customHeight="1" spans="4:14">
+    </row>
+    <row r="282" customHeight="1" spans="2:21">
+      <c r="B282" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D282" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>127</v>
@@ -14549,15 +14616,50 @@
       <c r="K282" s="2" t="s">
         <v>524</v>
       </c>
+      <c r="L282" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M282" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N282" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="283" customHeight="1" spans="4:11">
+      <c r="O282" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P282" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q282" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R282" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S282" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T282" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U282" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="4:14">
       <c r="D283" s="3">
         <v>2015</v>
       </c>
-      <c r="F283" s="7"/>
+      <c r="E283" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H283" s="2" t="s">
         <v>60</v>
       </c>
@@ -14569,6 +14671,9 @@
       </c>
       <c r="K283" s="2" t="s">
         <v>524</v>
+      </c>
+      <c r="N283" s="2">
+        <v>2013</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="4:11">
@@ -14609,7 +14714,7 @@
     </row>
     <row r="286" customHeight="1" spans="4:11">
       <c r="D286" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F286" s="7"/>
       <c r="H286" s="2" t="s">
@@ -14663,7 +14768,7 @@
     </row>
     <row r="289" customHeight="1" spans="4:11">
       <c r="D289" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F289" s="7"/>
       <c r="H289" s="2" t="s">
@@ -14753,7 +14858,7 @@
     </row>
     <row r="294" customHeight="1" spans="4:11">
       <c r="D294" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F294" s="7"/>
       <c r="H294" s="2" t="s">
@@ -14807,7 +14912,7 @@
     </row>
     <row r="297" customHeight="1" spans="4:11">
       <c r="D297" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F297" s="7"/>
       <c r="H297" s="2" t="s">
@@ -14825,7 +14930,7 @@
     </row>
     <row r="298" customHeight="1" spans="4:11">
       <c r="D298" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F298" s="7"/>
       <c r="H298" s="2" t="s">
@@ -14879,7 +14984,7 @@
     </row>
     <row r="301" customHeight="1" spans="4:11">
       <c r="D301" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F301" s="7"/>
       <c r="H301" s="2" t="s">
@@ -14931,25 +15036,11 @@
         <v>524</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="2:21">
-      <c r="B304" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>171</v>
-      </c>
+    <row r="304" customHeight="1" spans="4:11">
       <c r="D304" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="F304" s="7"/>
       <c r="H304" s="2" t="s">
         <v>60</v>
       </c>
@@ -14962,49 +15053,22 @@
       <c r="K304" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="L304" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M304" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N304" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="O304" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P304" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q304" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R304" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S304" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T304" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U304" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="305" customHeight="1" spans="2:14">
+    </row>
+    <row r="305" customHeight="1" spans="2:21">
       <c r="B305" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D305" s="3">
         <v>2022</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>538</v>
+        <v>130</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>127</v>
@@ -15022,83 +15086,80 @@
         <v>524</v>
       </c>
       <c r="L305" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M305" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="O305" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P305" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q305" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R305" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S305" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T305" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U305" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="2:14">
+      <c r="B306" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="L306" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="M305" s="2" t="s">
+      <c r="M306" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="N305" s="2">
+      <c r="N306" s="2">
         <v>2019</v>
-      </c>
-    </row>
-    <row r="306" customHeight="1" spans="2:21">
-      <c r="B306" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D306" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H306" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J306" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K306" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="L306" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="M306" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="N306" s="2">
-        <v>2004</v>
-      </c>
-      <c r="O306" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P306" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q306" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="R306" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S306" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="T306" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U306" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="2:21">
       <c r="B307" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="D307" s="3">
         <v>2005</v>
@@ -15134,7 +15195,7 @@
         <v>2004</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="P307" s="2" t="s">
         <v>157</v>
@@ -15143,13 +15204,13 @@
         <v>197</v>
       </c>
       <c r="R307" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>24</v>
+        <v>548</v>
       </c>
       <c r="T307" s="2" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="U307" s="2" t="s">
         <v>24</v>
@@ -15157,13 +15218,13 @@
     </row>
     <row r="308" customHeight="1" spans="2:21">
       <c r="B308" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>171</v>
+        <v>481</v>
       </c>
       <c r="D308" s="3">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>542</v>
@@ -15187,40 +15248,55 @@
         <v>545</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="N308" s="2">
         <v>2004</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="P308" s="2" t="s">
         <v>157</v>
       </c>
       <c r="Q308" s="2" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="R308" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="S308" s="2" t="s">
-        <v>553</v>
+        <v>24</v>
       </c>
       <c r="T308" s="2" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="U308" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="4:11">
+    <row r="309" customHeight="1" spans="2:21">
+      <c r="B309" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D309" s="3">
         <v>2006</v>
       </c>
+      <c r="E309" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H309" s="2" t="s">
         <v>60</v>
       </c>
@@ -15232,6 +15308,36 @@
       </c>
       <c r="K309" s="2" t="s">
         <v>545</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="N309" s="2">
+        <v>2004</v>
+      </c>
+      <c r="O309" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P309" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q309" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R309" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S309" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="T309" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U309" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="4:11">
@@ -15253,7 +15359,7 @@
     </row>
     <row r="311" customHeight="1" spans="4:11">
       <c r="D311" s="3">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>60</v>
@@ -15270,7 +15376,7 @@
     </row>
     <row r="312" customHeight="1" spans="4:11">
       <c r="D312" s="3">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>60</v>
@@ -15304,7 +15410,7 @@
     </row>
     <row r="314" customHeight="1" spans="4:11">
       <c r="D314" s="3">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>60</v>
@@ -15353,24 +15459,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="2:21">
-      <c r="B317" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="317" customHeight="1" spans="4:11">
       <c r="D317" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>127</v>
+        <v>2010</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>60</v>
@@ -15384,40 +15475,25 @@
       <c r="K317" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="L317" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M317" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N317" s="2">
-        <v>2009</v>
-      </c>
-      <c r="O317" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P317" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q317" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R317" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S317" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T317" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U317" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" customHeight="1" spans="4:11">
+    </row>
+    <row r="318" customHeight="1" spans="2:21">
+      <c r="B318" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D318" s="3">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>60</v>
@@ -15431,10 +15507,40 @@
       <c r="K318" s="2" t="s">
         <v>545</v>
       </c>
+      <c r="L318" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M318" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N318" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O318" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P318" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q318" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R318" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S318" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T318" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U318" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="319" customHeight="1" spans="4:11">
       <c r="D319" s="3">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>60</v>
@@ -15468,7 +15574,7 @@
     </row>
     <row r="321" customHeight="1" spans="4:11">
       <c r="D321" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>60</v>
@@ -15519,7 +15625,7 @@
     </row>
     <row r="324" customHeight="1" spans="4:11">
       <c r="D324" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>60</v>
@@ -15536,7 +15642,7 @@
     </row>
     <row r="325" customHeight="1" spans="4:11">
       <c r="D325" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H325" s="2" t="s">
         <v>60</v>
@@ -15604,7 +15710,7 @@
     </row>
     <row r="329" customHeight="1" spans="4:11">
       <c r="D329" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>60</v>
@@ -15620,20 +15726,20 @@
       </c>
     </row>
     <row r="330" customHeight="1" spans="2:21">
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>481</v>
+      <c r="C330" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="D330" s="3">
         <v>2019</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F330" s="2" t="s">
         <v>557</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>127</v>
@@ -15651,13 +15757,13 @@
         <v>545</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M330" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N330" s="2" t="s">
-        <v>401</v>
+        <v>546</v>
+      </c>
+      <c r="M330" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="N330" s="2">
+        <v>2018</v>
       </c>
       <c r="O330" s="2" t="s">
         <v>139</v>
@@ -15666,25 +15772,40 @@
         <v>157</v>
       </c>
       <c r="Q330" s="2" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="R330" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="S330" s="2" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="T330" s="2" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="U330" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="331" customHeight="1" spans="4:11">
+    <row r="331" customHeight="1" spans="2:21">
+      <c r="B331" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="D331" s="3">
         <v>2019</v>
       </c>
+      <c r="E331" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H331" s="2" t="s">
         <v>60</v>
       </c>
@@ -15697,11 +15818,56 @@
       <c r="K331" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="332" customHeight="1" spans="4:11">
+      <c r="L331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N331" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O331" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P331" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R331" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U331" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" customHeight="1" spans="2:21">
+      <c r="B332" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="D332" s="3">
         <v>2019</v>
       </c>
+      <c r="E332" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H332" s="2" t="s">
         <v>60</v>
       </c>
@@ -15714,10 +15880,55 @@
       <c r="K332" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="333" customHeight="1" spans="4:11">
+      <c r="L332" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M332" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="N332" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="O332" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P332" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R332" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U332" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" customHeight="1" spans="2:21">
+      <c r="B333" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="D333" s="3">
-        <v>2020</v>
+        <v>2019</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>60</v>
@@ -15731,22 +15942,52 @@
       <c r="K333" s="2" t="s">
         <v>545</v>
       </c>
+      <c r="L333" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M333" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="N333" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O333" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P333" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q333" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R333" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S333" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T333" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U333" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="334" customHeight="1" spans="2:21">
-      <c r="B334" s="2" t="s">
-        <v>558</v>
+      <c r="B334" s="7" t="s">
+        <v>571</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D334" s="3">
         <v>2020</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>560</v>
+        <v>572</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>573</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>127</v>
@@ -15764,13 +16005,13 @@
         <v>545</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="M334" s="2" t="s">
-        <v>562</v>
+        <v>551</v>
+      </c>
+      <c r="M334" s="7" t="s">
+        <v>574</v>
       </c>
       <c r="N334" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O334" s="2" t="s">
         <v>139</v>
@@ -15796,7 +16037,7 @@
     </row>
     <row r="335" customHeight="1" spans="2:21">
       <c r="B335" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>171</v>
@@ -15805,10 +16046,10 @@
         <v>2020</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>127</v>
@@ -15826,10 +16067,10 @@
         <v>545</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M335" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="N335" s="2">
         <v>2019</v>
@@ -15844,13 +16085,13 @@
         <v>197</v>
       </c>
       <c r="R335" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="T335" s="2" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="U335" s="2" t="s">
         <v>24</v>
@@ -15858,19 +16099,19 @@
     </row>
     <row r="336" customHeight="1" spans="2:21">
       <c r="B336" s="2" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>465</v>
+        <v>171</v>
       </c>
       <c r="D336" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>127</v>
@@ -15888,10 +16129,10 @@
         <v>545</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>24</v>
+        <v>584</v>
       </c>
       <c r="N336" s="2">
         <v>2019</v>
@@ -15906,30 +16147,33 @@
         <v>197</v>
       </c>
       <c r="R336" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="S336" s="2" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="T336" s="2" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="U336" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="337" customHeight="1" spans="2:14">
+    <row r="337" customHeight="1" spans="2:21">
       <c r="B337" s="2" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>166</v>
+        <v>465</v>
       </c>
       <c r="D337" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>570</v>
+        <v>542</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>127</v>
@@ -15952,28 +16196,43 @@
       <c r="M337" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N337" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="338" customHeight="1" spans="1:13">
-      <c r="A338" s="2" t="s">
-        <v>572</v>
-      </c>
+      <c r="N337" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O337" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P337" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q337" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R337" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S337" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T337" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U337" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" customHeight="1" spans="2:14">
       <c r="B338" s="2" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="D338" s="3">
         <v>2022</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>127</v>
@@ -15996,22 +16255,28 @@
       <c r="M338" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="339" customHeight="1" spans="2:14">
+      <c r="N338" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="339" customHeight="1" spans="1:13">
+      <c r="A339" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="B339" s="2" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="D339" s="3">
         <v>2022</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>127</v>
@@ -16029,30 +16294,27 @@
         <v>545</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>577</v>
+        <v>24</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="N339" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="340" customHeight="1" spans="2:21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" customHeight="1" spans="2:14">
       <c r="B340" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
       <c r="D340" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>127</v>
@@ -16070,51 +16332,30 @@
         <v>545</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>24</v>
+        <v>594</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O340" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R340" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U340" s="2" t="s">
-        <v>24</v>
+        <v>595</v>
+      </c>
+      <c r="N340" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="2:21">
       <c r="B341" s="2" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="D341" s="3">
         <v>2023</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>127</v>
@@ -16132,39 +16373,101 @@
         <v>545</v>
       </c>
       <c r="L341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O341" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R341" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U341" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" customHeight="1" spans="2:21">
+      <c r="B342" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="L342" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="M341" s="2" t="s">
+      <c r="M342" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="N341" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="O341" s="2" t="s">
+      <c r="N342" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="O342" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P341" s="2" t="s">
+      <c r="P342" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q341" s="2" t="s">
+      <c r="Q342" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="R341" s="2" t="s">
+      <c r="R342" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S341" s="2" t="s">
+      <c r="S342" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="T341" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="U341" s="2" t="s">
+      <c r="T342" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="U342" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U341">
-    <sortState ref="A1:U341">
+  <autoFilter ref="A1:U342">
+    <sortState ref="A1:U342">
       <sortCondition ref="I2:I88"/>
       <sortCondition ref="J2:J88"/>
       <sortCondition ref="L2:L88"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27517" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="674">
   <si>
     <t>Pub_Access</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2005-2013</t>
     </r>
     <r>
@@ -2252,6 +2258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2014</t>
     </r>
     <r>
@@ -3891,6 +3903,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2010</t>
     </r>
     <r>
@@ -3934,7 +3952,107 @@
     <t>E; NS1</t>
   </si>
   <si>
-    <r>
+    <t>永嘉县首例登革热实验室监测报告</t>
+  </si>
+  <si>
+    <t>中国农村卫生事业管理</t>
+  </si>
+  <si>
+    <t>Zhejiang Yongjia Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>浙江省永嘉县疾病预防控制中心</t>
+  </si>
+  <si>
+    <t>Yongjia</t>
+  </si>
+  <si>
+    <t>永嘉</t>
+  </si>
+  <si>
+    <t>浙江口岸首次发现入境登革热的实验室诊断</t>
+  </si>
+  <si>
+    <t>Zhejiang Entry-exit Insepction and Quarantine Bureau</t>
+  </si>
+  <si>
+    <t>浙江出入境检验检疫局</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <r>
+      <t>2012-2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年义乌市输入性登革热流行病学及临床特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>Retrospective study; Clinical analysis</t>
+  </si>
+  <si>
+    <t>浙江预防医学</t>
+  </si>
+  <si>
+    <t>一起登革热暴发疫情流行病学调查分析</t>
+  </si>
+  <si>
+    <t>ZHejiang Shaoying Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市疾病预防控制中心</t>
+  </si>
+  <si>
+    <t>Shaoxing</t>
+  </si>
+  <si>
+    <t>绍兴</t>
+  </si>
+  <si>
+    <r>
+      <t>登革热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例患者流行病学及临床诊治分析</t>
+    </r>
+  </si>
+  <si>
+    <t>中国医院药学</t>
+  </si>
+  <si>
+    <t>浙江省义乌市中心医院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2015</t>
     </r>
     <r>
@@ -3952,9 +4070,6 @@
   </si>
   <si>
     <t>浙江省杭州市疾病预防控制中心</t>
-  </si>
-  <si>
-    <t>杭州</t>
   </si>
   <si>
     <t>Epidemiological characterization of the 2017 dengue outbreak in Zhejiang, China and molecular characterization of the viruses</t>
@@ -4281,11 +4396,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -4770,19 +4885,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4925,7 +5040,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4934,7 +5049,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5468,34 +5583,34 @@
   <dimension ref="A1:X366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="P344" sqref="P344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.95" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.9666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.6833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.6333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.3083333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.05833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.1166666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.4333333333333" style="2" customWidth="1"/>
-    <col min="17" max="20" width="7.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.84166666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="7.175" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.96666666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.9026548672566" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7699115044248" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.9469026548673" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.716814159292" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.3716814159292" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.9646017699115" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.2477876106195" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.8849557522124" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.6814159292035" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6371681415929" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.3097345132743" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.3716814159292" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.06194690265487" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.1150442477876" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.6283185840708" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.4336283185841" style="2" customWidth="1"/>
+    <col min="17" max="20" width="7.6283185840708" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.84070796460177" style="2" customWidth="1"/>
+    <col min="22" max="22" width="7.17699115044248" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.9646017699115" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.87610619469027" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -17682,10 +17797,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" customHeight="1" spans="4:11">
+    <row r="344" customHeight="1" spans="2:24">
+      <c r="B344" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>600</v>
+      </c>
       <c r="D344" s="3">
         <v>2015</v>
       </c>
+      <c r="E344" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H344" s="2" t="s">
         <v>63</v>
       </c>
@@ -17698,11 +17828,65 @@
       <c r="K344" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="345" customHeight="1" spans="4:11">
+      <c r="L344" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="M344" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="N344" s="2">
+        <v>2014</v>
+      </c>
+      <c r="O344" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P344" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q344" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R344" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S344" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T344" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U344" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V344" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W344" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X344" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" customHeight="1" spans="2:24">
+      <c r="B345" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>595</v>
+      </c>
       <c r="D345" s="3">
         <v>2015</v>
       </c>
+      <c r="E345" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H345" s="2" t="s">
         <v>63</v>
       </c>
@@ -17715,11 +17899,65 @@
       <c r="K345" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="346" customHeight="1" spans="4:11">
+      <c r="L345" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="M345" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="N345" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O345" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P345" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q345" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R345" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="S345" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T345" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U345" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V345" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W345" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="X345" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346" customHeight="1" spans="2:24">
+      <c r="B346" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="D346" s="3">
         <v>2016</v>
       </c>
+      <c r="E346" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H346" s="2" t="s">
         <v>63</v>
       </c>
@@ -17732,11 +17970,65 @@
       <c r="K346" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="347" customHeight="1" spans="4:11">
+      <c r="L346" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M346" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="N346" s="2">
+        <v>2016</v>
+      </c>
+      <c r="O346" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="P346" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U346" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X346" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" customHeight="1" spans="2:24">
+      <c r="B347" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>612</v>
+      </c>
       <c r="D347" s="3">
         <v>2016</v>
       </c>
+      <c r="E347" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F347" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H347" s="2" t="s">
         <v>63</v>
       </c>
@@ -17749,11 +18041,59 @@
       <c r="K347" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="348" customHeight="1" spans="4:11">
+      <c r="L347" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="M347" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="N347" s="2">
+        <v>2015</v>
+      </c>
+      <c r="O347" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P347" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q347" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R347" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S347" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T347" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U347" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V347" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W347" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X347" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="348" customHeight="1" spans="2:24">
+      <c r="B348" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="D348" s="3">
         <v>2016</v>
       </c>
+      <c r="F348" s="7" t="s">
+        <v>619</v>
+      </c>
       <c r="H348" s="2" t="s">
         <v>63</v>
       </c>
@@ -17766,10 +18106,49 @@
       <c r="K348" s="2" t="s">
         <v>566</v>
       </c>
+      <c r="L348" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M348" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="N348" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O348" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P348" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q348" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R348" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S348" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T348" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U348" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V348" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W348" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X348" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="349" customHeight="1" spans="2:24">
       <c r="B349" s="2" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>587</v>
@@ -17778,10 +18157,10 @@
         <v>2017</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>134</v>
@@ -17802,7 +18181,7 @@
         <v>572</v>
       </c>
       <c r="M349" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="N349" s="2">
         <v>2015</v>
@@ -17840,7 +18219,7 @@
     </row>
     <row r="350" customHeight="1" spans="2:24">
       <c r="B350" s="2" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>486</v>
@@ -17911,7 +18290,7 @@
     </row>
     <row r="351" customHeight="1" spans="2:24">
       <c r="B351" s="2" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>25</v>
@@ -17982,7 +18361,7 @@
     </row>
     <row r="352" customHeight="1" spans="2:24">
       <c r="B352" s="2" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>267</v>
@@ -18053,19 +18432,19 @@
     </row>
     <row r="353" customHeight="1" spans="2:24">
       <c r="B353" s="7" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="D353" s="3">
         <v>2018</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>134</v>
@@ -18083,10 +18462,10 @@
         <v>566</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="M353" s="7" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="N353" s="2">
         <v>2016</v>
@@ -18124,10 +18503,10 @@
     </row>
     <row r="354" customHeight="1" spans="2:24">
       <c r="B354" s="7" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="D354" s="3">
         <v>2019</v>
@@ -18157,7 +18536,7 @@
         <v>567</v>
       </c>
       <c r="M354" s="7" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="N354" s="2">
         <v>2018</v>
@@ -18195,7 +18574,7 @@
     </row>
     <row r="355" customHeight="1" spans="2:24">
       <c r="B355" s="2" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>502</v>
@@ -18204,10 +18583,10 @@
         <v>2019</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>134</v>
@@ -18266,7 +18645,7 @@
     </row>
     <row r="356" customHeight="1" spans="2:24">
       <c r="B356" s="7" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>149</v>
@@ -18299,10 +18678,10 @@
         <v>567</v>
       </c>
       <c r="M356" s="7" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="N356" s="2" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="O356" s="2" t="s">
         <v>142</v>
@@ -18337,7 +18716,7 @@
     </row>
     <row r="357" customHeight="1" spans="2:24">
       <c r="B357" s="2" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>587</v>
@@ -18346,10 +18725,10 @@
         <v>2019</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>134</v>
@@ -18367,10 +18746,10 @@
         <v>566</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="M357" s="7" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="N357" s="2">
         <v>2019</v>
@@ -18408,7 +18787,7 @@
     </row>
     <row r="358" customHeight="1" spans="2:24">
       <c r="B358" s="7" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>162</v>
@@ -18417,10 +18796,10 @@
         <v>2020</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>134</v>
@@ -18441,7 +18820,7 @@
         <v>572</v>
       </c>
       <c r="M358" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="N358" s="2">
         <v>2018</v>
@@ -18479,7 +18858,7 @@
     </row>
     <row r="359" customHeight="1" spans="2:24">
       <c r="B359" s="2" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>169</v>
@@ -18488,10 +18867,10 @@
         <v>2020</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>134</v>
@@ -18509,10 +18888,10 @@
         <v>566</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="N359" s="2">
         <v>2019</v>
@@ -18550,7 +18929,7 @@
     </row>
     <row r="360" customHeight="1" spans="2:24">
       <c r="B360" s="2" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>169</v>
@@ -18559,10 +18938,10 @@
         <v>2020</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>134</v>
@@ -18580,10 +18959,10 @@
         <v>566</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="N360" s="2">
         <v>2019</v>
@@ -18621,7 +19000,7 @@
     </row>
     <row r="361" customHeight="1" spans="2:24">
       <c r="B361" s="2" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>486</v>
@@ -18692,7 +19071,7 @@
     </row>
     <row r="362" customHeight="1" spans="2:24">
       <c r="B362" s="2" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>171</v>
@@ -18701,7 +19080,7 @@
         <v>2022</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>134</v>
@@ -18725,7 +19104,7 @@
         <v>246</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="O362" s="2" t="s">
         <v>142</v>
@@ -18760,10 +19139,10 @@
     </row>
     <row r="363" customHeight="1" spans="1:24">
       <c r="A363" s="2" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>381</v>
@@ -18834,7 +19213,7 @@
     </row>
     <row r="364" customHeight="1" spans="2:24">
       <c r="B364" s="2" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>486</v>
@@ -18843,10 +19222,10 @@
         <v>2022</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="G364" s="2" t="s">
         <v>134</v>
@@ -18864,10 +19243,10 @@
         <v>566</v>
       </c>
       <c r="L364" s="2" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="N364" s="2">
         <v>2019</v>
@@ -18905,7 +19284,7 @@
     </row>
     <row r="365" customHeight="1" spans="2:24">
       <c r="B365" s="2" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>267</v>
@@ -18914,10 +19293,10 @@
         <v>2023</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>134</v>
@@ -18976,7 +19355,7 @@
     </row>
     <row r="366" customHeight="1" spans="2:24">
       <c r="B366" s="2" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>195</v>
@@ -18985,10 +19364,10 @@
         <v>2023</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="G366" s="2" t="s">
         <v>134</v>
@@ -19012,7 +19391,7 @@
         <v>573</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="O366" s="2" t="s">
         <v>142</v>
@@ -19039,7 +19418,7 @@
         <v>284</v>
       </c>
       <c r="W366" s="2" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="X366" s="2" t="s">
         <v>27</v>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27517" windowHeight="6285"/>
+    <workbookView windowWidth="27517" windowHeight="4402"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="682">
   <si>
     <t>Pub_Access</t>
   </si>
@@ -2789,9 +2789,6 @@
     <t>Establishment and application of heminested RT-PCR assay for detection of mosquito-borne flavivirus - Guizhou Province, China, 2018</t>
   </si>
   <si>
-    <t>CCDC Weekly</t>
-  </si>
-  <si>
     <t>Guizhou</t>
   </si>
   <si>
@@ -3669,12 +3666,73 @@
   </si>
   <si>
     <r>
+      <t>云南省</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>2013-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热流行及聚集特征分析</t>
+    </r>
+  </si>
+  <si>
+    <t>Yunnan Institute of Parasitic Diseases</t>
+  </si>
+  <si>
+    <t>2013-2020</t>
+  </si>
+  <si>
+    <r>
+      <t>云南省瑞丽及景洪市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2006-2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年登革热疫情特征比较研究</t>
+    </r>
+  </si>
+  <si>
+    <t>Shandong First Medical University</t>
+  </si>
+  <si>
+    <t>山东第一医科大学</t>
+  </si>
+  <si>
+    <t>2006-2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2005-2019</t>
     </r>
     <r>
@@ -3878,6 +3936,29 @@
     <t>Journal of Vector Ecology</t>
   </si>
   <si>
+    <r>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年浙江省义乌市登革热暴发疫情实验诊断和病原分子溯源</t>
+    </r>
+  </si>
+  <si>
+    <t>中华预防医学杂志</t>
+  </si>
+  <si>
+    <t>Yiwu</t>
+  </si>
+  <si>
+    <t>义乌</t>
+  </si>
+  <si>
     <t>浙江省义乌市登革病毒核酸及IgM抗体检测结果分析</t>
   </si>
   <si>
@@ -3890,12 +3971,6 @@
     <t>浙江省义乌市疾病预防控制中心</t>
   </si>
   <si>
-    <t>Yiwu</t>
-  </si>
-  <si>
-    <t>义乌</t>
-  </si>
-  <si>
     <t>浙江省义乌市一起登革热暴发疫情流行病学调查</t>
   </si>
   <si>
@@ -3983,6 +4058,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2012-2014</t>
     </r>
     <r>
@@ -4018,6 +4099,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>登革热</t>
     </r>
     <r>
@@ -5580,12 +5667,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X366"/>
+  <dimension ref="A1:X365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P344" sqref="P344"/>
+      <selection pane="bottomLeft" activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -14014,7 +14101,7 @@
         <v>431</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>432</v>
+        <v>281</v>
       </c>
       <c r="D229" s="3">
         <v>2020</v>
@@ -14035,10 +14122,10 @@
         <v>134</v>
       </c>
       <c r="J229" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K229" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="K229" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>27</v>
@@ -14061,10 +14148,10 @@
         <v>134</v>
       </c>
       <c r="J230" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K230" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="K230" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="231" customHeight="1" spans="4:11">
@@ -14078,10 +14165,10 @@
         <v>134</v>
       </c>
       <c r="J231" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K231" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K231" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="4:11">
@@ -14095,10 +14182,10 @@
         <v>134</v>
       </c>
       <c r="J232" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K232" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K232" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="4:11">
@@ -14112,10 +14199,10 @@
         <v>134</v>
       </c>
       <c r="J233" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K233" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K233" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="234" customHeight="1" spans="4:11">
@@ -14129,10 +14216,10 @@
         <v>134</v>
       </c>
       <c r="J234" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K234" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="4:11">
@@ -14146,10 +14233,10 @@
         <v>134</v>
       </c>
       <c r="J235" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K235" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K235" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="4:11">
@@ -14163,10 +14250,10 @@
         <v>134</v>
       </c>
       <c r="J236" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K236" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K236" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="237" customHeight="1" spans="4:11">
@@ -14180,10 +14267,10 @@
         <v>134</v>
       </c>
       <c r="J237" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K237" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K237" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="4:11">
@@ -14197,10 +14284,10 @@
         <v>134</v>
       </c>
       <c r="J238" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K238" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K238" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="4:11">
@@ -14214,10 +14301,10 @@
         <v>134</v>
       </c>
       <c r="J239" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K239" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K239" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="240" customHeight="1" spans="4:11">
@@ -14231,10 +14318,10 @@
         <v>134</v>
       </c>
       <c r="J240" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K240" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K240" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="4:11">
@@ -14248,15 +14335,15 @@
         <v>134</v>
       </c>
       <c r="J241" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K241" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K241" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="2:14">
       <c r="B242" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>195</v>
@@ -14265,11 +14352,11 @@
         <v>2021</v>
       </c>
       <c r="E242" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="G242" s="2" t="s">
         <v>134</v>
       </c>
@@ -14280,10 +14367,10 @@
         <v>134</v>
       </c>
       <c r="J242" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K242" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="K242" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="L242" s="2" t="s">
         <v>27</v>
@@ -14297,34 +14384,34 @@
     </row>
     <row r="243" customHeight="1" spans="2:24">
       <c r="B243" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="D243" s="3">
         <v>2020</v>
       </c>
       <c r="E243" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F243" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="G243" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J243" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G243" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J243" s="2" t="s">
+      <c r="K243" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="K243" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="L243" s="2" t="s">
         <v>27</v>
@@ -14368,7 +14455,7 @@
     </row>
     <row r="244" customHeight="1" spans="2:11">
       <c r="B244" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>207</v>
@@ -14377,22 +14464,22 @@
         <v>2014</v>
       </c>
       <c r="F244" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J244" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I244" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J244" s="2" t="s">
+      <c r="K244" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="K244" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="4:11">
@@ -14406,10 +14493,10 @@
         <v>134</v>
       </c>
       <c r="J245" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K245" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="K245" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="246" customHeight="1" spans="4:11">
@@ -14423,10 +14510,10 @@
         <v>134</v>
       </c>
       <c r="J246" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K246" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="K246" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="4:11">
@@ -14440,48 +14527,48 @@
         <v>134</v>
       </c>
       <c r="J247" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K247" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="K247" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="2:14">
       <c r="B248" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D248" s="3">
         <v>2018</v>
       </c>
       <c r="F248" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L248" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N248" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I248" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J248" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="K248" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="L248" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M248" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N248" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="249" customHeight="1" spans="4:11">
@@ -14495,51 +14582,51 @@
         <v>134</v>
       </c>
       <c r="J249" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K249" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="K249" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="2:24">
       <c r="B250" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D250" s="3">
         <v>2008</v>
       </c>
       <c r="E250" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F250" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="G250" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J250" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G250" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I250" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J250" s="2" t="s">
+      <c r="K250" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K250" s="2" t="s">
+      <c r="L250" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="M250" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N250" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="L250" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M250" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N250" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="O250" s="2" t="s">
         <v>137</v>
@@ -14574,7 +14661,7 @@
     </row>
     <row r="251" customHeight="1" spans="2:24">
       <c r="B251" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>162</v>
@@ -14583,25 +14670,25 @@
         <v>2021</v>
       </c>
       <c r="E251" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F251" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F251" s="7" t="s">
+      <c r="G251" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J251" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G251" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H251" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J251" s="2" t="s">
+      <c r="K251" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="K251" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="L251" s="2" t="s">
         <v>27</v>
@@ -14654,10 +14741,10 @@
         <v>134</v>
       </c>
       <c r="J252" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K252" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="K252" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="4:11">
@@ -14671,10 +14758,10 @@
         <v>134</v>
       </c>
       <c r="J253" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K253" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="K253" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="4:11">
@@ -14688,10 +14775,10 @@
         <v>134</v>
       </c>
       <c r="J254" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K254" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="K254" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="255" customHeight="1" spans="4:11">
@@ -14705,10 +14792,10 @@
         <v>134</v>
       </c>
       <c r="J255" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K255" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="K255" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="4:11">
@@ -14722,10 +14809,10 @@
         <v>134</v>
       </c>
       <c r="J256" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K256" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="K256" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="4:11">
@@ -14739,48 +14826,48 @@
         <v>134</v>
       </c>
       <c r="J257" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K257" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="K257" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="258" customHeight="1" spans="2:24">
       <c r="B258" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="D258" s="3">
         <v>2015</v>
       </c>
       <c r="E258" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F258" s="2" t="s">
+      <c r="G258" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L258" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G258" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J258" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K258" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L258" s="2" t="s">
+      <c r="M258" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="M258" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="N258" s="2">
         <v>2012</v>
@@ -14813,7 +14900,7 @@
         <v>285</v>
       </c>
       <c r="X258" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="4:13">
@@ -14827,10 +14914,10 @@
         <v>134</v>
       </c>
       <c r="J259" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K259" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="K259" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="M259" s="7"/>
     </row>
@@ -14845,10 +14932,10 @@
         <v>134</v>
       </c>
       <c r="J260" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K260" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="K260" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="M260" s="7"/>
     </row>
@@ -14863,49 +14950,49 @@
         <v>134</v>
       </c>
       <c r="J261" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K261" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="K261" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="M261" s="7"/>
     </row>
     <row r="262" customHeight="1" spans="2:24">
       <c r="B262" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="D262" s="3">
         <v>2020</v>
       </c>
       <c r="E262" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F262" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F262" s="7" t="s">
+      <c r="G262" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L262" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G262" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H262" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J262" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="K262" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="L262" s="2" t="s">
+      <c r="M262" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="M262" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="N262" s="2">
         <v>2019</v>
@@ -14943,10 +15030,10 @@
     </row>
     <row r="263" customHeight="1" spans="2:24">
       <c r="B263" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D263" s="3">
         <v>2021</v>
@@ -14955,7 +15042,7 @@
         <v>154</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>134</v>
@@ -14967,10 +15054,10 @@
         <v>134</v>
       </c>
       <c r="J263" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K263" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="K263" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>27</v>
@@ -15014,40 +15101,40 @@
     </row>
     <row r="264" customHeight="1" spans="2:24">
       <c r="B264" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C264" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="D264" s="3">
         <v>2003</v>
       </c>
       <c r="E264" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F264" s="2" t="s">
+      <c r="G264" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J264" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G264" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H264" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J264" s="2" t="s">
+      <c r="K264" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="K264" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="L264" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M264" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="M264" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="N264" s="2">
         <v>2001</v>
@@ -15085,43 +15172,43 @@
     </row>
     <row r="265" customHeight="1" spans="2:24">
       <c r="B265" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="D265" s="3">
         <v>2010</v>
       </c>
       <c r="E265" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F265" s="2" t="s">
+      <c r="G265" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J265" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G265" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J265" s="2" t="s">
+      <c r="K265" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="K265" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="L265" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M265" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="M265" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="N265" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O265" s="2" t="s">
         <v>142</v>
@@ -15156,7 +15243,7 @@
     </row>
     <row r="266" customHeight="1" spans="2:24">
       <c r="B266" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>67</v>
@@ -15165,10 +15252,10 @@
         <v>2012</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>94</v>
@@ -15180,16 +15267,16 @@
         <v>134</v>
       </c>
       <c r="J266" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K266" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="K266" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="L266" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M266" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="M266" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="N266" s="2">
         <v>1874</v>
@@ -15227,40 +15314,40 @@
     </row>
     <row r="267" customHeight="1" spans="2:24">
       <c r="B267" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C267" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="D267" s="3">
         <v>2019</v>
       </c>
       <c r="E267" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F267" s="2" t="s">
+      <c r="G267" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J267" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G267" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H267" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J267" s="2" t="s">
+      <c r="K267" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="K267" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="L267" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M267" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="M267" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="N267" s="2" t="s">
         <v>27</v>
@@ -15298,10 +15385,10 @@
     </row>
     <row r="268" customHeight="1" spans="2:24">
       <c r="B268" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D268" s="3">
         <v>2009</v>
@@ -15322,10 +15409,10 @@
         <v>134</v>
       </c>
       <c r="J268" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K268" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="K268" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="L268" s="2" t="s">
         <v>27</v>
@@ -15361,45 +15448,45 @@
         <v>235</v>
       </c>
       <c r="X268" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="2:14">
       <c r="B269" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="D269" s="3">
         <v>2020</v>
       </c>
       <c r="E269" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F269" s="2" t="s">
+      <c r="G269" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J269" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G269" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H269" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J269" s="2" t="s">
+      <c r="K269" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="K269" s="2" t="s">
+      <c r="L269" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="L269" s="2" t="s">
+      <c r="M269" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="M269" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="N269" s="2">
         <v>2017</v>
@@ -15407,7 +15494,7 @@
     </row>
     <row r="270" customHeight="1" spans="2:14">
       <c r="B270" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>169</v>
@@ -15416,31 +15503,31 @@
         <v>2015</v>
       </c>
       <c r="E270" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="G270" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K270" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L270" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G270" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H270" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J270" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="K270" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="L270" s="2" t="s">
+      <c r="M270" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="M270" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="N270" s="2">
         <v>2012</v>
@@ -15448,43 +15535,43 @@
     </row>
     <row r="271" customHeight="1" spans="2:24">
       <c r="B271" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="D271" s="3">
         <v>2022</v>
       </c>
       <c r="E271" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="G271" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J271" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G271" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J271" s="2" t="s">
+      <c r="K271" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K271" s="2" t="s">
+      <c r="L271" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N271" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="L271" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M271" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="N271" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="O271" s="2" t="s">
         <v>142</v>
@@ -15514,25 +15601,25 @@
         <v>235</v>
       </c>
       <c r="X271" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="2:24">
       <c r="B272" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="D272" s="3">
         <v>2020</v>
       </c>
       <c r="E272" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F272" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F272" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="G272" s="2" t="s">
         <v>134</v>
       </c>
@@ -15543,16 +15630,16 @@
         <v>134</v>
       </c>
       <c r="J272" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K272" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K272" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="L272" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M272" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="M272" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="N272" s="2" t="s">
         <v>27</v>
@@ -15599,10 +15686,10 @@
         <v>134</v>
       </c>
       <c r="J273" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K273" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K273" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="4:11">
@@ -15616,10 +15703,10 @@
         <v>134</v>
       </c>
       <c r="J274" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K274" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K274" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="4:11">
@@ -15633,10 +15720,10 @@
         <v>134</v>
       </c>
       <c r="J275" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K275" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K275" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="276" customHeight="1" spans="4:11">
@@ -15650,10 +15737,10 @@
         <v>134</v>
       </c>
       <c r="J276" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K276" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K276" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="4:11">
@@ -15667,10 +15754,10 @@
         <v>134</v>
       </c>
       <c r="J277" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K277" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K277" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="4:11">
@@ -15684,10 +15771,10 @@
         <v>134</v>
       </c>
       <c r="J278" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K278" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K278" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="279" customHeight="1" spans="4:11">
@@ -15701,10 +15788,10 @@
         <v>134</v>
       </c>
       <c r="J279" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K279" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K279" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="4:11">
@@ -15718,10 +15805,10 @@
         <v>134</v>
       </c>
       <c r="J280" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K280" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K280" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="4:11">
@@ -15735,10 +15822,10 @@
         <v>134</v>
       </c>
       <c r="J281" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K281" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K281" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="282" customHeight="1" spans="4:11">
@@ -15752,10 +15839,10 @@
         <v>134</v>
       </c>
       <c r="J282" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K282" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K282" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="4:11">
@@ -15769,10 +15856,10 @@
         <v>134</v>
       </c>
       <c r="J283" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K283" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K283" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="4:11">
@@ -15786,10 +15873,10 @@
         <v>134</v>
       </c>
       <c r="J284" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K284" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K284" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="4:11">
@@ -15803,10 +15890,10 @@
         <v>134</v>
       </c>
       <c r="J285" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K285" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K285" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="4:11">
@@ -15820,15 +15907,15 @@
         <v>134</v>
       </c>
       <c r="J286" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K286" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K286" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="2:14">
       <c r="B287" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>101</v>
@@ -15837,34 +15924,34 @@
         <v>2009</v>
       </c>
       <c r="E287" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F287" s="2" t="s">
+      <c r="G287" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="L287" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M287" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N287" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H287" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J287" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="K287" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="L287" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M287" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N287" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="288" customHeight="1" spans="4:11">
@@ -15878,10 +15965,10 @@
         <v>134</v>
       </c>
       <c r="J288" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K288" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K288" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="4:11">
@@ -15895,10 +15982,10 @@
         <v>134</v>
       </c>
       <c r="J289" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K289" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K289" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="4:11">
@@ -15912,10 +15999,10 @@
         <v>134</v>
       </c>
       <c r="J290" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K290" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K290" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="291" customHeight="1" spans="4:11">
@@ -15929,10 +16016,10 @@
         <v>134</v>
       </c>
       <c r="J291" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K291" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K291" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="4:11">
@@ -15946,10 +16033,10 @@
         <v>134</v>
       </c>
       <c r="J292" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K292" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K292" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="4:11">
@@ -15963,10 +16050,10 @@
         <v>134</v>
       </c>
       <c r="J293" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K293" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K293" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="294" customHeight="1" spans="4:11">
@@ -15980,28 +16067,28 @@
         <v>134</v>
       </c>
       <c r="J294" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K294" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K294" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="2:24">
       <c r="B295" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="D295" s="3">
         <v>2023</v>
       </c>
       <c r="E295" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F295" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F295" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="G295" s="2" t="s">
         <v>134</v>
       </c>
@@ -16012,10 +16099,10 @@
         <v>134</v>
       </c>
       <c r="J295" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K295" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="K295" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="L295" s="2" t="s">
         <v>27</v>
@@ -16062,57 +16149,57 @@
         <v>1981</v>
       </c>
       <c r="E296" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F296" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F296" s="2" t="s">
+      <c r="G296" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J296" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G296" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J296" s="2" t="s">
+      <c r="K296" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K296" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="297" customHeight="1" spans="2:24">
       <c r="B297" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D297" s="3">
         <v>1999</v>
       </c>
       <c r="E297" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F297" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F297" s="2" t="s">
+      <c r="G297" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J297" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G297" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I297" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J297" s="2" t="s">
+      <c r="K297" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K297" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="L297" s="2" t="s">
         <v>27</v>
@@ -16156,16 +16243,16 @@
     </row>
     <row r="298" customHeight="1" spans="2:24">
       <c r="B298" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D298" s="3">
         <v>2002</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>134</v>
@@ -16177,10 +16264,10 @@
         <v>134</v>
       </c>
       <c r="J298" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K298" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K298" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="L298" s="2" t="s">
         <v>27</v>
@@ -16233,10 +16320,10 @@
         <v>134</v>
       </c>
       <c r="J299" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K299" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K299" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="300" customHeight="1" spans="4:11">
@@ -16250,10 +16337,10 @@
         <v>134</v>
       </c>
       <c r="J300" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K300" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K300" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="4:11">
@@ -16267,10 +16354,10 @@
         <v>134</v>
       </c>
       <c r="J301" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K301" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K301" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="4:11">
@@ -16284,10 +16371,10 @@
         <v>134</v>
       </c>
       <c r="J302" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K302" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K302" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="303" customHeight="1" spans="4:11">
@@ -16301,10 +16388,10 @@
         <v>134</v>
       </c>
       <c r="J303" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K303" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K303" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="4:11">
@@ -16318,10 +16405,10 @@
         <v>134</v>
       </c>
       <c r="J304" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K304" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K304" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="4:11">
@@ -16335,15 +16422,15 @@
         <v>134</v>
       </c>
       <c r="J305" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K305" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K305" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="306" customHeight="1" spans="2:24">
       <c r="B306" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>151</v>
@@ -16352,11 +16439,11 @@
         <v>2014</v>
       </c>
       <c r="E306" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F306" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F306" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="G306" s="2" t="s">
         <v>134</v>
       </c>
@@ -16367,10 +16454,10 @@
         <v>134</v>
       </c>
       <c r="J306" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K306" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K306" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="L306" s="2" t="s">
         <v>27</v>
@@ -16409,7 +16496,7 @@
         <v>235</v>
       </c>
       <c r="X306" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="4:14">
@@ -16417,11 +16504,11 @@
         <v>2015</v>
       </c>
       <c r="E307" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F307" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F307" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="G307" s="2" t="s">
         <v>134</v>
       </c>
@@ -16432,10 +16519,10 @@
         <v>134</v>
       </c>
       <c r="J307" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K307" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K307" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="N307" s="2">
         <v>2013</v>
@@ -16453,10 +16540,10 @@
         <v>134</v>
       </c>
       <c r="J308" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K308" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K308" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="309" customHeight="1" spans="4:11">
@@ -16471,10 +16558,10 @@
         <v>134</v>
       </c>
       <c r="J309" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K309" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K309" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="4:11">
@@ -16489,10 +16576,10 @@
         <v>134</v>
       </c>
       <c r="J310" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K310" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K310" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="4:11">
@@ -16507,10 +16594,10 @@
         <v>134</v>
       </c>
       <c r="J311" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K311" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K311" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="312" customHeight="1" spans="4:11">
@@ -16525,10 +16612,10 @@
         <v>134</v>
       </c>
       <c r="J312" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K312" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K312" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="4:11">
@@ -16543,10 +16630,10 @@
         <v>134</v>
       </c>
       <c r="J313" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K313" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K313" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="4:11">
@@ -16561,10 +16648,10 @@
         <v>134</v>
       </c>
       <c r="J314" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K314" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K314" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="315" customHeight="1" spans="4:11">
@@ -16579,10 +16666,10 @@
         <v>134</v>
       </c>
       <c r="J315" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K315" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K315" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="4:11">
@@ -16597,10 +16684,10 @@
         <v>134</v>
       </c>
       <c r="J316" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K316" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K316" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="4:11">
@@ -16615,10 +16702,10 @@
         <v>134</v>
       </c>
       <c r="J317" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K317" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K317" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="318" customHeight="1" spans="4:11">
@@ -16633,10 +16720,10 @@
         <v>134</v>
       </c>
       <c r="J318" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K318" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K318" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="4:11">
@@ -16651,10 +16738,10 @@
         <v>134</v>
       </c>
       <c r="J319" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K319" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K319" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="4:11">
@@ -16669,10 +16756,10 @@
         <v>134</v>
       </c>
       <c r="J320" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K320" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K320" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="321" customHeight="1" spans="4:11">
@@ -16687,10 +16774,10 @@
         <v>134</v>
       </c>
       <c r="J321" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K321" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K321" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="4:11">
@@ -16705,10 +16792,10 @@
         <v>134</v>
       </c>
       <c r="J322" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K322" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K322" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="4:11">
@@ -16723,10 +16810,10 @@
         <v>134</v>
       </c>
       <c r="J323" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K323" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K323" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="324" customHeight="1" spans="4:11">
@@ -16741,10 +16828,10 @@
         <v>134</v>
       </c>
       <c r="J324" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K324" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K324" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="4:11">
@@ -16759,10 +16846,10 @@
         <v>134</v>
       </c>
       <c r="J325" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K325" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="K325" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="4:11">
@@ -16777,17 +16864,31 @@
         <v>134</v>
       </c>
       <c r="J326" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K326" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="K326" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="327" customHeight="1" spans="4:11">
+    </row>
+    <row r="327" customHeight="1" spans="2:24">
+      <c r="B327" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D327" s="3">
         <v>2021</v>
       </c>
-      <c r="F327" s="7"/>
+      <c r="E327" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H327" s="2" t="s">
         <v>63</v>
       </c>
@@ -16795,17 +16896,70 @@
         <v>134</v>
       </c>
       <c r="J327" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K327" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="K327" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="328" customHeight="1" spans="4:11">
+      <c r="L327" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M327" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N327" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O327" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P327" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U327" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W327" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X327" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="2:24">
+      <c r="B328" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D328" s="3">
         <v>2021</v>
       </c>
-      <c r="F328" s="7"/>
+      <c r="E328" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H328" s="2" t="s">
         <v>63</v>
       </c>
@@ -16813,15 +16967,54 @@
         <v>134</v>
       </c>
       <c r="J328" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K328" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="K328" s="2" t="s">
-        <v>544</v>
+      <c r="L328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N328" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O328" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P328" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U328" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X328" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="2:24">
       <c r="B329" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>169</v>
@@ -16845,11 +17038,11 @@
         <v>134</v>
       </c>
       <c r="J329" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K329" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="K329" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="L329" s="2" t="s">
         <v>27</v>
       </c>
@@ -16857,7 +17050,7 @@
         <v>27</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="O329" s="2" t="s">
         <v>142</v>
@@ -16892,7 +17085,7 @@
     </row>
     <row r="330" customHeight="1" spans="2:24">
       <c r="B330" s="2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>195</v>
@@ -16901,10 +17094,10 @@
         <v>2022</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>134</v>
@@ -16916,16 +17109,16 @@
         <v>134</v>
       </c>
       <c r="J330" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K330" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="K330" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="L330" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="N330" s="2">
         <v>2019</v>
@@ -16963,7 +17156,7 @@
     </row>
     <row r="331" customHeight="1" spans="2:24">
       <c r="B331" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>426</v>
@@ -16972,10 +17165,10 @@
         <v>2005</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>134</v>
@@ -16987,16 +17180,16 @@
         <v>134</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="N331" s="2">
         <v>2004</v>
@@ -17023,7 +17216,7 @@
         <v>56</v>
       </c>
       <c r="V331" s="2" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="W331" s="2" t="s">
         <v>235</v>
@@ -17034,19 +17227,19 @@
     </row>
     <row r="332" customHeight="1" spans="2:24">
       <c r="B332" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D332" s="3">
         <v>2005</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>134</v>
@@ -17058,16 +17251,16 @@
         <v>134</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K332" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="N332" s="2">
         <v>2004</v>
@@ -17105,7 +17298,7 @@
     </row>
     <row r="333" customHeight="1" spans="2:24">
       <c r="B333" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>169</v>
@@ -17114,10 +17307,10 @@
         <v>2006</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>134</v>
@@ -17129,16 +17322,16 @@
         <v>134</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="N333" s="2">
         <v>2004</v>
@@ -17165,7 +17358,7 @@
         <v>56</v>
       </c>
       <c r="V333" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="W333" s="2" t="s">
         <v>235</v>
@@ -17176,19 +17369,19 @@
     </row>
     <row r="334" customHeight="1" spans="2:24">
       <c r="B334" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D334" s="3">
         <v>2006</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>134</v>
@@ -17200,16 +17393,16 @@
         <v>134</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="N334" s="2">
         <v>2004</v>
@@ -17247,7 +17440,7 @@
     </row>
     <row r="335" customHeight="1" spans="2:24">
       <c r="B335" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>237</v>
@@ -17256,10 +17449,10 @@
         <v>2006</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>134</v>
@@ -17271,16 +17464,16 @@
         <v>134</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M335" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N335" s="2">
         <v>2004</v>
@@ -17307,7 +17500,7 @@
         <v>56</v>
       </c>
       <c r="V335" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="W335" s="2" t="s">
         <v>235</v>
@@ -17318,7 +17511,7 @@
     </row>
     <row r="336" customHeight="1" spans="2:24">
       <c r="B336" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>101</v>
@@ -17327,10 +17520,10 @@
         <v>2007</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>134</v>
@@ -17342,16 +17535,16 @@
         <v>134</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M336" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N336" s="2">
         <v>2004</v>
@@ -17389,19 +17582,19 @@
     </row>
     <row r="337" customHeight="1" spans="2:24">
       <c r="B337" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D337" s="3">
         <v>2009</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>134</v>
@@ -17413,16 +17606,16 @@
         <v>134</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M337" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N337" s="2">
         <v>2004</v>
@@ -17458,30 +17651,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" customHeight="1" spans="4:20">
+    <row r="338" customHeight="1" spans="2:24">
+      <c r="B338" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>593</v>
+      </c>
       <c r="D338" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L338" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M338" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="N338" s="2">
         <v>2009</v>
       </c>
-      <c r="E338" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I338" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J338" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K338" s="2" t="s">
-        <v>566</v>
+      <c r="O338" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P338" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="Q338" s="2" t="s">
         <v>27</v>
@@ -17495,11 +17709,38 @@
       <c r="T338" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="339" customHeight="1" spans="4:11">
+      <c r="U338" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V338" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="W338" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="X338" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" customHeight="1" spans="2:24">
+      <c r="B339" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>597</v>
+      </c>
       <c r="D339" s="3">
         <v>2010</v>
       </c>
+      <c r="E339" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H339" s="2" t="s">
         <v>63</v>
       </c>
@@ -17507,27 +17748,66 @@
         <v>134</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
+      </c>
+      <c r="L339" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M339" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="N339" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O339" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P339" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q339" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R339" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S339" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T339" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U339" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V339" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W339" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X339" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="2:24">
       <c r="B340" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D340" s="3">
         <v>2010</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F340" s="7" t="s">
-        <v>589</v>
+        <v>569</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>134</v>
@@ -17539,16 +17819,16 @@
         <v>134</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M340" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="N340" s="2">
         <v>2009</v>
@@ -17585,20 +17865,20 @@
       </c>
     </row>
     <row r="341" customHeight="1" spans="2:24">
-      <c r="B341" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>587</v>
+      <c r="B341" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D341" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>134</v>
@@ -17610,16 +17890,16 @@
         <v>134</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L341" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="M341" s="7" t="s">
-        <v>591</v>
+        <v>245</v>
+      </c>
+      <c r="M341" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="N341" s="2">
         <v>2009</v>
@@ -17643,13 +17923,13 @@
         <v>27</v>
       </c>
       <c r="U341" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V341" s="2" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="W341" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X341" s="2" t="s">
         <v>27</v>
@@ -17657,19 +17937,19 @@
     </row>
     <row r="342" customHeight="1" spans="2:24">
       <c r="B342" s="2" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>40</v>
+        <v>603</v>
       </c>
       <c r="D342" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>564</v>
+        <v>604</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>605</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>134</v>
@@ -17681,10 +17961,10 @@
         <v>134</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L342" s="2" t="s">
         <v>245</v>
@@ -17693,7 +17973,7 @@
         <v>246</v>
       </c>
       <c r="N342" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O342" s="2" t="s">
         <v>142</v>
@@ -17705,10 +17985,10 @@
         <v>27</v>
       </c>
       <c r="R342" s="2" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="S342" s="2" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="T342" s="2" t="s">
         <v>27</v>
@@ -17717,30 +17997,30 @@
         <v>56</v>
       </c>
       <c r="V342" s="2" t="s">
-        <v>234</v>
+        <v>606</v>
       </c>
       <c r="W342" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X342" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="2:24">
-      <c r="B343" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>595</v>
+      <c r="B343" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>608</v>
       </c>
       <c r="D343" s="3">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>134</v>
@@ -17752,19 +18032,19 @@
         <v>134</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M343" s="2" t="s">
-        <v>246</v>
+        <v>611</v>
+      </c>
+      <c r="M343" s="7" t="s">
+        <v>612</v>
       </c>
       <c r="N343" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="O343" s="2" t="s">
         <v>142</v>
@@ -17776,7 +18056,7 @@
         <v>27</v>
       </c>
       <c r="R343" s="2" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="S343" s="2" t="s">
         <v>27</v>
@@ -17785,10 +18065,10 @@
         <v>27</v>
       </c>
       <c r="U343" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V343" s="2" t="s">
-        <v>598</v>
+        <v>27</v>
       </c>
       <c r="W343" s="2" t="s">
         <v>27</v>
@@ -17799,19 +18079,19 @@
     </row>
     <row r="344" customHeight="1" spans="2:24">
       <c r="B344" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D344" s="3">
         <v>2015</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="F344" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>134</v>
@@ -17823,22 +18103,22 @@
         <v>134</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L344" s="2" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="M344" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="N344" s="2">
-        <v>2014</v>
+        <v>616</v>
+      </c>
+      <c r="N344" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="P344" s="2" t="s">
         <v>165</v>
@@ -17847,7 +18127,7 @@
         <v>27</v>
       </c>
       <c r="R344" s="2" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="S344" s="2" t="s">
         <v>27</v>
@@ -17856,60 +18136,60 @@
         <v>27</v>
       </c>
       <c r="U344" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V344" s="2" t="s">
         <v>27</v>
       </c>
       <c r="W344" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X344" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="345" customHeight="1" spans="2:24">
-      <c r="B345" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="C345" s="7" t="s">
+      <c r="B345" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D345" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L345" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M345" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="D345" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F345" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G345" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I345" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J345" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K345" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="L345" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M345" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="N345" s="2" t="s">
-        <v>141</v>
+      <c r="N345" s="2">
+        <v>2016</v>
       </c>
       <c r="O345" s="2" t="s">
-        <v>204</v>
+        <v>618</v>
       </c>
       <c r="P345" s="2" t="s">
         <v>165</v>
@@ -17918,7 +18198,7 @@
         <v>27</v>
       </c>
       <c r="R345" s="2" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="S345" s="2" t="s">
         <v>27</v>
@@ -17927,33 +18207,33 @@
         <v>27</v>
       </c>
       <c r="U345" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V345" s="2" t="s">
         <v>27</v>
       </c>
       <c r="W345" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X345" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="2:24">
-      <c r="B346" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>600</v>
+      <c r="B346" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>620</v>
       </c>
       <c r="D346" s="3">
         <v>2016</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>589</v>
+        <v>621</v>
+      </c>
+      <c r="F346" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>134</v>
@@ -17965,22 +18245,22 @@
         <v>134</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L346" s="2" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="M346" s="7" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="N346" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O346" s="2" t="s">
-        <v>610</v>
+        <v>142</v>
       </c>
       <c r="P346" s="2" t="s">
         <v>165</v>
@@ -18012,22 +18292,16 @@
     </row>
     <row r="347" customHeight="1" spans="2:24">
       <c r="B347" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D347" s="3">
         <v>2016</v>
       </c>
-      <c r="E347" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="F347" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>134</v>
+        <v>627</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>63</v>
@@ -18036,22 +18310,22 @@
         <v>134</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="M347" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="N347" s="2">
-        <v>2015</v>
+        <v>595</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="P347" s="2" t="s">
         <v>165</v>
@@ -18082,17 +18356,23 @@
       </c>
     </row>
     <row r="348" customHeight="1" spans="2:24">
-      <c r="B348" s="7" t="s">
-        <v>617</v>
+      <c r="B348" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="D348" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F348" s="7" t="s">
-        <v>619</v>
+        <v>2017</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>63</v>
@@ -18101,28 +18381,28 @@
         <v>134</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M348" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="N348" s="2" t="s">
-        <v>346</v>
+        <v>616</v>
+      </c>
+      <c r="N348" s="2">
+        <v>2015</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="P348" s="2" t="s">
         <v>165</v>
       </c>
       <c r="Q348" s="2" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="R348" s="2" t="s">
         <v>27</v>
@@ -18134,13 +18414,13 @@
         <v>27</v>
       </c>
       <c r="U348" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V348" s="2" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="W348" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X348" s="2" t="s">
         <v>27</v>
@@ -18148,19 +18428,19 @@
     </row>
     <row r="349" customHeight="1" spans="2:24">
       <c r="B349" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>587</v>
+        <v>631</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="D349" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>134</v>
@@ -18172,19 +18452,19 @@
         <v>134</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L349" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M349" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="N349" s="2">
-        <v>2015</v>
+        <v>245</v>
+      </c>
+      <c r="M349" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N349" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="O349" s="2" t="s">
         <v>142</v>
@@ -18199,10 +18479,10 @@
         <v>27</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="T349" s="2" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="U349" s="2" t="s">
         <v>56</v>
@@ -18219,19 +18499,19 @@
     </row>
     <row r="350" customHeight="1" spans="2:24">
       <c r="B350" s="2" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>486</v>
+        <v>25</v>
       </c>
       <c r="D350" s="3">
         <v>2018</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>134</v>
@@ -18243,10 +18523,10 @@
         <v>134</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L350" s="2" t="s">
         <v>245</v>
@@ -18264,25 +18544,25 @@
         <v>165</v>
       </c>
       <c r="Q350" s="2" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="R350" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="T350" s="2" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="U350" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V350" s="2" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="W350" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X350" s="2" t="s">
         <v>27</v>
@@ -18290,19 +18570,19 @@
     </row>
     <row r="351" customHeight="1" spans="2:24">
       <c r="B351" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="D351" s="3">
         <v>2018</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>134</v>
@@ -18314,10 +18594,10 @@
         <v>134</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L351" s="2" t="s">
         <v>245</v>
@@ -18360,20 +18640,20 @@
       </c>
     </row>
     <row r="352" customHeight="1" spans="2:24">
-      <c r="B352" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>267</v>
+      <c r="B352" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="D352" s="3">
         <v>2018</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>580</v>
+        <v>636</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>637</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>134</v>
@@ -18385,19 +18665,19 @@
         <v>134</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M352" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N352" s="2" t="s">
-        <v>27</v>
+        <v>638</v>
+      </c>
+      <c r="M352" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="N352" s="2">
+        <v>2016</v>
       </c>
       <c r="O352" s="2" t="s">
         <v>142</v>
@@ -18432,43 +18712,43 @@
     </row>
     <row r="353" customHeight="1" spans="2:24">
       <c r="B353" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="D353" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="L353" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M353" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="N353" s="2">
         <v>2018</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F353" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H353" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J353" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K353" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="L353" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="M353" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="N353" s="2">
-        <v>2016</v>
       </c>
       <c r="O353" s="2" t="s">
         <v>142</v>
@@ -18477,7 +18757,7 @@
         <v>165</v>
       </c>
       <c r="Q353" s="2" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="R353" s="2" t="s">
         <v>27</v>
@@ -18489,33 +18769,33 @@
         <v>27</v>
       </c>
       <c r="U353" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V353" s="2" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="W353" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X353" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="354" customHeight="1" spans="2:24">
-      <c r="B354" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>633</v>
+      <c r="B354" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D354" s="3">
         <v>2019</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F354" s="7" t="s">
-        <v>578</v>
+        <v>644</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>134</v>
@@ -18527,19 +18807,19 @@
         <v>134</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="M354" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="N354" s="2">
-        <v>2018</v>
+        <v>245</v>
+      </c>
+      <c r="M354" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N354" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="O354" s="2" t="s">
         <v>142</v>
@@ -18548,7 +18828,7 @@
         <v>165</v>
       </c>
       <c r="Q354" s="2" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="R354" s="2" t="s">
         <v>27</v>
@@ -18560,33 +18840,33 @@
         <v>27</v>
       </c>
       <c r="U354" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V354" s="2" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="W354" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X354" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="2:24">
-      <c r="B355" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>502</v>
+      <c r="B355" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D355" s="3">
         <v>2019</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>637</v>
+        <v>583</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>584</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>134</v>
@@ -18598,19 +18878,19 @@
         <v>134</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L355" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M355" s="2" t="s">
-        <v>246</v>
+        <v>573</v>
+      </c>
+      <c r="M355" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="N355" s="2" t="s">
-        <v>420</v>
+        <v>647</v>
       </c>
       <c r="O355" s="2" t="s">
         <v>142</v>
@@ -18644,20 +18924,20 @@
       </c>
     </row>
     <row r="356" customHeight="1" spans="2:24">
-      <c r="B356" s="7" t="s">
-        <v>638</v>
+      <c r="B356" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>149</v>
+        <v>597</v>
       </c>
       <c r="D356" s="3">
         <v>2019</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F356" s="7" t="s">
-        <v>578</v>
+        <v>649</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>134</v>
@@ -18669,19 +18949,19 @@
         <v>134</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L356" s="2" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="M356" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="N356" s="2" t="s">
-        <v>639</v>
+        <v>652</v>
+      </c>
+      <c r="N356" s="2">
+        <v>2019</v>
       </c>
       <c r="O356" s="2" t="s">
         <v>142</v>
@@ -18690,7 +18970,7 @@
         <v>165</v>
       </c>
       <c r="Q356" s="2" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="R356" s="2" t="s">
         <v>27</v>
@@ -18702,33 +18982,33 @@
         <v>27</v>
       </c>
       <c r="U356" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V356" s="2" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="W356" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X356" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="357" customHeight="1" spans="2:24">
-      <c r="B357" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>587</v>
+      <c r="B357" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D357" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>630</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>134</v>
@@ -18740,19 +19020,19 @@
         <v>134</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="M357" s="7" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="N357" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O357" s="2" t="s">
         <v>142</v>
@@ -18786,20 +19066,20 @@
       </c>
     </row>
     <row r="358" customHeight="1" spans="2:24">
-      <c r="B358" s="7" t="s">
-        <v>645</v>
+      <c r="B358" s="2" t="s">
+        <v>654</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D358" s="3">
         <v>2020</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F358" s="7" t="s">
-        <v>622</v>
+        <v>655</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>134</v>
@@ -18811,19 +19091,19 @@
         <v>134</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L358" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M358" s="7" t="s">
-        <v>608</v>
+        <v>657</v>
+      </c>
+      <c r="M358" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="N358" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O358" s="2" t="s">
         <v>142</v>
@@ -18858,7 +19138,7 @@
     </row>
     <row r="359" customHeight="1" spans="2:24">
       <c r="B359" s="2" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>169</v>
@@ -18867,10 +19147,10 @@
         <v>2020</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>134</v>
@@ -18882,16 +19162,16 @@
         <v>134</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="N359" s="2">
         <v>2019</v>
@@ -18915,13 +19195,13 @@
         <v>27</v>
       </c>
       <c r="U359" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V359" s="2" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="W359" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X359" s="2" t="s">
         <v>27</v>
@@ -18929,19 +19209,19 @@
     </row>
     <row r="360" customHeight="1" spans="2:24">
       <c r="B360" s="2" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="D360" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>652</v>
+        <v>569</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>653</v>
+        <v>570</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>134</v>
@@ -18953,16 +19233,16 @@
         <v>134</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>654</v>
+        <v>245</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>655</v>
+        <v>246</v>
       </c>
       <c r="N360" s="2">
         <v>2019</v>
@@ -18986,13 +19266,13 @@
         <v>27</v>
       </c>
       <c r="U360" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V360" s="2" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="W360" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X360" s="2" t="s">
         <v>27</v>
@@ -19000,19 +19280,16 @@
     </row>
     <row r="361" customHeight="1" spans="2:24">
       <c r="B361" s="2" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>486</v>
+        <v>171</v>
       </c>
       <c r="D361" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>564</v>
+        <v>666</v>
       </c>
       <c r="G361" s="2" t="s">
         <v>134</v>
@@ -19024,10 +19301,10 @@
         <v>134</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L361" s="2" t="s">
         <v>245</v>
@@ -19035,8 +19312,8 @@
       <c r="M361" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N361" s="2">
-        <v>2019</v>
+      <c r="N361" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="O361" s="2" t="s">
         <v>142</v>
@@ -19045,7 +19322,7 @@
         <v>165</v>
       </c>
       <c r="Q361" s="2" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="R361" s="2" t="s">
         <v>27</v>
@@ -19057,30 +19334,36 @@
         <v>27</v>
       </c>
       <c r="U361" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V361" s="2" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="W361" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X361" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="362" customHeight="1" spans="2:24">
+    <row r="362" customHeight="1" spans="1:24">
+      <c r="A362" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="B362" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="D362" s="3">
         <v>2022</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>658</v>
+        <v>569</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>134</v>
@@ -19092,10 +19375,10 @@
         <v>134</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L362" s="2" t="s">
         <v>245</v>
@@ -19104,7 +19387,7 @@
         <v>246</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>659</v>
+        <v>27</v>
       </c>
       <c r="O362" s="2" t="s">
         <v>142</v>
@@ -19113,48 +19396,45 @@
         <v>165</v>
       </c>
       <c r="Q362" s="2" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="R362" s="2" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="S362" s="2" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="T362" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U362" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V362" s="2" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="W362" s="2" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="X362" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="363" customHeight="1" spans="1:24">
-      <c r="A363" s="2" t="s">
-        <v>660</v>
-      </c>
+    <row r="363" customHeight="1" spans="2:24">
       <c r="B363" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
       <c r="D363" s="3">
         <v>2022</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>564</v>
+        <v>672</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>134</v>
@@ -19166,19 +19446,19 @@
         <v>134</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L363" s="2" t="s">
-        <v>245</v>
+        <v>673</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N363" s="2" t="s">
-        <v>27</v>
+        <v>674</v>
+      </c>
+      <c r="N363" s="2">
+        <v>2019</v>
       </c>
       <c r="O363" s="2" t="s">
         <v>142</v>
@@ -19187,25 +19467,25 @@
         <v>165</v>
       </c>
       <c r="Q363" s="2" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="R363" s="2" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="S363" s="2" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="T363" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U363" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="V363" s="2" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="W363" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="X363" s="2" t="s">
         <v>27</v>
@@ -19213,19 +19493,19 @@
     </row>
     <row r="364" customHeight="1" spans="2:24">
       <c r="B364" s="2" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>486</v>
+        <v>267</v>
       </c>
       <c r="D364" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="G364" s="2" t="s">
         <v>134</v>
@@ -19237,25 +19517,25 @@
         <v>134</v>
       </c>
       <c r="J364" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L364" s="2" t="s">
-        <v>665</v>
+        <v>245</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="N364" s="2">
-        <v>2019</v>
+        <v>246</v>
+      </c>
+      <c r="N364" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="O364" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="P364" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="Q364" s="2" t="s">
         <v>27</v>
@@ -19284,19 +19564,19 @@
     </row>
     <row r="365" customHeight="1" spans="2:24">
       <c r="B365" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="D365" s="3">
         <v>2023</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>134</v>
@@ -19308,31 +19588,31 @@
         <v>134</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L365" s="2" t="s">
-        <v>245</v>
+        <v>578</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>246</v>
+        <v>579</v>
       </c>
       <c r="N365" s="2" t="s">
-        <v>27</v>
+        <v>667</v>
       </c>
       <c r="O365" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="P365" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="Q365" s="2" t="s">
         <v>27</v>
       </c>
       <c r="R365" s="2" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="S365" s="2" t="s">
         <v>27</v>
@@ -19341,92 +19621,21 @@
         <v>27</v>
       </c>
       <c r="U365" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="V365" s="2" t="s">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="W365" s="2" t="s">
-        <v>27</v>
+        <v>681</v>
       </c>
       <c r="X365" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="366" customHeight="1" spans="2:24">
-      <c r="B366" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D366" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E366" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H366" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I366" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J366" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K366" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="L366" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M366" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="N366" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="O366" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P366" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q366" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R366" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="S366" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T366" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U366" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V366" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W366" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="X366" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:X366">
-    <sortState ref="A1:X366">
+  <autoFilter ref="A1:X365">
+    <sortState ref="A1:X365">
       <sortCondition ref="I2:I88"/>
       <sortCondition ref="J2:J88"/>
       <sortCondition ref="L2:L88"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6375" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6396" uniqueCount="1218">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -9377,10 +9377,22 @@
     <t>Yale University</t>
   </si>
   <si>
+    <t>Los Alamos National Laboratory</t>
+  </si>
+  <si>
     <t>Emergence of dengue virus serotype 2 cosmopolitan genotype, Brazil</t>
   </si>
   <si>
     <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>Federal University of Tocantins</t>
+  </si>
+  <si>
+    <t>Genome sequencing of dengue serotype 4 in a bat brain sample (Platyrrhinus helleri) from the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t>Multiple introductions and country-wide spread of DENV-2 genotype II (Cosmopolitan) in Brazil</t>
   </si>
   <si>
     <t>Reemergence of dengue virus serotype 3, Brazil, 023</t>
@@ -10677,9 +10689,9 @@
   <dimension ref="A1:AG636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I413" sqref="I413"/>
+      <selection pane="bottomLeft" activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -30728,9 +30740,6 @@
       <c r="D481" s="3">
         <v>2012</v>
       </c>
-      <c r="E481" s="2"/>
-      <c r="F481" s="2"/>
-      <c r="G481" s="2"/>
       <c r="H481" s="2" t="s">
         <v>1109</v>
       </c>
@@ -31445,7 +31454,6 @@
       <c r="T520" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U520" s="2"/>
       <c r="W520" s="2" t="s">
         <v>65</v>
       </c>
@@ -32485,9 +32493,21 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="593" customHeight="1" spans="4:9">
+    <row r="593" customHeight="1" spans="3:9">
+      <c r="C593" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D593" s="3">
         <v>2020</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>1162</v>
       </c>
       <c r="H593" s="2" t="s">
         <v>1163</v>
@@ -32536,10 +32556,25 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="596" customHeight="1" spans="4:9">
+    <row r="596" customHeight="1" spans="2:9">
+      <c r="B596" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1124</v>
+      </c>
       <c r="D596" s="3">
         <v>2020</v>
       </c>
+      <c r="E596" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>1162</v>
+      </c>
       <c r="H596" s="2" t="s">
         <v>1163</v>
       </c>
@@ -32549,16 +32584,16 @@
     </row>
     <row r="597" customHeight="1" spans="2:9">
       <c r="B597" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1124</v>
+        <v>274</v>
       </c>
       <c r="D597" s="3">
         <v>2020</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>41</v>
@@ -32573,25 +32608,10 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="598" customHeight="1" spans="2:9">
-      <c r="B598" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C598" s="2" t="s">
-        <v>274</v>
-      </c>
+    <row r="598" customHeight="1" spans="4:9">
       <c r="D598" s="3">
         <v>2020</v>
       </c>
-      <c r="E598" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F598" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G598" s="2" t="s">
-        <v>1162</v>
-      </c>
       <c r="H598" s="2" t="s">
         <v>1163</v>
       </c>
@@ -32599,9 +32619,21 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="599" customHeight="1" spans="4:9">
+    <row r="599" customHeight="1" spans="3:9">
+      <c r="C599" s="2" t="s">
+        <v>1124</v>
+      </c>
       <c r="D599" s="3">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>1162</v>
       </c>
       <c r="H599" s="2" t="s">
         <v>1163</v>
@@ -32614,15 +32646,6 @@
       <c r="D600" s="3">
         <v>2021</v>
       </c>
-      <c r="E600" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F600" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G600" s="2" t="s">
-        <v>1162</v>
-      </c>
       <c r="H600" s="2" t="s">
         <v>1163</v>
       </c>
@@ -32641,7 +32664,10 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="602" customHeight="1" spans="4:9">
+    <row r="602" customHeight="1" spans="3:9">
+      <c r="C602" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D602" s="3">
         <v>2021</v>
       </c>
@@ -32656,6 +32682,15 @@
       <c r="D603" s="3">
         <v>2021</v>
       </c>
+      <c r="E603" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="H603" s="2" t="s">
         <v>1163</v>
       </c>
@@ -32663,10 +32698,22 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="604" customHeight="1" spans="4:9">
+    <row r="604" customHeight="1" spans="3:9">
+      <c r="C604" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="D604" s="3">
         <v>2021</v>
       </c>
+      <c r="E604" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>1162</v>
+      </c>
       <c r="H604" s="2" t="s">
         <v>1163</v>
       </c>
@@ -32674,12 +32721,15 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="605" customHeight="1" spans="4:9">
+    <row r="605" customHeight="1" spans="3:9">
+      <c r="C605" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D605" s="3">
         <v>2021</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>41</v>
@@ -32694,15 +32744,18 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="606" customHeight="1" spans="3:9">
+    <row r="606" customHeight="1" spans="2:9">
+      <c r="B606" s="2" t="s">
+        <v>1179</v>
+      </c>
       <c r="C606" s="2" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="D606" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>41</v>
@@ -32719,7 +32772,16 @@
     </row>
     <row r="607" customHeight="1" spans="4:9">
       <c r="D607" s="3">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H607" s="2" t="s">
         <v>1163</v>
@@ -32728,18 +32790,15 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="608" customHeight="1" spans="2:9">
-      <c r="B608" s="2" t="s">
-        <v>1178</v>
-      </c>
+    <row r="608" customHeight="1" spans="3:9">
       <c r="C608" s="2" t="s">
-        <v>93</v>
+        <v>1124</v>
       </c>
       <c r="D608" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>1164</v>
+        <v>1181</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>41</v>
@@ -32756,16 +32815,7 @@
     </row>
     <row r="609" customHeight="1" spans="4:9">
       <c r="D609" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E609" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F609" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G609" s="2" t="s">
-        <v>1054</v>
+        <v>2023</v>
       </c>
       <c r="H609" s="2" t="s">
         <v>1163</v>
@@ -32785,10 +32835,25 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="611" customHeight="1" spans="4:9">
+    <row r="611" customHeight="1" spans="2:9">
+      <c r="B611" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="D611" s="3">
         <v>2023</v>
       </c>
+      <c r="E611" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>1162</v>
+      </c>
       <c r="H611" s="2" t="s">
         <v>1163</v>
       </c>
@@ -32796,7 +32861,13 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="612" customHeight="1" spans="4:9">
+    <row r="612" customHeight="1" spans="2:9">
+      <c r="B612" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>1041</v>
+      </c>
       <c r="D612" s="3">
         <v>2023</v>
       </c>
@@ -32829,7 +32900,7 @@
     </row>
     <row r="614" customHeight="1" spans="2:26">
       <c r="B614" s="2" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>93</v>
@@ -32888,7 +32959,7 @@
     </row>
     <row r="615" customHeight="1" spans="2:14">
       <c r="B615" s="2" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>76</v>
@@ -32897,19 +32968,19 @@
         <v>2014</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="I615" s="2" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="J615" s="2" t="s">
         <v>41</v>
@@ -32924,30 +32995,30 @@
         <v>41</v>
       </c>
       <c r="N615" s="2" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="616" customHeight="1" spans="2:13">
       <c r="B616" s="2" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>328</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="F616" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="I616" s="2" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="K616" s="2" t="s">
         <v>41</v>
@@ -32958,25 +33029,25 @@
     </row>
     <row r="617" customHeight="1" spans="2:13">
       <c r="B617" s="2" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="I617" s="2" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="K617" s="2" t="s">
         <v>41</v>
@@ -32987,7 +33058,7 @@
     </row>
     <row r="618" customHeight="1" spans="2:14">
       <c r="B618" s="2" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>93</v>
@@ -32996,7 +33067,7 @@
         <v>2020</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>41</v>
@@ -33017,58 +33088,58 @@
         <v>41</v>
       </c>
       <c r="N618" s="2" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="619" customHeight="1" spans="8:9">
       <c r="H619" s="2" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="I619" s="2" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="620" customHeight="1" spans="8:9">
       <c r="H620" s="2" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="I620" s="2" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="621" customHeight="1" spans="9:9">
       <c r="I621" s="2" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="622" customHeight="1" spans="9:9">
       <c r="I622" s="2" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="623" customHeight="1" spans="9:9">
       <c r="I623" s="2" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="624" customHeight="1" spans="9:9">
       <c r="I624" s="2" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="625" customHeight="1" spans="9:9">
       <c r="I625" s="2" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="626" customHeight="1" spans="9:9">
       <c r="I626" s="2" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="627" customHeight="1" spans="9:9">
       <c r="I627" s="2" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="628" customHeight="1" spans="4:9">
@@ -33076,10 +33147,10 @@
         <v>2008</v>
       </c>
       <c r="H628" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I628" s="2" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="629" customHeight="1" spans="4:9">
@@ -33087,10 +33158,10 @@
         <v>2015</v>
       </c>
       <c r="H629" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I629" s="2" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="630" customHeight="1" spans="4:9">
@@ -33098,42 +33169,42 @@
         <v>2017</v>
       </c>
       <c r="H630" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I630" s="2" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="631" customHeight="1" spans="8:9">
       <c r="H631" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I631" s="2" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="632" customHeight="1" spans="8:9">
       <c r="H632" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I632" s="2" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="633" customHeight="1" spans="8:9">
       <c r="H633" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I633" s="2" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="634" customHeight="1" spans="8:9">
       <c r="H634" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I634" s="2" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="635" customHeight="1" spans="4:9">
@@ -33141,15 +33212,15 @@
         <v>2024</v>
       </c>
       <c r="H635" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I635" s="2" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="636" customHeight="1" spans="2:14">
       <c r="B636" s="2" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>93</v>
@@ -33158,7 +33229,7 @@
         <v>2023</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="F636" s="2" t="s">
         <v>41</v>
@@ -33167,13 +33238,13 @@
         <v>1052</v>
       </c>
       <c r="H636" s="2" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="I636" s="2" t="s">
         <v>1052</v>
       </c>
       <c r="J636" s="2" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="K636" s="2" t="s">
         <v>41</v>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$639</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$638</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7118" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7162" uniqueCount="1193">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -8870,24 +8870,30 @@
     <t>Bangkok</t>
   </si>
   <si>
+    <t>Journal of Virology</t>
+  </si>
+  <si>
     <t>Structure and age of genetic diversity of dengue virus type 2 in Thailand</t>
   </si>
   <si>
     <t>Microevolution of dengue viruses circulating among primary school children in Kamphaeng Phet, Thailand</t>
   </si>
   <si>
-    <t>Journal of Virology</t>
-  </si>
-  <si>
     <t>Comparative analysis of full-length genomic sequences of 10 dengue serotype 1 viruses associated with different genotypes, epidemics, and disease severity isolated in Thailand over 22 years</t>
   </si>
   <si>
+    <t>Co-existence of major and minor viral populations from two different origins in patients secondarily infected with dengue virus serotype 2 in Bangkok</t>
+  </si>
+  <si>
+    <t>Biochemical and Biophysical Research Communications</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Institut Pasteur</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>The Pennsylvania States University</t>
   </si>
   <si>
@@ -8897,6 +8903,12 @@
     <t>Retrospective screening of acute undifferentiated fever serum samples with universal flavivirus primers</t>
   </si>
   <si>
+    <t>Memórias do Instituto Oswaldo Cruz</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
     <t>Emergence of genotype cosmopolitan of dengue virus type 2 and genotype III of dengue virus type 3 in Thailand</t>
   </si>
   <si>
@@ -8921,6 +8933,9 @@
     <t>Precision tracing of household dengue spread using inter- and intra-host viral variation data, Kamphaeng Phet, Thailand</t>
   </si>
   <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
     <t>University of Cambridge</t>
   </si>
   <si>
@@ -8945,9 +8960,6 @@
     <t>Long-term transmission of defective RNA viruses in humans and Aedes mosquitoes</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>Characterization of the 2013 dengue epidemic in Myanmar with dengue virus 1 as the dominant serotype</t>
   </si>
   <si>
@@ -9240,12 +9252,6 @@
   </si>
   <si>
     <t>DENV-1 Genotype V in Brazil spatiotemporal dispersion pattern reveals continuous cocirculation of distinct lineages until 2016</t>
-  </si>
-  <si>
-    <t>Memórias do Instituto Oswaldo Cruz</t>
-  </si>
-  <si>
-    <t>Nature Communications</t>
   </si>
   <si>
     <t>Federal University of Goias</t>
@@ -10605,12 +10611,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH639"/>
+  <dimension ref="A1:AH638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N353" sqref="N353"/>
+      <selection pane="bottomLeft" activeCell="U371" sqref="U371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -28983,7 +28989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="353" customHeight="1" spans="2:15">
+    <row r="353" customHeight="1" spans="2:27">
       <c r="B353" s="2" t="s">
         <v>985</v>
       </c>
@@ -29026,8 +29032,20 @@
       <c r="O353" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="354" customHeight="1" spans="2:15">
+      <c r="X353" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y353" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z353" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA353" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="354" customHeight="1" spans="2:27">
       <c r="B354" s="2" t="s">
         <v>989</v>
       </c>
@@ -29069,6 +29087,42 @@
       </c>
       <c r="O354" s="2">
         <v>2013</v>
+      </c>
+      <c r="P354" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q354" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R354" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S354" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T354" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U354" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V354" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W354" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="X354" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y354" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z354" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA354" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="2:15">
@@ -29250,7 +29304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="359" customHeight="1" spans="2:13">
+    <row r="359" customHeight="1" spans="2:27">
       <c r="B359" s="2" t="s">
         <v>1002</v>
       </c>
@@ -29279,6 +29333,42 @@
         <v>42</v>
       </c>
       <c r="M359" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N359" s="2">
+        <v>2022</v>
+      </c>
+      <c r="O359" s="2">
+        <v>2022</v>
+      </c>
+      <c r="P359" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q359" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R359" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S359" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T359" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U359" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X359" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y359" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z359" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA359" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -29392,10 +29482,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" customHeight="1" spans="4:13">
+    <row r="364" customHeight="1" spans="3:13">
+      <c r="C364" s="2" t="s">
+        <v>1009</v>
+      </c>
       <c r="D364" s="3">
         <v>2005</v>
       </c>
+      <c r="E364" s="2" t="s">
+        <v>1007</v>
+      </c>
       <c r="F364" s="2" t="s">
         <v>42</v>
       </c>
@@ -29417,7 +29513,7 @@
     </row>
     <row r="365" customHeight="1" spans="2:13">
       <c r="B365" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>729</v>
@@ -29449,10 +29545,10 @@
     </row>
     <row r="366" customHeight="1" spans="2:13">
       <c r="B366" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D366" s="3">
         <v>2008</v>
@@ -29511,7 +29607,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="368" customHeight="1" spans="4:13">
+    <row r="368" customHeight="1" spans="2:27">
+      <c r="B368" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1014</v>
+      </c>
       <c r="D368" s="3">
         <v>2011</v>
       </c>
@@ -29533,19 +29635,34 @@
       <c r="M368" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="369" customHeight="1" spans="4:13">
+      <c r="X368" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y368" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z368" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA368" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="369" customHeight="1" spans="3:13">
+      <c r="C369" s="2" t="s">
+        <v>1009</v>
+      </c>
       <c r="D369" s="3">
         <v>2012</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>39</v>
@@ -29560,12 +29677,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="370" customHeight="1" spans="4:13">
+    <row r="370" customHeight="1" spans="3:13">
+      <c r="C370" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D370" s="3">
         <v>2012</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>42</v>
@@ -29586,7 +29706,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="371" customHeight="1" spans="4:13">
+    <row r="371" customHeight="1" spans="3:13">
+      <c r="C371" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D371" s="3">
         <v>2012</v>
       </c>
@@ -29617,13 +29740,13 @@
         <v>2013</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>39</v>
@@ -29638,7 +29761,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="373" customHeight="1" spans="4:13">
+    <row r="373" customHeight="1" spans="3:13">
+      <c r="C373" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="D373" s="3">
         <v>2013</v>
       </c>
@@ -29661,7 +29787,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="374" customHeight="1" spans="4:13">
+    <row r="374" customHeight="1" spans="3:13">
+      <c r="C374" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="D374" s="3">
         <v>2014</v>
       </c>
@@ -29686,7 +29815,7 @@
     </row>
     <row r="375" customHeight="1" spans="2:13">
       <c r="B375" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>79</v>
@@ -29716,7 +29845,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="376" customHeight="1" spans="4:13">
+    <row r="376" customHeight="1" spans="3:13">
+      <c r="C376" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="D376" s="3">
         <v>2017</v>
       </c>
@@ -29739,7 +29871,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="377" customHeight="1" spans="4:13">
+    <row r="377" customHeight="1" spans="3:13">
+      <c r="C377" s="2" t="s">
+        <v>1021</v>
+      </c>
       <c r="D377" s="3">
         <v>2017</v>
       </c>
@@ -29762,7 +29897,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="378" customHeight="1" spans="4:13">
+    <row r="378" customHeight="1" spans="3:13">
+      <c r="C378" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D378" s="3">
         <v>2017</v>
       </c>
@@ -29788,9 +29926,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" customHeight="1" spans="2:13">
+    <row r="379" customHeight="1" spans="2:27">
       <c r="B379" s="2" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>76</v>
@@ -29819,8 +29957,29 @@
       <c r="M379" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="380" customHeight="1" spans="4:13">
+      <c r="N379" s="2">
+        <v>2016</v>
+      </c>
+      <c r="O379" s="2">
+        <v>2017</v>
+      </c>
+      <c r="X379" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y379" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z379" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA379" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="380" customHeight="1" spans="3:13">
+      <c r="C380" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D380" s="3">
         <v>2019</v>
       </c>
@@ -29866,18 +30025,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="382" customHeight="1" spans="4:13">
+    <row r="382" customHeight="1" spans="3:13">
+      <c r="C382" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="D382" s="3">
         <v>2020</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="H382" s="2" t="s">
         <v>39</v>
@@ -29892,12 +30054,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="383" customHeight="1" spans="4:13">
+    <row r="383" customHeight="1" spans="3:13">
+      <c r="C383" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D383" s="3">
         <v>2020</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>42</v>
@@ -29918,18 +30083,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="384" customHeight="1" spans="4:13">
+    <row r="384" customHeight="1" spans="3:13">
+      <c r="C384" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="D384" s="3">
         <v>2020</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>39</v>
@@ -29946,7 +30114,7 @@
     </row>
     <row r="385" customHeight="1" spans="2:13">
       <c r="B385" s="2" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>767</v>
@@ -29976,12 +30144,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="386" customHeight="1" spans="4:13">
+    <row r="386" customHeight="1" spans="2:13">
+      <c r="B386" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D386" s="3">
         <v>2021</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>691</v>
+        <v>1007</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>42</v>
@@ -30002,24 +30176,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="387" customHeight="1" spans="2:13">
-      <c r="B387" s="2" t="s">
-        <v>1025</v>
-      </c>
+    <row r="387" customHeight="1" spans="3:13">
       <c r="C387" s="2" t="s">
-        <v>93</v>
+        <v>1030</v>
       </c>
       <c r="D387" s="3">
         <v>2021</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>693</v>
+        <v>978</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>39</v>
@@ -30034,18 +30205,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" customHeight="1" spans="4:13">
+    <row r="388" customHeight="1" spans="3:13">
+      <c r="C388" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="D388" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="H388" s="2" t="s">
         <v>39</v>
@@ -30060,21 +30234,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="389" customHeight="1" spans="3:13">
+    <row r="389" customHeight="1" spans="2:13">
+      <c r="B389" s="2" t="s">
+        <v>1033</v>
+      </c>
       <c r="C389" s="2" t="s">
-        <v>976</v>
+        <v>1034</v>
       </c>
       <c r="D389" s="3">
         <v>2022</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1016</v>
+        <v>693</v>
       </c>
       <c r="H389" s="2" t="s">
         <v>39</v>
@@ -30089,62 +30266,77 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" customHeight="1" spans="2:13">
+    <row r="390" customHeight="1" spans="2:17">
       <c r="B390" s="2" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1029</v>
+        <v>93</v>
       </c>
       <c r="D390" s="3">
-        <v>2022</v>
+        <v>2004</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>693</v>
+        <v>1024</v>
       </c>
       <c r="H390" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>693</v>
+        <v>1037</v>
+      </c>
+      <c r="J390" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K390" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L390" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M390" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="391" customHeight="1" spans="2:17">
+      <c r="N390" s="2">
+        <v>2001</v>
+      </c>
+      <c r="O390" s="2">
+        <v>2001</v>
+      </c>
+      <c r="Q390" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="391" customHeight="1" spans="2:15">
       <c r="B391" s="2" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>93</v>
+        <v>1021</v>
       </c>
       <c r="D391" s="3">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="H391" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>42</v>
@@ -30164,34 +30356,31 @@
       <c r="O391" s="2">
         <v>2001</v>
       </c>
-      <c r="Q391" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="392" customHeight="1" spans="2:15">
       <c r="B392" s="2" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1034</v>
+        <v>259</v>
       </c>
       <c r="D392" s="3">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>1020</v>
+        <v>988</v>
       </c>
       <c r="H392" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>42</v>
@@ -30206,21 +30395,21 @@
         <v>42</v>
       </c>
       <c r="N392" s="2">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="O392" s="2">
-        <v>2001</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="2:15">
       <c r="B393" s="2" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D393" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>987</v>
@@ -30235,7 +30424,7 @@
         <v>39</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="J393" s="2" t="s">
         <v>42</v>
@@ -30250,21 +30439,15 @@
         <v>42</v>
       </c>
       <c r="N393" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="O393" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="394" customHeight="1" spans="2:15">
-      <c r="B394" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>257</v>
-      </c>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="394" customHeight="1" spans="4:13">
       <c r="D394" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>987</v>
@@ -30279,30 +30462,18 @@
         <v>39</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J394" s="2" t="s">
-        <v>42</v>
+        <v>1037</v>
       </c>
       <c r="K394" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L394" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M394" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N394" s="2">
-        <v>2015</v>
-      </c>
-      <c r="O394" s="2">
-        <v>2015</v>
       </c>
     </row>
     <row r="395" customHeight="1" spans="4:13">
       <c r="D395" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>987</v>
@@ -30317,7 +30488,7 @@
         <v>39</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="K395" s="2" t="s">
         <v>42</v>
@@ -30343,7 +30514,7 @@
         <v>39</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="K396" s="2" t="s">
         <v>42</v>
@@ -30354,7 +30525,7 @@
     </row>
     <row r="397" customHeight="1" spans="4:13">
       <c r="D397" s="3">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>987</v>
@@ -30369,7 +30540,7 @@
         <v>39</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="K397" s="2" t="s">
         <v>42</v>
@@ -30383,19 +30554,19 @@
         <v>2023</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>987</v>
+        <v>691</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>988</v>
+        <v>693</v>
       </c>
       <c r="H398" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="K398" s="2" t="s">
         <v>42</v>
@@ -30404,24 +30575,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="399" customHeight="1" spans="4:13">
+    <row r="399" customHeight="1" spans="2:13">
+      <c r="B399" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D399" s="3">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>691</v>
+        <v>1042</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>693</v>
+        <v>1043</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>42</v>
@@ -30430,9 +30607,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="400" customHeight="1" spans="2:13">
+    <row r="400" customHeight="1" spans="2:24">
       <c r="B400" s="2" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>259</v>
@@ -30441,19 +30618,19 @@
         <v>2013</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="H400" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="K400" s="2" t="s">
         <v>42</v>
@@ -30461,31 +30638,34 @@
       <c r="M400" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="401" customHeight="1" spans="2:24">
+      <c r="X400" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="401" customHeight="1" spans="2:13">
       <c r="B401" s="2" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="D401" s="3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="K401" s="2" t="s">
         <v>42</v>
@@ -30493,34 +30673,16 @@
       <c r="M401" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X401" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="402" customHeight="1" spans="2:13">
-      <c r="B402" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>93</v>
-      </c>
+    </row>
+    <row r="402" customHeight="1" spans="4:13">
       <c r="D402" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E402" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>1039</v>
+        <v>2014</v>
       </c>
       <c r="H402" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="K402" s="2" t="s">
         <v>42</v>
@@ -30531,13 +30693,13 @@
     </row>
     <row r="403" customHeight="1" spans="4:13">
       <c r="D403" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H403" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="K403" s="2" t="s">
         <v>42</v>
@@ -30548,13 +30710,13 @@
     </row>
     <row r="404" customHeight="1" spans="4:13">
       <c r="D404" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="H404" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="K404" s="2" t="s">
         <v>42</v>
@@ -30565,13 +30727,13 @@
     </row>
     <row r="405" customHeight="1" spans="4:13">
       <c r="D405" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H405" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="K405" s="2" t="s">
         <v>42</v>
@@ -30588,7 +30750,7 @@
         <v>39</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="K406" s="2" t="s">
         <v>42</v>
@@ -30599,13 +30761,13 @@
     </row>
     <row r="407" customHeight="1" spans="4:13">
       <c r="D407" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H407" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="K407" s="2" t="s">
         <v>42</v>
@@ -30616,13 +30778,13 @@
     </row>
     <row r="408" customHeight="1" spans="4:13">
       <c r="D408" s="3">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H408" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="K408" s="2" t="s">
         <v>42</v>
@@ -30633,13 +30795,13 @@
     </row>
     <row r="409" customHeight="1" spans="4:13">
       <c r="D409" s="3">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="H409" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>1042</v>
+        <v>988</v>
       </c>
       <c r="K409" s="2" t="s">
         <v>42</v>
@@ -30650,7 +30812,16 @@
     </row>
     <row r="410" customHeight="1" spans="4:13">
       <c r="D410" s="3">
-        <v>2007</v>
+        <v>2020</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>988</v>
       </c>
       <c r="H410" s="2" t="s">
         <v>39</v>
@@ -30665,24 +30836,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="411" customHeight="1" spans="4:13">
-      <c r="D411" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E411" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="F411" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>988</v>
-      </c>
+    <row r="411" customHeight="1" spans="8:13">
       <c r="H411" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>988</v>
+        <v>1047</v>
       </c>
       <c r="K411" s="2" t="s">
         <v>42</v>
@@ -30691,12 +30850,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" customHeight="1" spans="8:13">
+    <row r="412" customHeight="1" spans="4:13">
+      <c r="D412" s="3">
+        <v>1965</v>
+      </c>
       <c r="H412" s="2" t="s">
-        <v>39</v>
+        <v>1048</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="K412" s="2" t="s">
         <v>42</v>
@@ -30707,13 +30869,13 @@
     </row>
     <row r="413" customHeight="1" spans="4:13">
       <c r="D413" s="3">
-        <v>1965</v>
+        <v>2001</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K413" s="2" t="s">
         <v>42</v>
@@ -30724,13 +30886,13 @@
     </row>
     <row r="414" customHeight="1" spans="4:13">
       <c r="D414" s="3">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K414" s="2" t="s">
         <v>42</v>
@@ -30741,13 +30903,13 @@
     </row>
     <row r="415" customHeight="1" spans="4:13">
       <c r="D415" s="3">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K415" s="2" t="s">
         <v>42</v>
@@ -30756,15 +30918,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="416" customHeight="1" spans="4:13">
+    <row r="416" customHeight="1" spans="2:13">
+      <c r="B416" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D416" s="3">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1027</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K416" s="2" t="s">
         <v>42</v>
@@ -30773,30 +30950,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="417" customHeight="1" spans="2:13">
-      <c r="B417" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>93</v>
-      </c>
+    <row r="417" customHeight="1" spans="4:13">
       <c r="D417" s="3">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K417" s="2" t="s">
         <v>42</v>
@@ -30807,22 +30978,22 @@
     </row>
     <row r="418" customHeight="1" spans="4:13">
       <c r="D418" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K418" s="2" t="s">
         <v>42</v>
@@ -30835,20 +31006,11 @@
       <c r="D419" s="3">
         <v>2013</v>
       </c>
-      <c r="E419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F419" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>1023</v>
-      </c>
       <c r="H419" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>42</v>
@@ -30859,13 +31021,13 @@
     </row>
     <row r="420" customHeight="1" spans="4:13">
       <c r="D420" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K420" s="2" t="s">
         <v>42</v>
@@ -30876,13 +31038,22 @@
     </row>
     <row r="421" customHeight="1" spans="4:13">
       <c r="D421" s="3">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>1027</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K421" s="2" t="s">
         <v>42</v>
@@ -30896,19 +31067,19 @@
         <v>2015</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K422" s="2" t="s">
         <v>42</v>
@@ -30917,24 +31088,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="423" customHeight="1" spans="4:13">
+    <row r="423" customHeight="1" spans="3:13">
+      <c r="C423" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D423" s="3">
         <v>2015</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K423" s="2" t="s">
         <v>42</v>
@@ -30943,27 +31117,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="424" customHeight="1" spans="3:13">
-      <c r="C424" s="2" t="s">
-        <v>54</v>
-      </c>
+    <row r="424" customHeight="1" spans="4:13">
       <c r="D424" s="3">
         <v>2015</v>
       </c>
-      <c r="E424" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F424" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>1023</v>
-      </c>
       <c r="H424" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>42</v>
@@ -30977,10 +31139,10 @@
         <v>2015</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K425" s="2" t="s">
         <v>42</v>
@@ -30994,10 +31156,10 @@
         <v>2015</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K426" s="2" t="s">
         <v>42</v>
@@ -31011,10 +31173,10 @@
         <v>2015</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K427" s="2" t="s">
         <v>42</v>
@@ -31025,13 +31187,22 @@
     </row>
     <row r="428" customHeight="1" spans="4:13">
       <c r="D428" s="3">
-        <v>2015</v>
+        <v>2016</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>1027</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K428" s="2" t="s">
         <v>42</v>
@@ -31040,24 +31211,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="429" customHeight="1" spans="4:13">
+    <row r="429" customHeight="1" spans="2:17">
+      <c r="B429" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="D429" s="3">
         <v>2016</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K429" s="2" t="s">
         <v>42</v>
@@ -31065,57 +31242,51 @@
       <c r="M429" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="430" customHeight="1" spans="2:17">
-      <c r="B430" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="N429" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O429" s="2">
+        <v>2014</v>
+      </c>
+      <c r="Q429" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="430" customHeight="1" spans="4:13">
       <c r="D430" s="3">
         <v>2016</v>
       </c>
-      <c r="E430" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G430" s="2" t="s">
-        <v>1023</v>
-      </c>
       <c r="H430" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M430" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N430" s="2">
-        <v>2013</v>
-      </c>
-      <c r="O430" s="2">
-        <v>2014</v>
-      </c>
-      <c r="Q430" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="431" customHeight="1" spans="4:13">
       <c r="D431" s="3">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>1027</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>42</v>
@@ -31126,22 +31297,22 @@
     </row>
     <row r="432" customHeight="1" spans="4:13">
       <c r="D432" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E432" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H432" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="F432" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G432" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H432" s="2" t="s">
-        <v>1044</v>
-      </c>
       <c r="I432" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>42</v>
@@ -31152,22 +31323,22 @@
     </row>
     <row r="433" customHeight="1" spans="4:13">
       <c r="D433" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>42</v>
@@ -31176,24 +31347,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="434" customHeight="1" spans="4:13">
+    <row r="434" customHeight="1" spans="2:13">
+      <c r="B434" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D434" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>42</v>
@@ -31202,93 +31379,93 @@
         <v>42</v>
       </c>
     </row>
-    <row r="435" customHeight="1" spans="2:13">
-      <c r="B435" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C435" s="2" t="s">
+    <row r="435" customHeight="1" spans="4:13">
+      <c r="D435" s="3">
+        <v>2008</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K435" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M435" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="436" customHeight="1" spans="3:13">
+      <c r="C436" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M436" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="437" customHeight="1" spans="4:13">
+      <c r="D437" s="3">
+        <v>2012</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K437" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M437" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="438" customHeight="1" spans="2:13">
+      <c r="B438" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D435" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E435" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F435" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H435" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I435" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K435" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M435" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="436" customHeight="1" spans="4:13">
-      <c r="D436" s="3">
-        <v>2008</v>
-      </c>
-      <c r="H436" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I436" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K436" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M436" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="437" customHeight="1" spans="3:13">
-      <c r="C437" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D437" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F437" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H437" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K437" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M437" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="438" customHeight="1" spans="4:13">
       <c r="D438" s="3">
-        <v>2012</v>
+        <v>2013</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K438" s="2" t="s">
         <v>42</v>
@@ -31297,30 +31474,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="439" customHeight="1" spans="2:13">
-      <c r="B439" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="439" customHeight="1" spans="4:13">
       <c r="D439" s="3">
         <v>2013</v>
       </c>
-      <c r="E439" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G439" s="2" t="s">
-        <v>1050</v>
-      </c>
       <c r="H439" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K439" s="2" t="s">
         <v>42</v>
@@ -31333,11 +31495,20 @@
       <c r="D440" s="3">
         <v>2013</v>
       </c>
+      <c r="E440" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="H440" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K440" s="2" t="s">
         <v>42</v>
@@ -31348,22 +31519,22 @@
     </row>
     <row r="441" customHeight="1" spans="4:13">
       <c r="D441" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K441" s="2" t="s">
         <v>42</v>
@@ -31377,19 +31548,19 @@
         <v>2014</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K442" s="2" t="s">
         <v>42</v>
@@ -31398,24 +31569,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="443" customHeight="1" spans="4:13">
+    <row r="443" customHeight="1" spans="2:17">
+      <c r="B443" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D443" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1050</v>
+        <v>1024</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K443" s="2" t="s">
         <v>42</v>
@@ -31423,57 +31600,51 @@
       <c r="M443" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="444" customHeight="1" spans="2:17">
-      <c r="B444" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="N443" s="2">
+        <v>2010</v>
+      </c>
+      <c r="O443" s="2">
+        <v>2012</v>
+      </c>
+      <c r="Q443" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="444" customHeight="1" spans="4:13">
       <c r="D444" s="3">
         <v>2015</v>
       </c>
-      <c r="E444" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F444" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G444" s="2" t="s">
-        <v>1020</v>
-      </c>
       <c r="H444" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K444" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M444" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N444" s="2">
-        <v>2010</v>
-      </c>
-      <c r="O444" s="2">
-        <v>2012</v>
-      </c>
-      <c r="Q444" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="445" customHeight="1" spans="4:13">
       <c r="D445" s="3">
-        <v>2015</v>
+        <v>2016</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K445" s="2" t="s">
         <v>42</v>
@@ -31482,24 +31653,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="446" customHeight="1" spans="4:13">
+    <row r="446" customHeight="1" spans="2:13">
+      <c r="B446" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D446" s="3">
         <v>2016</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K446" s="2" t="s">
         <v>42</v>
@@ -31508,30 +31685,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="447" customHeight="1" spans="2:13">
-      <c r="B447" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>259</v>
-      </c>
+    <row r="447" customHeight="1" spans="4:13">
       <c r="D447" s="3">
         <v>2016</v>
       </c>
-      <c r="E447" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>1050</v>
-      </c>
       <c r="H447" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K447" s="2" t="s">
         <v>42</v>
@@ -31545,10 +31707,10 @@
         <v>2016</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K448" s="2" t="s">
         <v>42</v>
@@ -31557,15 +31719,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="449" customHeight="1" spans="4:13">
+    <row r="449" customHeight="1" spans="3:13">
+      <c r="C449" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D449" s="3">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K449" s="2" t="s">
         <v>42</v>
@@ -31574,27 +31748,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="450" customHeight="1" spans="3:13">
-      <c r="C450" s="2" t="s">
-        <v>76</v>
-      </c>
+    <row r="450" customHeight="1" spans="4:13">
       <c r="D450" s="3">
         <v>2017</v>
       </c>
-      <c r="E450" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F450" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G450" s="2" t="s">
-        <v>1050</v>
-      </c>
       <c r="H450" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>42</v>
@@ -31605,13 +31767,13 @@
     </row>
     <row r="451" customHeight="1" spans="4:13">
       <c r="D451" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>42</v>
@@ -31625,10 +31787,10 @@
         <v>2018</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>42</v>
@@ -31641,11 +31803,20 @@
       <c r="D453" s="3">
         <v>2018</v>
       </c>
+      <c r="E453" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="H453" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>42</v>
@@ -31656,22 +31827,13 @@
     </row>
     <row r="454" customHeight="1" spans="4:13">
       <c r="D454" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E454" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>1050</v>
+        <v>2019</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>42</v>
@@ -31685,10 +31847,10 @@
         <v>2019</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>42</v>
@@ -31702,10 +31864,10 @@
         <v>2019</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>42</v>
@@ -31716,13 +31878,22 @@
     </row>
     <row r="457" customHeight="1" spans="4:13">
       <c r="D457" s="3">
-        <v>2019</v>
+        <v>2020</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>42</v>
@@ -31731,24 +31902,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="458" customHeight="1" spans="4:13">
+    <row r="458" customHeight="1" spans="2:13">
+      <c r="B458" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="D458" s="3">
         <v>2020</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>42</v>
@@ -31757,30 +31934,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="459" customHeight="1" spans="2:13">
-      <c r="B459" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>314</v>
-      </c>
+    <row r="459" customHeight="1" spans="4:13">
       <c r="D459" s="3">
         <v>2020</v>
       </c>
-      <c r="E459" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F459" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G459" s="2" t="s">
-        <v>1050</v>
-      </c>
       <c r="H459" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>42</v>
@@ -31789,15 +31951,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="460" customHeight="1" spans="4:13">
+    <row r="460" customHeight="1" spans="2:13">
+      <c r="B460" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D460" s="3">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>42</v>
@@ -31808,28 +31985,28 @@
     </row>
     <row r="461" customHeight="1" spans="2:13">
       <c r="B461" s="2" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="D461" s="3">
         <v>2021</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>42</v>
@@ -31838,30 +32015,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" customHeight="1" spans="2:13">
-      <c r="B462" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="462" customHeight="1" spans="4:13">
       <c r="D462" s="3">
         <v>2021</v>
       </c>
-      <c r="E462" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F462" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G462" s="2" t="s">
-        <v>1050</v>
-      </c>
       <c r="H462" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>42</v>
@@ -31870,15 +32032,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="463" customHeight="1" spans="4:13">
+    <row r="463" customHeight="1" spans="3:13">
+      <c r="C463" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="D463" s="3">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K463" s="2" t="s">
         <v>42</v>
@@ -31889,25 +32063,25 @@
     </row>
     <row r="464" customHeight="1" spans="3:13">
       <c r="C464" s="2" t="s">
-        <v>595</v>
+        <v>105</v>
       </c>
       <c r="D464" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="K464" s="2" t="s">
         <v>42</v>
@@ -31916,27 +32090,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="465" customHeight="1" spans="3:13">
+    <row r="465" customHeight="1" spans="2:13">
+      <c r="B465" s="2" t="s">
+        <v>1066</v>
+      </c>
       <c r="C465" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D465" s="3">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>42</v>
@@ -31945,30 +32122,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" customHeight="1" spans="2:13">
-      <c r="B466" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D466" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E466" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F466" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G466" s="2" t="s">
-        <v>1064</v>
-      </c>
+    <row r="466" customHeight="1" spans="8:13">
       <c r="H466" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>1064</v>
+        <v>1024</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>42</v>
@@ -31979,10 +32138,10 @@
     </row>
     <row r="467" customHeight="1" spans="8:13">
       <c r="H467" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="K467" s="2" t="s">
         <v>42</v>
@@ -31993,10 +32152,10 @@
     </row>
     <row r="468" customHeight="1" spans="8:13">
       <c r="H468" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="K468" s="2" t="s">
         <v>42</v>
@@ -32005,12 +32164,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="469" customHeight="1" spans="8:13">
+    <row r="469" customHeight="1" spans="4:13">
+      <c r="D469" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H469" s="2" t="s">
-        <v>1044</v>
+        <v>1073</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="K469" s="2" t="s">
         <v>42</v>
@@ -32021,22 +32192,22 @@
     </row>
     <row r="470" customHeight="1" spans="4:13">
       <c r="D470" s="3">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H470" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K470" s="2" t="s">
         <v>42</v>
@@ -32049,20 +32220,11 @@
       <c r="D471" s="3">
         <v>2006</v>
       </c>
-      <c r="E471" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F471" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G471" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H471" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I471" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K471" s="2" t="s">
         <v>42</v>
@@ -32073,13 +32235,13 @@
     </row>
     <row r="472" customHeight="1" spans="4:13">
       <c r="D472" s="3">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="H472" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I472" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K472" s="2" t="s">
         <v>42</v>
@@ -32090,13 +32252,13 @@
     </row>
     <row r="473" customHeight="1" spans="4:13">
       <c r="D473" s="3">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K473" s="2" t="s">
         <v>42</v>
@@ -32109,11 +32271,20 @@
       <c r="D474" s="3">
         <v>2010</v>
       </c>
+      <c r="E474" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H474" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I474" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K474" s="2" t="s">
         <v>42</v>
@@ -32126,20 +32297,11 @@
       <c r="D475" s="3">
         <v>2010</v>
       </c>
-      <c r="E475" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G475" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H475" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K475" s="2" t="s">
         <v>42</v>
@@ -32150,13 +32312,22 @@
     </row>
     <row r="476" customHeight="1" spans="4:13">
       <c r="D476" s="3">
-        <v>2010</v>
+        <v>2011</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G476" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="H476" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I476" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K476" s="2" t="s">
         <v>42</v>
@@ -32165,24 +32336,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="477" customHeight="1" spans="4:13">
+    <row r="477" customHeight="1" spans="2:13">
+      <c r="B477" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D477" s="3">
         <v>2011</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H477" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I477" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K477" s="2" t="s">
         <v>42</v>
@@ -32191,30 +32368,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" customHeight="1" spans="2:13">
-      <c r="B478" s="2" t="s">
-        <v>1071</v>
-      </c>
+    <row r="478" customHeight="1" spans="3:13">
       <c r="C478" s="2" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="D478" s="3">
         <v>2011</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H478" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I478" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K478" s="2" t="s">
         <v>42</v>
@@ -32225,25 +32399,25 @@
     </row>
     <row r="479" customHeight="1" spans="3:13">
       <c r="C479" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D479" s="3">
         <v>2011</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H479" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I479" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K479" s="2" t="s">
         <v>42</v>
@@ -32252,27 +32426,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="480" customHeight="1" spans="3:13">
-      <c r="C480" s="2" t="s">
-        <v>257</v>
-      </c>
+    <row r="480" customHeight="1" spans="4:13">
       <c r="D480" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E480" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I480" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="F480" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G480" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H480" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I480" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="K480" s="2" t="s">
         <v>42</v>
@@ -32286,10 +32448,10 @@
         <v>2012</v>
       </c>
       <c r="H481" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I481" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K481" s="2" t="s">
         <v>42</v>
@@ -32298,15 +32460,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" customHeight="1" spans="4:13">
+    <row r="482" customHeight="1" spans="3:13">
+      <c r="C482" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D482" s="3">
         <v>2012</v>
       </c>
+      <c r="E482" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G482" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H482" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I482" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K482" s="2" t="s">
         <v>42</v>
@@ -32315,27 +32489,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="483" customHeight="1" spans="3:13">
-      <c r="C483" s="2" t="s">
-        <v>259</v>
-      </c>
+    <row r="483" customHeight="1" spans="4:13">
       <c r="D483" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H483" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I483" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K483" s="2" t="s">
         <v>42</v>
@@ -32344,24 +32515,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="484" customHeight="1" spans="4:13">
+    <row r="484" customHeight="1" spans="2:13">
+      <c r="B484" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D484" s="3">
         <v>2013</v>
       </c>
       <c r="E484" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H484" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F484" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G484" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H484" s="2" t="s">
-        <v>1069</v>
-      </c>
       <c r="I484" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K484" s="2" t="s">
         <v>42</v>
@@ -32370,30 +32547,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="485" customHeight="1" spans="2:13">
-      <c r="B485" s="2" t="s">
-        <v>1074</v>
-      </c>
+    <row r="485" customHeight="1" spans="3:13">
       <c r="C485" s="2" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="D485" s="3">
         <v>2013</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H485" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I485" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K485" s="2" t="s">
         <v>42</v>
@@ -32407,22 +32581,22 @@
         <v>259</v>
       </c>
       <c r="D486" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H486" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I486" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K486" s="2" t="s">
         <v>42</v>
@@ -32431,27 +32605,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="487" customHeight="1" spans="3:13">
-      <c r="C487" s="2" t="s">
-        <v>259</v>
-      </c>
+    <row r="487" customHeight="1" spans="4:13">
       <c r="D487" s="3">
         <v>2014</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H487" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K487" s="2" t="s">
         <v>42</v>
@@ -32465,19 +32636,19 @@
         <v>2014</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H488" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I488" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K488" s="2" t="s">
         <v>42</v>
@@ -32486,24 +32657,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="489" customHeight="1" spans="4:13">
+    <row r="489" customHeight="1" spans="3:13">
+      <c r="C489" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D489" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H489" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K489" s="2" t="s">
         <v>42</v>
@@ -32512,27 +32686,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="490" customHeight="1" spans="3:13">
-      <c r="C490" s="2" t="s">
-        <v>283</v>
-      </c>
+    <row r="490" customHeight="1" spans="4:13">
       <c r="D490" s="3">
         <v>2015</v>
       </c>
-      <c r="E490" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F490" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G490" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H490" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I490" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K490" s="2" t="s">
         <v>42</v>
@@ -32541,15 +32703,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="491" customHeight="1" spans="4:13">
+    <row r="491" customHeight="1" spans="3:13">
+      <c r="C491" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D491" s="3">
         <v>2015</v>
       </c>
       <c r="H491" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I491" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K491" s="2" t="s">
         <v>42</v>
@@ -32560,16 +32725,25 @@
     </row>
     <row r="492" customHeight="1" spans="3:13">
       <c r="C492" s="2" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D492" s="3">
         <v>2015</v>
       </c>
+      <c r="E492" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H492" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I492" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K492" s="2" t="s">
         <v>42</v>
@@ -32580,25 +32754,25 @@
     </row>
     <row r="493" customHeight="1" spans="3:13">
       <c r="C493" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D493" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H493" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K493" s="2" t="s">
         <v>42</v>
@@ -32607,27 +32781,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="494" customHeight="1" spans="3:13">
-      <c r="C494" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="494" customHeight="1" spans="4:13">
       <c r="D494" s="3">
         <v>2016</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H494" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K494" s="2" t="s">
         <v>42</v>
@@ -32638,22 +32809,22 @@
     </row>
     <row r="495" customHeight="1" spans="4:13">
       <c r="D495" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H495" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I495" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K495" s="2" t="s">
         <v>42</v>
@@ -32667,19 +32838,19 @@
         <v>2017</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H496" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I496" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K496" s="2" t="s">
         <v>42</v>
@@ -32688,24 +32859,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="497" customHeight="1" spans="4:13">
+    <row r="497" customHeight="1" spans="3:13">
+      <c r="C497" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D497" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H497" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I497" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K497" s="2" t="s">
         <v>42</v>
@@ -32714,7 +32888,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="498" customHeight="1" spans="3:13">
+    <row r="498" customHeight="1" spans="2:13">
+      <c r="B498" s="2" t="s">
+        <v>1083</v>
+      </c>
       <c r="C498" s="2" t="s">
         <v>105</v>
       </c>
@@ -32722,19 +32899,19 @@
         <v>2018</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H498" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I498" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K498" s="2" t="s">
         <v>42</v>
@@ -32743,30 +32920,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="499" customHeight="1" spans="2:13">
-      <c r="B499" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="499" customHeight="1" spans="4:13">
       <c r="D499" s="3">
         <v>2018</v>
       </c>
-      <c r="E499" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F499" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G499" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H499" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I499" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K499" s="2" t="s">
         <v>42</v>
@@ -32777,13 +32939,13 @@
     </row>
     <row r="500" customHeight="1" spans="4:13">
       <c r="D500" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H500" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I500" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K500" s="2" t="s">
         <v>42</v>
@@ -32797,10 +32959,10 @@
         <v>2019</v>
       </c>
       <c r="H501" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I501" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K501" s="2" t="s">
         <v>42</v>
@@ -32814,10 +32976,10 @@
         <v>2019</v>
       </c>
       <c r="H502" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I502" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K502" s="2" t="s">
         <v>42</v>
@@ -32831,10 +32993,10 @@
         <v>2019</v>
       </c>
       <c r="H503" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I503" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K503" s="2" t="s">
         <v>42</v>
@@ -32848,10 +33010,10 @@
         <v>2019</v>
       </c>
       <c r="H504" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I504" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K504" s="2" t="s">
         <v>42</v>
@@ -32862,13 +33024,13 @@
     </row>
     <row r="505" customHeight="1" spans="4:13">
       <c r="D505" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H505" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I505" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K505" s="2" t="s">
         <v>42</v>
@@ -32881,11 +33043,20 @@
       <c r="D506" s="3">
         <v>2020</v>
       </c>
+      <c r="E506" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H506" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I506" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K506" s="2" t="s">
         <v>42</v>
@@ -32898,20 +33069,11 @@
       <c r="D507" s="3">
         <v>2020</v>
       </c>
-      <c r="E507" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H507" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I507" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K507" s="2" t="s">
         <v>42</v>
@@ -32925,10 +33087,10 @@
         <v>2020</v>
       </c>
       <c r="H508" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I508" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K508" s="2" t="s">
         <v>42</v>
@@ -32942,10 +33104,10 @@
         <v>2020</v>
       </c>
       <c r="H509" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I509" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K509" s="2" t="s">
         <v>42</v>
@@ -32959,10 +33121,10 @@
         <v>2020</v>
       </c>
       <c r="H510" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I510" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K510" s="2" t="s">
         <v>42</v>
@@ -32973,13 +33135,13 @@
     </row>
     <row r="511" customHeight="1" spans="4:13">
       <c r="D511" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H511" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I511" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K511" s="2" t="s">
         <v>42</v>
@@ -32992,11 +33154,20 @@
       <c r="D512" s="3">
         <v>2021</v>
       </c>
+      <c r="E512" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H512" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K512" s="2" t="s">
         <v>42</v>
@@ -33005,24 +33176,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="513" customHeight="1" spans="4:13">
+    <row r="513" customHeight="1" spans="3:13">
+      <c r="C513" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D513" s="3">
         <v>2021</v>
       </c>
-      <c r="E513" s="2" t="s">
+      <c r="H513" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F513" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G513" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H513" s="2" t="s">
-        <v>1069</v>
-      </c>
       <c r="I513" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K513" s="2" t="s">
         <v>42</v>
@@ -33031,18 +33196,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="514" customHeight="1" spans="3:13">
+    <row r="514" customHeight="1" spans="2:13">
+      <c r="B514" s="2" t="s">
+        <v>1084</v>
+      </c>
       <c r="C514" s="2" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="D514" s="3">
         <v>2021</v>
       </c>
+      <c r="E514" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H514" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I514" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K514" s="2" t="s">
         <v>42</v>
@@ -33051,30 +33228,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="515" customHeight="1" spans="2:13">
-      <c r="B515" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="515" customHeight="1" spans="4:13">
       <c r="D515" s="3">
         <v>2021</v>
       </c>
-      <c r="E515" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G515" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H515" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I515" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K515" s="2" t="s">
         <v>42</v>
@@ -33083,15 +33245,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="516" customHeight="1" spans="4:13">
+    <row r="516" customHeight="1" spans="2:13">
+      <c r="B516" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D516" s="3">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="H516" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K516" s="2" t="s">
         <v>42</v>
@@ -33100,30 +33277,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="517" customHeight="1" spans="2:13">
-      <c r="B517" s="2" t="s">
-        <v>1081</v>
-      </c>
+    <row r="517" customHeight="1" spans="3:13">
       <c r="C517" s="2" t="s">
-        <v>293</v>
+        <v>1087</v>
       </c>
       <c r="D517" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H517" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K517" s="2" t="s">
         <v>42</v>
@@ -33134,25 +33308,16 @@
     </row>
     <row r="518" customHeight="1" spans="3:13">
       <c r="C518" s="2" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="D518" s="3">
         <v>2023</v>
       </c>
-      <c r="E518" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F518" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G518" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H518" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K518" s="2" t="s">
         <v>42</v>
@@ -33161,18 +33326,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="519" customHeight="1" spans="3:13">
+    <row r="519" customHeight="1" spans="2:27">
+      <c r="B519" s="2" t="s">
+        <v>1089</v>
+      </c>
       <c r="C519" s="2" t="s">
-        <v>1084</v>
+        <v>976</v>
       </c>
       <c r="D519" s="3">
         <v>2023</v>
       </c>
+      <c r="E519" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="H519" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
+      </c>
+      <c r="J519" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K519" s="2" t="s">
         <v>42</v>
@@ -33180,78 +33360,63 @@
       <c r="M519" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="520" customHeight="1" spans="2:27">
-      <c r="B520" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>976</v>
-      </c>
+      <c r="Q519" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R519" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S519" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T519" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U519" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X519" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y519" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z519" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA519" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="520" customHeight="1" spans="4:13">
       <c r="D520" s="3">
         <v>2023</v>
       </c>
-      <c r="E520" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F520" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G520" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="H520" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I520" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J520" s="2" t="s">
-        <v>40</v>
+        <v>1072</v>
       </c>
       <c r="K520" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M520" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="Q520" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R520" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S520" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T520" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U520" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X520" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y520" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z520" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA520" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="521" customHeight="1" spans="4:13">
       <c r="D521" s="3">
-        <v>2023</v>
+        <v>2014</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="H521" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>1068</v>
+        <v>1092</v>
       </c>
       <c r="K521" s="2" t="s">
         <v>42</v>
@@ -33260,18 +33425,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="522" customHeight="1" spans="4:13">
+    <row r="522" customHeight="1" spans="2:13">
+      <c r="B522" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D522" s="3">
-        <v>2014</v>
+        <v>2020</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H522" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I522" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="K522" s="2" t="s">
         <v>42</v>
@@ -33280,30 +33457,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="523" customHeight="1" spans="2:13">
-      <c r="B523" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>93</v>
-      </c>
+    <row r="523" customHeight="1" spans="4:13">
       <c r="D523" s="3">
         <v>2020</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1090</v>
+        <v>987</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>1087</v>
+        <v>988</v>
       </c>
       <c r="H523" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I523" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="K523" s="2" t="s">
         <v>42</v>
@@ -33314,22 +33485,13 @@
     </row>
     <row r="524" customHeight="1" spans="4:13">
       <c r="D524" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E524" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="F524" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G524" s="2" t="s">
-        <v>988</v>
+        <v>2021</v>
       </c>
       <c r="H524" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I524" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="K524" s="2" t="s">
         <v>42</v>
@@ -33343,10 +33505,10 @@
         <v>2021</v>
       </c>
       <c r="H525" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I525" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="K525" s="2" t="s">
         <v>42</v>
@@ -33359,11 +33521,20 @@
       <c r="D526" s="3">
         <v>2021</v>
       </c>
+      <c r="E526" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>988</v>
+      </c>
       <c r="H526" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="K526" s="2" t="s">
         <v>42</v>
@@ -33377,19 +33548,16 @@
         <v>2021</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>987</v>
+        <v>1095</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G527" s="2" t="s">
-        <v>988</v>
-      </c>
       <c r="H527" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="K527" s="2" t="s">
         <v>42</v>
@@ -33398,21 +33566,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="528" customHeight="1" spans="4:13">
-      <c r="D528" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E528" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F528" s="2" t="s">
-        <v>42</v>
+    <row r="528" customHeight="1" spans="7:13">
+      <c r="G528" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="H528" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I528" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="K528" s="2" t="s">
         <v>42</v>
@@ -33423,13 +33585,13 @@
     </row>
     <row r="529" customHeight="1" spans="7:13">
       <c r="G529" s="2" t="s">
-        <v>693</v>
+        <v>1097</v>
       </c>
       <c r="H529" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I529" s="2" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="K529" s="2" t="s">
         <v>42</v>
@@ -33438,15 +33600,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="530" customHeight="1" spans="7:13">
+    <row r="530" customHeight="1" spans="3:13">
+      <c r="C530" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G530" s="2" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="H530" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I530" s="2" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="K530" s="2" t="s">
         <v>42</v>
@@ -33455,18 +33620,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="531" customHeight="1" spans="3:13">
+    <row r="531" customHeight="1" spans="2:13">
+      <c r="B531" s="2" t="s">
+        <v>1099</v>
+      </c>
       <c r="C531" s="2" t="s">
-        <v>62</v>
+        <v>1088</v>
+      </c>
+      <c r="D531" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="H531" s="2" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
       <c r="I531" s="2" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="K531" s="2" t="s">
         <v>42</v>
@@ -33475,30 +33652,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="532" customHeight="1" spans="2:13">
-      <c r="B532" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D532" s="3">
-        <v>2023</v>
-      </c>
+    <row r="532" customHeight="1" spans="5:13">
       <c r="E532" s="2" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="H532" s="2" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="I532" s="2" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="K532" s="2" t="s">
         <v>42</v>
@@ -33507,21 +33675,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="533" customHeight="1" spans="5:13">
-      <c r="E533" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F533" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>1100</v>
-      </c>
+    <row r="533" customHeight="1" spans="8:13">
       <c r="H533" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="I533" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="K533" s="2" t="s">
         <v>42</v>
@@ -33530,12 +33689,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="534" customHeight="1" spans="8:13">
+    <row r="534" customHeight="1" spans="5:13">
+      <c r="E534" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>1104</v>
+      </c>
       <c r="H534" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="I534" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="K534" s="2" t="s">
         <v>42</v>
@@ -33546,19 +33714,19 @@
     </row>
     <row r="535" customHeight="1" spans="5:13">
       <c r="E535" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="I535" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="K535" s="2" t="s">
         <v>42</v>
@@ -33567,21 +33735,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="536" customHeight="1" spans="5:13">
+    <row r="536" customHeight="1" spans="3:13">
+      <c r="C536" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D536" s="3">
+        <v>2020</v>
+      </c>
       <c r="E536" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="I536" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="K536" s="2" t="s">
         <v>42</v>
@@ -33590,27 +33764,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="537" customHeight="1" spans="3:13">
-      <c r="C537" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D537" s="3">
-        <v>2020</v>
-      </c>
+    <row r="537" customHeight="1" spans="5:13">
       <c r="E537" s="2" t="s">
-        <v>1099</v>
+        <v>1016</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>1100</v>
+        <v>1015</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="I537" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="K537" s="2" t="s">
         <v>42</v>
@@ -33619,21 +33787,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="538" customHeight="1" spans="5:13">
-      <c r="E538" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F538" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G538" s="2" t="s">
-        <v>1014</v>
-      </c>
+    <row r="538" customHeight="1" spans="8:13">
       <c r="H538" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="I538" s="2" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="K538" s="2" t="s">
         <v>42</v>
@@ -33644,10 +33803,10 @@
     </row>
     <row r="539" customHeight="1" spans="8:13">
       <c r="H539" s="2" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="I539" s="2" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="K539" s="2" t="s">
         <v>42</v>
@@ -33658,10 +33817,10 @@
     </row>
     <row r="540" customHeight="1" spans="8:13">
       <c r="H540" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="I540" s="2" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="K540" s="2" t="s">
         <v>42</v>
@@ -33672,10 +33831,10 @@
     </row>
     <row r="541" customHeight="1" spans="8:13">
       <c r="H541" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="I541" s="2" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="K541" s="2" t="s">
         <v>42</v>
@@ -33684,12 +33843,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="542" customHeight="1" spans="8:13">
+    <row r="542" customHeight="1" spans="4:13">
+      <c r="D542" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>1018</v>
+      </c>
       <c r="H542" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="I542" s="2" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="K542" s="2" t="s">
         <v>42</v>
@@ -33698,24 +33869,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="543" customHeight="1" spans="4:13">
-      <c r="D543" s="3">
-        <v>2002</v>
-      </c>
-      <c r="E543" s="2" t="s">
+    <row r="543" customHeight="1" spans="8:13">
+      <c r="H543" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="F543" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G543" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H543" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="I543" s="2" t="s">
-        <v>1109</v>
+        <v>1018</v>
       </c>
       <c r="K543" s="2" t="s">
         <v>42</v>
@@ -33726,10 +33885,10 @@
     </row>
     <row r="544" customHeight="1" spans="8:13">
       <c r="H544" s="2" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>1016</v>
+        <v>1115</v>
       </c>
       <c r="K544" s="2" t="s">
         <v>42</v>
@@ -33740,10 +33899,10 @@
     </row>
     <row r="545" customHeight="1" spans="8:13">
       <c r="H545" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I545" s="2" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="K545" s="2" t="s">
         <v>42</v>
@@ -33754,10 +33913,10 @@
     </row>
     <row r="546" customHeight="1" spans="8:13">
       <c r="H546" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I546" s="2" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="K546" s="2" t="s">
         <v>42</v>
@@ -33768,10 +33927,10 @@
     </row>
     <row r="547" customHeight="1" spans="8:13">
       <c r="H547" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="K547" s="2" t="s">
         <v>42</v>
@@ -33782,10 +33941,10 @@
     </row>
     <row r="548" customHeight="1" spans="8:13">
       <c r="H548" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I548" s="2" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="K548" s="2" t="s">
         <v>42</v>
@@ -33796,10 +33955,10 @@
     </row>
     <row r="549" customHeight="1" spans="8:13">
       <c r="H549" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I549" s="2" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="K549" s="2" t="s">
         <v>42</v>
@@ -33810,10 +33969,10 @@
     </row>
     <row r="550" customHeight="1" spans="8:13">
       <c r="H550" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I550" s="2" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="K550" s="2" t="s">
         <v>42</v>
@@ -33824,10 +33983,10 @@
     </row>
     <row r="551" customHeight="1" spans="8:13">
       <c r="H551" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I551" s="2" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="K551" s="2" t="s">
         <v>42</v>
@@ -33838,10 +33997,10 @@
     </row>
     <row r="552" customHeight="1" spans="8:13">
       <c r="H552" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I552" s="2" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="K552" s="2" t="s">
         <v>42</v>
@@ -33852,10 +34011,10 @@
     </row>
     <row r="553" customHeight="1" spans="8:13">
       <c r="H553" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I553" s="2" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="K553" s="2" t="s">
         <v>42</v>
@@ -33864,12 +34023,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="554" customHeight="1" spans="8:13">
+    <row r="554" customHeight="1" spans="4:13">
+      <c r="D554" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H554" s="2" t="s">
-        <v>1110</v>
+        <v>1127</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="K554" s="2" t="s">
         <v>42</v>
@@ -33880,22 +34051,22 @@
     </row>
     <row r="555" customHeight="1" spans="4:13">
       <c r="D555" s="3">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H555" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K555" s="2" t="s">
         <v>42</v>
@@ -33909,19 +34080,19 @@
         <v>2002</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H556" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I556" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K556" s="2" t="s">
         <v>42</v>
@@ -33932,22 +34103,13 @@
     </row>
     <row r="557" customHeight="1" spans="4:13">
       <c r="D557" s="3">
-        <v>2002</v>
-      </c>
-      <c r="E557" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F557" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G557" s="2" t="s">
-        <v>1122</v>
+        <v>2004</v>
       </c>
       <c r="H557" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I557" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K557" s="2" t="s">
         <v>42</v>
@@ -33958,13 +34120,13 @@
     </row>
     <row r="558" customHeight="1" spans="4:13">
       <c r="D558" s="3">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="H558" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I558" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K558" s="2" t="s">
         <v>42</v>
@@ -33975,13 +34137,13 @@
     </row>
     <row r="559" customHeight="1" spans="4:13">
       <c r="D559" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="H559" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I559" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K559" s="2" t="s">
         <v>42</v>
@@ -33992,13 +34154,13 @@
     </row>
     <row r="560" customHeight="1" spans="4:13">
       <c r="D560" s="3">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="H560" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I560" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K560" s="2" t="s">
         <v>42</v>
@@ -34009,13 +34171,13 @@
     </row>
     <row r="561" customHeight="1" spans="4:13">
       <c r="D561" s="3">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="H561" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I561" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K561" s="2" t="s">
         <v>42</v>
@@ -34028,11 +34190,20 @@
       <c r="D562" s="3">
         <v>2008</v>
       </c>
+      <c r="E562" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H562" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I562" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K562" s="2" t="s">
         <v>42</v>
@@ -34043,22 +34214,22 @@
     </row>
     <row r="563" customHeight="1" spans="4:13">
       <c r="D563" s="3">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H563" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I563" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K563" s="2" t="s">
         <v>42</v>
@@ -34071,20 +34242,11 @@
       <c r="D564" s="3">
         <v>2010</v>
       </c>
-      <c r="E564" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F564" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G564" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="H564" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I564" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K564" s="2" t="s">
         <v>42</v>
@@ -34098,10 +34260,10 @@
         <v>2010</v>
       </c>
       <c r="H565" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I565" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K565" s="2" t="s">
         <v>42</v>
@@ -34112,13 +34274,13 @@
     </row>
     <row r="566" customHeight="1" spans="4:13">
       <c r="D566" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H566" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I566" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K566" s="2" t="s">
         <v>42</v>
@@ -34129,13 +34291,13 @@
     </row>
     <row r="567" customHeight="1" spans="4:13">
       <c r="D567" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H567" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I567" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K567" s="2" t="s">
         <v>42</v>
@@ -34144,15 +34306,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="568" customHeight="1" spans="4:13">
+    <row r="568" customHeight="1" spans="2:13">
+      <c r="B568" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D568" s="3">
         <v>2012</v>
       </c>
+      <c r="E568" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H568" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I568" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K568" s="2" t="s">
         <v>42</v>
@@ -34161,30 +34338,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="569" customHeight="1" spans="2:13">
-      <c r="B569" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C569" s="2" t="s">
-        <v>93</v>
-      </c>
+    <row r="569" customHeight="1" spans="4:13">
       <c r="D569" s="3">
         <v>2012</v>
       </c>
-      <c r="E569" s="2" t="s">
+      <c r="H569" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="F569" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G569" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H569" s="2" t="s">
-        <v>1123</v>
-      </c>
       <c r="I569" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K569" s="2" t="s">
         <v>42</v>
@@ -34195,13 +34357,13 @@
     </row>
     <row r="570" customHeight="1" spans="4:13">
       <c r="D570" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H570" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I570" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K570" s="2" t="s">
         <v>42</v>
@@ -34210,15 +34372,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="571" customHeight="1" spans="4:13">
+    <row r="571" customHeight="1" spans="2:13">
+      <c r="B571" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D571" s="3">
         <v>2013</v>
       </c>
+      <c r="E571" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H571" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I571" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K571" s="2" t="s">
         <v>42</v>
@@ -34229,28 +34406,28 @@
     </row>
     <row r="572" customHeight="1" spans="2:13">
       <c r="B572" s="2" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D572" s="3">
         <v>2013</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H572" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I572" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K572" s="2" t="s">
         <v>42</v>
@@ -34259,30 +34436,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="573" customHeight="1" spans="2:13">
-      <c r="B573" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="573" customHeight="1" spans="4:13">
       <c r="D573" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H573" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I573" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K573" s="2" t="s">
         <v>42</v>
@@ -34295,20 +34466,11 @@
       <c r="D574" s="3">
         <v>2014</v>
       </c>
-      <c r="E574" s="2" t="s">
+      <c r="H574" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="F574" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G574" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H574" s="2" t="s">
-        <v>1123</v>
-      </c>
       <c r="I574" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K574" s="2" t="s">
         <v>42</v>
@@ -34317,15 +34479,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="575" customHeight="1" spans="4:13">
+    <row r="575" customHeight="1" spans="3:13">
+      <c r="C575" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D575" s="3">
         <v>2014</v>
       </c>
+      <c r="E575" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H575" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I575" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K575" s="2" t="s">
         <v>42</v>
@@ -34334,10 +34508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="576" customHeight="1" spans="3:13">
-      <c r="C576" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="576" customHeight="1" spans="4:13">
       <c r="D576" s="3">
         <v>2014</v>
       </c>
@@ -34348,13 +34519,13 @@
         <v>42</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H576" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I576" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K576" s="2" t="s">
         <v>42</v>
@@ -34365,22 +34536,13 @@
     </row>
     <row r="577" customHeight="1" spans="4:13">
       <c r="D577" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E577" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F577" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G577" s="2" t="s">
-        <v>1122</v>
+        <v>2016</v>
       </c>
       <c r="H577" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I577" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K577" s="2" t="s">
         <v>42</v>
@@ -34394,10 +34556,10 @@
         <v>2016</v>
       </c>
       <c r="H578" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I578" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K578" s="2" t="s">
         <v>42</v>
@@ -34411,10 +34573,10 @@
         <v>2016</v>
       </c>
       <c r="H579" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I579" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K579" s="2" t="s">
         <v>42</v>
@@ -34428,10 +34590,10 @@
         <v>2016</v>
       </c>
       <c r="H580" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I580" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K580" s="2" t="s">
         <v>42</v>
@@ -34440,15 +34602,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="581" customHeight="1" spans="4:13">
+    <row r="581" customHeight="1" spans="2:13">
+      <c r="B581" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="D581" s="3">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G581" s="2" t="s">
+        <v>978</v>
       </c>
       <c r="H581" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I581" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K581" s="2" t="s">
         <v>42</v>
@@ -34457,47 +34634,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="582" customHeight="1" spans="2:13">
-      <c r="B582" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C582" s="2" t="s">
+    <row r="582" customHeight="1" spans="4:13">
+      <c r="D582" s="3">
+        <v>2018</v>
+      </c>
+      <c r="H582" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I582" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K582" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M582" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="583" customHeight="1" spans="2:13">
+      <c r="B583" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C583" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D582" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E582" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F582" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G582" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="H582" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I582" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K582" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M582" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="583" customHeight="1" spans="4:13">
       <c r="D583" s="3">
         <v>2018</v>
       </c>
+      <c r="E583" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H583" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I583" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K583" s="2" t="s">
         <v>42</v>
@@ -34506,30 +34683,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="584" customHeight="1" spans="2:13">
-      <c r="B584" s="2" t="s">
-        <v>1132</v>
-      </c>
+    <row r="584" customHeight="1" spans="3:13">
       <c r="C584" s="2" t="s">
-        <v>268</v>
+        <v>1020</v>
       </c>
       <c r="D584" s="3">
         <v>2018</v>
       </c>
-      <c r="E584" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F584" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G584" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="H584" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I584" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K584" s="2" t="s">
         <v>42</v>
@@ -34540,16 +34705,16 @@
     </row>
     <row r="585" customHeight="1" spans="3:13">
       <c r="C585" s="2" t="s">
-        <v>1133</v>
+        <v>1030</v>
       </c>
       <c r="D585" s="3">
         <v>2018</v>
       </c>
       <c r="H585" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I585" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K585" s="2" t="s">
         <v>42</v>
@@ -34558,18 +34723,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="586" customHeight="1" spans="3:13">
-      <c r="C586" s="2" t="s">
-        <v>1134</v>
-      </c>
+    <row r="586" customHeight="1" spans="4:13">
       <c r="D586" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H586" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I586" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K586" s="2" t="s">
         <v>42</v>
@@ -34578,15 +34740,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="587" customHeight="1" spans="4:13">
+    <row r="587" customHeight="1" spans="3:13">
+      <c r="C587" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="D587" s="3">
         <v>2019</v>
       </c>
       <c r="H587" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I587" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K587" s="2" t="s">
         <v>42</v>
@@ -34597,16 +34762,16 @@
     </row>
     <row r="588" customHeight="1" spans="3:13">
       <c r="C588" s="2" t="s">
-        <v>1133</v>
+        <v>1088</v>
       </c>
       <c r="D588" s="3">
         <v>2019</v>
       </c>
       <c r="H588" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I588" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K588" s="2" t="s">
         <v>42</v>
@@ -34617,16 +34782,16 @@
     </row>
     <row r="589" customHeight="1" spans="3:13">
       <c r="C589" s="2" t="s">
-        <v>1084</v>
+        <v>1020</v>
       </c>
       <c r="D589" s="3">
         <v>2019</v>
       </c>
       <c r="H589" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I589" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K589" s="2" t="s">
         <v>42</v>
@@ -34637,16 +34802,25 @@
     </row>
     <row r="590" customHeight="1" spans="3:13">
       <c r="C590" s="2" t="s">
-        <v>1133</v>
+        <v>105</v>
       </c>
       <c r="D590" s="3">
         <v>2019</v>
       </c>
+      <c r="E590" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>1015</v>
+      </c>
       <c r="H590" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I590" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K590" s="2" t="s">
         <v>42</v>
@@ -34657,25 +34831,25 @@
     </row>
     <row r="591" customHeight="1" spans="3:13">
       <c r="C591" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D591" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>1013</v>
+        <v>1137</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>1014</v>
+        <v>1126</v>
       </c>
       <c r="H591" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I591" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K591" s="2" t="s">
         <v>42</v>
@@ -34684,27 +34858,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="592" customHeight="1" spans="3:13">
-      <c r="C592" s="2" t="s">
-        <v>93</v>
-      </c>
+    <row r="592" customHeight="1" spans="4:13">
       <c r="D592" s="3">
         <v>2020</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H592" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I592" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K592" s="2" t="s">
         <v>42</v>
@@ -34713,24 +34884,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="593" customHeight="1" spans="4:13">
+    <row r="593" customHeight="1" spans="3:13">
+      <c r="C593" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="D593" s="3">
         <v>2020</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H593" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I593" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K593" s="2" t="s">
         <v>42</v>
@@ -34739,27 +34913,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="594" customHeight="1" spans="3:13">
+    <row r="594" customHeight="1" spans="2:13">
+      <c r="B594" s="2" t="s">
+        <v>1138</v>
+      </c>
       <c r="C594" s="2" t="s">
-        <v>1133</v>
+        <v>1088</v>
       </c>
       <c r="D594" s="3">
         <v>2020</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="F594" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H594" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I594" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K594" s="2" t="s">
         <v>42</v>
@@ -34770,28 +34947,28 @@
     </row>
     <row r="595" customHeight="1" spans="2:13">
       <c r="B595" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1084</v>
+        <v>268</v>
       </c>
       <c r="D595" s="3">
         <v>2020</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H595" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I595" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K595" s="2" t="s">
         <v>42</v>
@@ -34802,28 +34979,19 @@
     </row>
     <row r="596" customHeight="1" spans="2:13">
       <c r="B596" s="2" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="D596" s="3">
         <v>2020</v>
       </c>
-      <c r="E596" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F596" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G596" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="H596" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I596" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K596" s="2" t="s">
         <v>42</v>
@@ -34832,21 +35000,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="597" customHeight="1" spans="2:13">
-      <c r="B597" s="2" t="s">
-        <v>1138</v>
-      </c>
+    <row r="597" customHeight="1" spans="3:13">
       <c r="C597" s="2" t="s">
-        <v>293</v>
+        <v>1088</v>
       </c>
       <c r="D597" s="3">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>1126</v>
       </c>
       <c r="H597" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I597" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K597" s="2" t="s">
         <v>42</v>
@@ -34855,27 +35029,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="598" customHeight="1" spans="3:13">
-      <c r="C598" s="2" t="s">
-        <v>1084</v>
-      </c>
+    <row r="598" customHeight="1" spans="4:13">
       <c r="D598" s="3">
         <v>2021</v>
       </c>
-      <c r="E598" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F598" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G598" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="H598" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I598" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K598" s="2" t="s">
         <v>42</v>
@@ -34884,15 +35046,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="599" customHeight="1" spans="4:13">
+    <row r="599" customHeight="1" spans="3:13">
+      <c r="C599" s="2" t="s">
+        <v>1142</v>
+      </c>
       <c r="D599" s="3">
         <v>2021</v>
       </c>
       <c r="H599" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I599" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K599" s="2" t="s">
         <v>42</v>
@@ -34901,134 +35066,142 @@
         <v>42</v>
       </c>
     </row>
-    <row r="600" customHeight="1" spans="3:13">
+    <row r="600" customHeight="1" spans="2:34">
+      <c r="B600" s="2" t="s">
+        <v>1143</v>
+      </c>
       <c r="C600" s="2" t="s">
-        <v>1140</v>
+        <v>76</v>
       </c>
       <c r="D600" s="3">
         <v>2021</v>
       </c>
+      <c r="E600" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>1145</v>
+      </c>
       <c r="H600" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I600" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
+      </c>
+      <c r="J600" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="K600" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L600" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M600" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="601" customHeight="1" spans="2:34">
-      <c r="B601" s="2" t="s">
-        <v>1141</v>
-      </c>
+      <c r="P600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V600" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG600" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH600" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="601" customHeight="1" spans="3:13">
       <c r="C601" s="2" t="s">
-        <v>76</v>
+        <v>1030</v>
       </c>
       <c r="D601" s="3">
         <v>2021</v>
       </c>
-      <c r="E601" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G601" s="2" t="s">
-        <v>1143</v>
-      </c>
       <c r="H601" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I601" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="J601" s="2" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="K601" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L601" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N601" s="2"/>
-      <c r="P601" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q601" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R601" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S601" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T601" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U601" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V601" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG601" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH601" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="602" customHeight="1" spans="3:13">
       <c r="C602" s="2" t="s">
-        <v>1134</v>
+        <v>1030</v>
       </c>
       <c r="D602" s="3">
         <v>2021</v>
       </c>
+      <c r="E602" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>1018</v>
+      </c>
       <c r="H602" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I602" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K602" s="2" t="s">
         <v>42</v>
@@ -35039,25 +35212,25 @@
     </row>
     <row r="603" customHeight="1" spans="3:13">
       <c r="C603" s="2" t="s">
-        <v>1134</v>
+        <v>262</v>
       </c>
       <c r="D603" s="3">
         <v>2021</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G603" s="2" t="s">
-        <v>1016</v>
+        <v>1126</v>
       </c>
       <c r="H603" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I603" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K603" s="2" t="s">
         <v>42</v>
@@ -35068,25 +35241,25 @@
     </row>
     <row r="604" customHeight="1" spans="3:13">
       <c r="C604" s="2" t="s">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="D604" s="3">
         <v>2021</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>1121</v>
+        <v>1148</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>1122</v>
+        <v>1018</v>
       </c>
       <c r="H604" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I604" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K604" s="2" t="s">
         <v>42</v>
@@ -35095,27 +35268,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="605" customHeight="1" spans="3:13">
+    <row r="605" customHeight="1" spans="2:13">
+      <c r="B605" s="2" t="s">
+        <v>1149</v>
+      </c>
       <c r="C605" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D605" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>1016</v>
+        <v>1126</v>
       </c>
       <c r="H605" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I605" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K605" s="2" t="s">
         <v>42</v>
@@ -35124,30 +35300,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="606" customHeight="1" spans="2:13">
-      <c r="B606" s="2" t="s">
-        <v>1147</v>
-      </c>
+    <row r="606" customHeight="1" spans="3:13">
       <c r="C606" s="2" t="s">
-        <v>93</v>
+        <v>1030</v>
       </c>
       <c r="D606" s="3">
         <v>2022</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1124</v>
+        <v>1150</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>1122</v>
+        <v>1018</v>
       </c>
       <c r="H606" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I606" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K606" s="2" t="s">
         <v>42</v>
@@ -35158,25 +35331,16 @@
     </row>
     <row r="607" customHeight="1" spans="3:13">
       <c r="C607" s="2" t="s">
-        <v>1134</v>
+        <v>1088</v>
       </c>
       <c r="D607" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E607" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G607" s="2" t="s">
-        <v>1016</v>
+        <v>2023</v>
       </c>
       <c r="H607" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I607" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K607" s="2" t="s">
         <v>42</v>
@@ -35187,16 +35351,25 @@
     </row>
     <row r="608" customHeight="1" spans="3:13">
       <c r="C608" s="2" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="D608" s="3">
         <v>2023</v>
       </c>
+      <c r="E608" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H608" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I608" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K608" s="2" t="s">
         <v>42</v>
@@ -35207,25 +35380,16 @@
     </row>
     <row r="609" customHeight="1" spans="3:13">
       <c r="C609" s="2" t="s">
-        <v>1084</v>
+        <v>259</v>
       </c>
       <c r="D609" s="3">
         <v>2023</v>
       </c>
-      <c r="E609" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F609" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G609" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="H609" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I609" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K609" s="2" t="s">
         <v>42</v>
@@ -35242,10 +35406,10 @@
         <v>2023</v>
       </c>
       <c r="H610" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I610" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K610" s="2" t="s">
         <v>42</v>
@@ -35254,18 +35418,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="611" customHeight="1" spans="3:13">
+    <row r="611" customHeight="1" spans="2:13">
+      <c r="B611" s="2" t="s">
+        <v>1152</v>
+      </c>
       <c r="C611" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D611" s="3">
         <v>2023</v>
       </c>
+      <c r="E611" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H611" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I611" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K611" s="2" t="s">
         <v>42</v>
@@ -35274,180 +35450,243 @@
         <v>42</v>
       </c>
     </row>
-    <row r="612" customHeight="1" spans="2:13">
+    <row r="612" customHeight="1" spans="2:34">
       <c r="B612" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>259</v>
+        <v>1003</v>
       </c>
       <c r="D612" s="3">
         <v>2023</v>
       </c>
       <c r="E612" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H612" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="F612" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G612" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H612" s="2" t="s">
-        <v>1123</v>
-      </c>
       <c r="I612" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
+      </c>
+      <c r="J612" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K612" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L612" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M612" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="613" customHeight="1" spans="2:34">
-      <c r="B613" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C613" s="2" t="s">
-        <v>1003</v>
-      </c>
+      <c r="N612" s="2">
+        <v>2021</v>
+      </c>
+      <c r="O612" s="2">
+        <v>2023</v>
+      </c>
+      <c r="P612" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q612" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R612" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S612" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T612" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U612" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y612" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB612" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC612" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG612" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH612" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="613" customHeight="1" spans="4:13">
       <c r="D613" s="3">
         <v>2023</v>
       </c>
-      <c r="E613" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G613" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="H613" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I613" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="J613" s="2" t="s">
-        <v>42</v>
+        <v>1126</v>
       </c>
       <c r="K613" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L613" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M613" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N613" s="2">
-        <v>2021</v>
-      </c>
-      <c r="O613" s="2">
-        <v>2023</v>
-      </c>
-      <c r="P613" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q613" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R613" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S613" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T613" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U613" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y613" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB613" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC613" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG613" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH613" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="614" customHeight="1" spans="4:13">
+    </row>
+    <row r="614" customHeight="1" spans="2:34">
+      <c r="B614" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D614" s="3">
         <v>2023</v>
       </c>
+      <c r="E614" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="H614" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I614" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
+      </c>
+      <c r="J614" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K614" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L614" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="M614" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="615" customHeight="1" spans="2:34">
+      <c r="N614" s="2">
+        <v>2023</v>
+      </c>
+      <c r="O614" s="2">
+        <v>2023</v>
+      </c>
+      <c r="P614" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q614" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R614" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S614" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T614" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U614" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z614" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB614" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG614" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH614" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="615" customHeight="1" spans="2:15">
       <c r="B615" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D615" s="3">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>1124</v>
+        <v>1156</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>1122</v>
+        <v>1157</v>
       </c>
       <c r="H615" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I615" s="2" t="s">
-        <v>1122</v>
+        <v>1157</v>
       </c>
       <c r="J615" s="2" t="s">
         <v>42</v>
@@ -35462,434 +35701,350 @@
         <v>42</v>
       </c>
       <c r="N615" s="2">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="O615" s="2">
-        <v>2023</v>
-      </c>
-      <c r="P615" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q615" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R615" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S615" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T615" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U615" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z615" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB615" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG615" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH615" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="616" customHeight="1" spans="2:15">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="616" customHeight="1" spans="2:13">
       <c r="B616" s="2" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D616" s="3">
-        <v>2014</v>
+        <v>321</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="F616" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="H616" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="I616" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J616" s="2" t="s">
-        <v>42</v>
+        <v>1160</v>
       </c>
       <c r="K616" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L616" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M616" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N616" s="2">
-        <v>1999</v>
-      </c>
-      <c r="O616" s="2">
-        <v>2010</v>
       </c>
     </row>
     <row r="617" customHeight="1" spans="2:13">
       <c r="B617" s="2" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>321</v>
+        <v>1088</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="H617" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I617" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K617" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M617" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="618" customHeight="1" spans="2:15">
+      <c r="B618" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D618" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H618" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I618" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="I617" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="K617" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M617" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="618" customHeight="1" spans="2:13">
-      <c r="B618" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C618" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E618" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F618" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G618" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H618" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I618" s="2" t="s">
-        <v>1161</v>
-      </c>
       <c r="K618" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M618" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="619" customHeight="1" spans="2:15">
+      <c r="N618" s="2">
+        <v>2016</v>
+      </c>
+      <c r="O618" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="619" customHeight="1" spans="2:34">
       <c r="B619" s="2" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D619" s="3">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>1016</v>
+        <v>1168</v>
       </c>
       <c r="H619" s="2" t="s">
-        <v>1123</v>
+        <v>1169</v>
       </c>
       <c r="I619" s="2" t="s">
-        <v>1119</v>
+        <v>1168</v>
+      </c>
+      <c r="J619" s="2" t="s">
+        <v>1170</v>
       </c>
       <c r="K619" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L619" s="2" t="s">
+        <v>1170</v>
+      </c>
       <c r="M619" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N619" s="2">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="O619" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="620" customHeight="1" spans="2:34">
-      <c r="B620" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C620" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="P619" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q619" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R619" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S619" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T619" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U619" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V619" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W619" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="X619" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB619" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG619" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH619" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="620" customHeight="1" spans="4:13">
       <c r="D620" s="3">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G620" s="2" t="s">
-        <v>1166</v>
+        <v>1015</v>
       </c>
       <c r="H620" s="2" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="I620" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J620" s="2" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="K620" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L620" s="2" t="s">
-        <v>1168</v>
-      </c>
       <c r="M620" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N620" s="2">
-        <v>2006</v>
-      </c>
-      <c r="O620" s="2">
-        <v>2006</v>
-      </c>
-      <c r="P620" s="2" t="s">
+    </row>
+    <row r="621" customHeight="1" spans="2:34">
+      <c r="B621" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H621" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I621" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T621" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q620" s="2" t="s">
+      <c r="U621" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R620" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S620" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T620" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U620" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V620" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W620" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="X620" s="2" t="s">
+      <c r="V621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X621" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB620" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="AC620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG620" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH620" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="621" customHeight="1" spans="4:13">
-      <c r="D621" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E621" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F621" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G621" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H621" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="I621" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="K621" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M621" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="622" customHeight="1" spans="2:34">
-      <c r="B622" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C622" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D622" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E622" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G622" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H622" s="2" t="s">
-        <v>1167</v>
-      </c>
+      <c r="Y621" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG621" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH621" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="622" customHeight="1" spans="9:13">
       <c r="I622" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J622" s="2" t="s">
-        <v>42</v>
+        <v>1175</v>
       </c>
       <c r="K622" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L622" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P622" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q622" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R622" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S622" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T622" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U622" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X622" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y622" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG622" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH622" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="623" customHeight="1" spans="9:13">
       <c r="I623" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="K623" s="2" t="s">
         <v>42</v>
@@ -35900,7 +36055,7 @@
     </row>
     <row r="624" customHeight="1" spans="9:13">
       <c r="I624" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="K624" s="2" t="s">
         <v>42</v>
@@ -35911,7 +36066,7 @@
     </row>
     <row r="625" customHeight="1" spans="9:13">
       <c r="I625" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="K625" s="2" t="s">
         <v>42</v>
@@ -35922,7 +36077,7 @@
     </row>
     <row r="626" customHeight="1" spans="9:13">
       <c r="I626" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="K626" s="2" t="s">
         <v>42</v>
@@ -35933,7 +36088,7 @@
     </row>
     <row r="627" customHeight="1" spans="9:13">
       <c r="I627" s="2" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="K627" s="2" t="s">
         <v>42</v>
@@ -35944,7 +36099,7 @@
     </row>
     <row r="628" customHeight="1" spans="9:13">
       <c r="I628" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="K628" s="2" t="s">
         <v>42</v>
@@ -35955,7 +36110,7 @@
     </row>
     <row r="629" customHeight="1" spans="9:13">
       <c r="I629" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="K629" s="2" t="s">
         <v>42</v>
@@ -35964,9 +36119,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="630" customHeight="1" spans="9:13">
+    <row r="630" customHeight="1" spans="4:13">
+      <c r="D630" s="3">
+        <v>2008</v>
+      </c>
+      <c r="H630" s="2" t="s">
+        <v>1183</v>
+      </c>
       <c r="I630" s="2" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="K630" s="2" t="s">
         <v>42</v>
@@ -35977,13 +36138,13 @@
     </row>
     <row r="631" customHeight="1" spans="4:13">
       <c r="D631" s="3">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="H631" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I631" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="K631" s="2" t="s">
         <v>42</v>
@@ -35994,13 +36155,13 @@
     </row>
     <row r="632" customHeight="1" spans="4:13">
       <c r="D632" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H632" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I632" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="K632" s="2" t="s">
         <v>42</v>
@@ -36009,15 +36170,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="633" customHeight="1" spans="4:13">
-      <c r="D633" s="3">
-        <v>2017</v>
-      </c>
+    <row r="633" customHeight="1" spans="8:13">
       <c r="H633" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I633" s="2" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="K633" s="2" t="s">
         <v>42</v>
@@ -36028,10 +36186,10 @@
     </row>
     <row r="634" customHeight="1" spans="8:13">
       <c r="H634" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I634" s="2" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="K634" s="2" t="s">
         <v>42</v>
@@ -36042,10 +36200,10 @@
     </row>
     <row r="635" customHeight="1" spans="8:13">
       <c r="H635" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I635" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="K635" s="2" t="s">
         <v>42</v>
@@ -36056,10 +36214,10 @@
     </row>
     <row r="636" customHeight="1" spans="8:13">
       <c r="H636" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I636" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K636" s="2" t="s">
         <v>42</v>
@@ -36068,12 +36226,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="637" customHeight="1" spans="8:13">
+    <row r="637" customHeight="1" spans="4:13">
+      <c r="D637" s="3">
+        <v>2024</v>
+      </c>
       <c r="H637" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I637" s="2" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="K637" s="2" t="s">
         <v>42</v>
@@ -36082,15 +36243,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="638" customHeight="1" spans="4:13">
+    <row r="638" customHeight="1" spans="2:15">
+      <c r="B638" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D638" s="3">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>1015</v>
       </c>
       <c r="H638" s="2" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="I638" s="2" t="s">
-        <v>1186</v>
+        <v>1015</v>
+      </c>
+      <c r="J638" s="2" t="s">
+        <v>1192</v>
       </c>
       <c r="K638" s="2" t="s">
         <v>42</v>
@@ -36098,50 +36277,15 @@
       <c r="M638" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="639" customHeight="1" spans="2:15">
-      <c r="B639" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C639" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D639" s="3">
+      <c r="N638" s="2">
         <v>2023</v>
       </c>
-      <c r="E639" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F639" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G639" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H639" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I639" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="J639" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="K639" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M639" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N639" s="2">
+      <c r="O638" s="2">
         <v>2023</v>
       </c>
-      <c r="O639" s="2">
-        <v>2023</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH639">
+  <autoFilter ref="A1:AH638">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27517" windowHeight="4402"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$637</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$645</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7826" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="1204">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -9359,9 +9359,18 @@
     <t>University de La Reunion</t>
   </si>
   <si>
+    <t>Early genomic detection of cosmopolitan genotype of dengue virus serotype 2, Angola, 2018</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
+    <t>Molecular and genomic investigation of an urban outbreak of dengue virus serotype 2 in Angola, 2017-2019</t>
+  </si>
+  <si>
+    <t>Instituto Nicional de Investigacao em Saude</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
@@ -9383,12 +9392,27 @@
     <t>Yemen</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>RSR</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
+    <t>Complete genome sequencing and phylogenetic analysis of dengue type 1 virus isolated from Jeddah, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>King Abdulaziz University</t>
+  </si>
+  <si>
+    <t>Saudi Public Health Authority</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -9401,16 +9425,34 @@
     <t>Somalia</t>
   </si>
   <si>
+    <t>Eurosurveillance</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>First autochthonous dengue outbreak in Italy, Auguest 2020</t>
+  </si>
+  <si>
+    <t>San Bortolo Hospital</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>Autochthonous dengue outbreak, Paris region, France, September-October 2023</t>
   </si>
   <si>
     <t>Henri Mondor University Hospital</t>
   </si>
   <si>
-    <t>MED</t>
-  </si>
-  <si>
     <t>Paris</t>
+  </si>
+  <si>
+    <t>Increase in dengue fever in travellers returning from Egypt, Germany 2023</t>
+  </si>
+  <si>
+    <t>Robert Koch Institute</t>
   </si>
 </sst>
 </file>
@@ -9418,11 +9460,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9907,19 +9949,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10062,7 +10104,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10071,7 +10113,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10602,21 +10644,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI637"/>
+  <dimension ref="A1:AI649"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="D632" sqref="D632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.80833333333333" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="14" width="9.625" style="2" customWidth="1"/>
-    <col min="15" max="35" width="7.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.80530973451327" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.6283185840708" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6283185840708" style="3" customWidth="1"/>
+    <col min="5" max="14" width="9.6283185840708" style="2" customWidth="1"/>
+    <col min="15" max="35" width="7.12389380530973" style="2" customWidth="1"/>
     <col min="36" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -13639,7 +13681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="2:15">
+    <row r="30" customHeight="1" spans="2:35">
       <c r="B30" s="2" t="s">
         <v>128</v>
       </c>
@@ -13682,8 +13724,68 @@
       <c r="O30" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:15">
+      <c r="P30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:35">
       <c r="B31" s="2" t="s">
         <v>132</v>
       </c>
@@ -13725,6 +13827,66 @@
       </c>
       <c r="O31" s="2">
         <v>2018</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:35">
@@ -13831,7 +13993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="2:15">
+    <row r="33" customHeight="1" spans="2:35">
       <c r="B33" s="2" t="s">
         <v>138</v>
       </c>
@@ -13874,8 +14036,68 @@
       <c r="O33" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:15">
+      <c r="P33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:35">
       <c r="B34" s="2" t="s">
         <v>140</v>
       </c>
@@ -13918,8 +14140,68 @@
       <c r="O34" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:15">
+      <c r="P34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:35">
       <c r="B35" s="2" t="s">
         <v>141</v>
       </c>
@@ -13962,8 +14244,68 @@
       <c r="O35" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:15">
+      <c r="P35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:35">
       <c r="B36" s="2" t="s">
         <v>143</v>
       </c>
@@ -14005,6 +14347,66 @@
       </c>
       <c r="O36" s="2">
         <v>2019</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:35">
@@ -14877,7 +15279,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:15">
+    <row r="46" customHeight="1" spans="2:35">
       <c r="B46" s="7" t="s">
         <v>194</v>
       </c>
@@ -14919,6 +15321,66 @@
       </c>
       <c r="O46" s="2">
         <v>2008</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:15">
@@ -16568,7 +17030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="2:13">
+    <row r="74" customHeight="1" spans="2:15">
       <c r="B74" s="2" t="s">
         <v>272</v>
       </c>
@@ -16604,6 +17066,12 @@
       </c>
       <c r="M74" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="N74" s="2">
+        <v>2014</v>
+      </c>
+      <c r="O74" s="2">
+        <v>2014</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:13">
@@ -16753,7 +17221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="2:13">
+    <row r="78" customHeight="1" spans="2:15">
       <c r="B78" s="2" t="s">
         <v>279</v>
       </c>
@@ -16789,6 +17257,12 @@
       </c>
       <c r="M78" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="N78" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O78" s="2">
+        <v>2013</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:13">
@@ -16933,7 +17407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="2:13">
+    <row r="81" customHeight="1" spans="2:15">
       <c r="B81" s="2" t="s">
         <v>284</v>
       </c>
@@ -16970,8 +17444,14 @@
       <c r="M81" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="82" customHeight="1" spans="2:13">
+      <c r="N81" s="2">
+        <v>1985</v>
+      </c>
+      <c r="O81" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:15">
       <c r="B82" s="2" t="s">
         <v>288</v>
       </c>
@@ -17008,8 +17488,14 @@
       <c r="M82" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="2:13">
+      <c r="N82" s="2">
+        <v>2015</v>
+      </c>
+      <c r="O82" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:15">
       <c r="B83" s="2" t="s">
         <v>289</v>
       </c>
@@ -17045,6 +17531,12 @@
       </c>
       <c r="M83" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="N83" s="2">
+        <v>2014</v>
+      </c>
+      <c r="O83" s="2">
+        <v>2015</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:31">
@@ -17159,7 +17651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="2:13">
+    <row r="86" customHeight="1" spans="2:15">
       <c r="B86" s="2" t="s">
         <v>294</v>
       </c>
@@ -17196,8 +17688,14 @@
       <c r="M86" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:13">
+      <c r="N86" s="2">
+        <v>2008</v>
+      </c>
+      <c r="O86" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:15">
       <c r="B87" s="2" t="s">
         <v>298</v>
       </c>
@@ -17233,6 +17731,12 @@
       </c>
       <c r="M87" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="N87" s="2">
+        <v>1990</v>
+      </c>
+      <c r="O87" s="2">
+        <v>2018</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:31">
@@ -17309,7 +17813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="2:13">
+    <row r="89" customHeight="1" spans="2:15">
       <c r="B89" s="2" t="s">
         <v>302</v>
       </c>
@@ -17345,6 +17849,12 @@
       </c>
       <c r="M89" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="N89" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O89" s="2">
+        <v>2017</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:31">
@@ -18428,7 +18938,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="2:13">
+    <row r="107" customHeight="1" spans="2:15">
       <c r="B107" s="2" t="s">
         <v>353</v>
       </c>
@@ -18461,6 +18971,12 @@
       </c>
       <c r="M107" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="N107" s="2">
+        <v>1980</v>
+      </c>
+      <c r="O107" s="2">
+        <v>1980</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="2:13">
@@ -18917,7 +19433,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="2:13">
+    <row r="119" customHeight="1" spans="2:15">
       <c r="B119" s="7" t="s">
         <v>380</v>
       </c>
@@ -18953,6 +19469,12 @@
       </c>
       <c r="M119" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="N119" s="2">
+        <v>1996</v>
+      </c>
+      <c r="O119" s="2">
+        <v>2006</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:13">
@@ -19069,7 +19591,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="2:13">
+    <row r="123" customHeight="1" spans="2:15">
       <c r="B123" s="7" t="s">
         <v>388</v>
       </c>
@@ -19105,6 +19627,12 @@
       </c>
       <c r="M123" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="N123" s="2">
+        <v>2010</v>
+      </c>
+      <c r="O123" s="2">
+        <v>2010</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:15">
@@ -19361,6 +19889,12 @@
       <c r="M129" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="N129" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O129" s="2">
+        <v>2010</v>
+      </c>
       <c r="X129" s="2" t="s">
         <v>43</v>
       </c>
@@ -19908,7 +20442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="2:13">
+    <row r="142" customHeight="1" spans="2:15">
       <c r="B142" s="2" t="s">
         <v>412</v>
       </c>
@@ -19944,6 +20478,12 @@
       </c>
       <c r="M142" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="N142" s="2">
+        <v>2010</v>
+      </c>
+      <c r="O142" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:31">
@@ -20129,7 +20669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="2:13">
+    <row r="146" customHeight="1" spans="2:15">
       <c r="B146" s="2" t="s">
         <v>428</v>
       </c>
@@ -20165,6 +20705,12 @@
       </c>
       <c r="M146" s="2" t="s">
         <v>423</v>
+      </c>
+      <c r="N146" s="2">
+        <v>2014</v>
+      </c>
+      <c r="O146" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:13">
@@ -20876,7 +21422,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="2:13">
+    <row r="161" customHeight="1" spans="2:15">
       <c r="B161" s="2" t="s">
         <v>473</v>
       </c>
@@ -20913,8 +21459,14 @@
       <c r="M161" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="162" customHeight="1" spans="2:13">
+      <c r="N161" s="2">
+        <v>2014</v>
+      </c>
+      <c r="O161" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:15">
       <c r="B162" s="7" t="s">
         <v>477</v>
       </c>
@@ -20951,8 +21503,14 @@
       <c r="M162" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="163" customHeight="1" spans="2:13">
+      <c r="N162" s="2">
+        <v>2001</v>
+      </c>
+      <c r="O162" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="2:15">
       <c r="B163" s="2" t="s">
         <v>483</v>
       </c>
@@ -20989,8 +21547,14 @@
       <c r="M163" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="164" customHeight="1" spans="2:13">
+      <c r="N163" s="2">
+        <v>2007</v>
+      </c>
+      <c r="O163" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="2:15">
       <c r="B164" s="2" t="s">
         <v>488</v>
       </c>
@@ -21027,8 +21591,14 @@
       <c r="M164" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="165" customHeight="1" spans="2:13">
+      <c r="N164" s="2">
+        <v>1979</v>
+      </c>
+      <c r="O164" s="2">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="2:15">
       <c r="B165" s="2" t="s">
         <v>492</v>
       </c>
@@ -21064,6 +21634,12 @@
       </c>
       <c r="M165" s="2" t="s">
         <v>491</v>
+      </c>
+      <c r="N165" s="2">
+        <v>1991</v>
+      </c>
+      <c r="O165" s="2">
+        <v>1991</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="2:13">
@@ -21101,7 +21677,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="2:13">
+    <row r="167" customHeight="1" spans="2:15">
       <c r="B167" s="7" t="s">
         <v>496</v>
       </c>
@@ -21137,6 +21713,12 @@
       </c>
       <c r="M167" s="2" t="s">
         <v>491</v>
+      </c>
+      <c r="N167" s="2">
+        <v>1979</v>
+      </c>
+      <c r="O167" s="2">
+        <v>2001</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="2:13">
@@ -21253,7 +21835,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="2:13">
+    <row r="171" customHeight="1" spans="2:15">
       <c r="B171" s="7" t="s">
         <v>502</v>
       </c>
@@ -21289,6 +21871,12 @@
       </c>
       <c r="M171" s="2" t="s">
         <v>491</v>
+      </c>
+      <c r="N171" s="2">
+        <v>2004</v>
+      </c>
+      <c r="O171" s="2">
+        <v>2005</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="2:13">
@@ -21329,7 +21917,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="2:13">
+    <row r="173" customHeight="1" spans="2:15">
       <c r="B173" s="7" t="s">
         <v>504</v>
       </c>
@@ -21365,6 +21953,12 @@
       </c>
       <c r="M173" s="2" t="s">
         <v>491</v>
+      </c>
+      <c r="N173" s="2">
+        <v>2005</v>
+      </c>
+      <c r="O173" s="2">
+        <v>2007</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="2:31">
@@ -21768,7 +22362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="2:13">
+    <row r="181" customHeight="1" spans="2:15">
       <c r="B181" s="2" t="s">
         <v>516</v>
       </c>
@@ -21801,6 +22395,12 @@
       </c>
       <c r="M181" s="2" t="s">
         <v>491</v>
+      </c>
+      <c r="N181" s="2">
+        <v>2017</v>
+      </c>
+      <c r="O181" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="2:13">
@@ -21908,7 +22508,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="2:13">
+    <row r="185" customHeight="1" spans="2:15">
       <c r="B185" s="7" t="s">
         <v>528</v>
       </c>
@@ -21944,6 +22544,12 @@
       </c>
       <c r="M185" s="2" t="s">
         <v>523</v>
+      </c>
+      <c r="N185" s="2">
+        <v>2007</v>
+      </c>
+      <c r="O185" s="2">
+        <v>2007</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="2:13">
@@ -21984,7 +22590,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="2:13">
+    <row r="187" customHeight="1" spans="2:15">
       <c r="B187" s="2" t="s">
         <v>535</v>
       </c>
@@ -22021,8 +22627,14 @@
       <c r="M187" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="188" customHeight="1" spans="2:13">
+      <c r="N187" s="2">
+        <v>2012</v>
+      </c>
+      <c r="O187" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="2:15">
       <c r="B188" s="2" t="s">
         <v>536</v>
       </c>
@@ -22058,6 +22670,12 @@
       </c>
       <c r="M188" s="2" t="s">
         <v>523</v>
+      </c>
+      <c r="N188" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O188" s="2">
+        <v>2019</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="2:11">
@@ -38162,9 +38780,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="621" customHeight="1" spans="9:13">
+    <row r="621" customHeight="1" spans="2:27">
+      <c r="B621" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="I621" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="K621" s="2" t="s">
         <v>43</v>
@@ -38172,8 +38808,38 @@
       <c r="M621" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="622" customHeight="1" spans="9:13">
+      <c r="X621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y621" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z621" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA621" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="622" customHeight="1" spans="2:27">
+      <c r="B622" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D622" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>1173</v>
+      </c>
       <c r="I622" s="2" t="s">
         <v>1173</v>
       </c>
@@ -38183,10 +38849,22 @@
       <c r="M622" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="X622" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y622" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z622" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA622" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="623" customHeight="1" spans="9:13">
       <c r="I623" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="K623" s="2" t="s">
         <v>43</v>
@@ -38197,7 +38875,7 @@
     </row>
     <row r="624" customHeight="1" spans="9:13">
       <c r="I624" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="K624" s="2" t="s">
         <v>43</v>
@@ -38208,7 +38886,7 @@
     </row>
     <row r="625" customHeight="1" spans="9:13">
       <c r="I625" s="2" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="K625" s="2" t="s">
         <v>43</v>
@@ -38219,7 +38897,7 @@
     </row>
     <row r="626" customHeight="1" spans="9:13">
       <c r="I626" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="K626" s="2" t="s">
         <v>43</v>
@@ -38230,7 +38908,7 @@
     </row>
     <row r="627" customHeight="1" spans="9:13">
       <c r="I627" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="K627" s="2" t="s">
         <v>43</v>
@@ -38241,7 +38919,7 @@
     </row>
     <row r="628" customHeight="1" spans="9:13">
       <c r="I628" s="2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="K628" s="2" t="s">
         <v>43</v>
@@ -38250,91 +38928,91 @@
         <v>43</v>
       </c>
     </row>
-    <row r="629" customHeight="1" spans="4:13">
-      <c r="D629" s="3">
+    <row r="629" customHeight="1" spans="9:13">
+      <c r="I629" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K629" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M629" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="630" customHeight="1" spans="4:9">
+      <c r="D630" s="3">
+        <v>1997</v>
+      </c>
+      <c r="I630" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="631" customHeight="1" spans="4:9">
+      <c r="D631" s="3">
+        <v>2016</v>
+      </c>
+      <c r="I631" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="632" customHeight="1" spans="4:13">
+      <c r="D632" s="3">
         <v>2008</v>
       </c>
-      <c r="H629" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I629" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K629" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M629" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="630" customHeight="1" spans="4:13">
-      <c r="D630" s="3">
+      <c r="H632" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I632" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K632" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M632" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="633" customHeight="1" spans="2:13">
+      <c r="B633" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D633" s="3">
         <v>2015</v>
       </c>
-      <c r="H630" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I630" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K630" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M630" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="631" customHeight="1" spans="4:13">
-      <c r="D631" s="3">
+      <c r="E633" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H633" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I633" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K633" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M633" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="634" customHeight="1" spans="4:15">
+      <c r="D634" s="3">
         <v>2017</v>
       </c>
-      <c r="H631" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I631" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K631" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M631" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="632" customHeight="1" spans="8:13">
-      <c r="H632" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I632" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="K632" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M632" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="633" customHeight="1" spans="8:13">
-      <c r="H633" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I633" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K633" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M633" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="634" customHeight="1" spans="8:13">
       <c r="H634" s="2" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="I634" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="K634" s="2" t="s">
         <v>43</v>
@@ -38342,13 +39020,31 @@
       <c r="M634" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="635" customHeight="1" spans="8:13">
+      <c r="N634" s="2">
+        <v>2010</v>
+      </c>
+      <c r="O634" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="635" customHeight="1" spans="4:13">
+      <c r="D635" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>1186</v>
+      </c>
       <c r="H635" s="2" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="I635" s="2" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="K635" s="2" t="s">
         <v>43</v>
@@ -38357,66 +39053,246 @@
         <v>43</v>
       </c>
     </row>
-    <row r="636" customHeight="1" spans="4:13">
-      <c r="D636" s="3">
+    <row r="636" customHeight="1" spans="8:13">
+      <c r="H636" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I636" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K636" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M636" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="637" customHeight="1" spans="8:13">
+      <c r="H637" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I637" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K637" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M637" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="638" customHeight="1" spans="8:13">
+      <c r="H638" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I638" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K638" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M638" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="639" customHeight="1" spans="4:13">
+      <c r="D639" s="3">
         <v>2024</v>
       </c>
-      <c r="H636" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I636" s="2" t="s">
+      <c r="H639" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="K636" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M636" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="637" customHeight="1" spans="2:15">
-      <c r="B637" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C637" s="2" t="s">
+      <c r="I639" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K639" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M639" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="640" customHeight="1" spans="3:8">
+      <c r="C640" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2010</v>
+      </c>
+      <c r="H640" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="641" customHeight="1" spans="3:8">
+      <c r="C641" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H641" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="642" customHeight="1" spans="3:8">
+      <c r="C642" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D642" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H642" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="643" customHeight="1" spans="2:9">
+      <c r="B643" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H643" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I643" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="644" customHeight="1" spans="3:8">
+      <c r="C644" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D644" s="3">
+        <v>2022</v>
+      </c>
+      <c r="H644" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="645" customHeight="1" spans="2:15">
+      <c r="B645" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C645" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D637" s="3">
+      <c r="D645" s="3">
         <v>2023</v>
       </c>
-      <c r="E637" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F637" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G637" s="2" t="s">
+      <c r="E645" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G645" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="H637" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I637" s="2" t="s">
+      <c r="H645" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I645" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="J637" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K637" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M637" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N637" s="2">
+      <c r="J645" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K645" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M645" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N645" s="2">
         <v>2023</v>
       </c>
-      <c r="O637" s="2">
+      <c r="O645" s="2">
         <v>2023</v>
       </c>
     </row>
+    <row r="646" customHeight="1" spans="3:9">
+      <c r="C646" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D646" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I646" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="647" customHeight="1" spans="3:9">
+      <c r="C647" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H647" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I647" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="648" customHeight="1" spans="2:9">
+      <c r="B648" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D648" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I648" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="649" customHeight="1" spans="3:9">
+      <c r="C649" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D649" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I649" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI637">
+  <autoFilter ref="A1:AI645">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GISDDrRef.xlsx
+++ b/GISDDrRef.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$645</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$650</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8036" uniqueCount="1206">
   <si>
     <t>Pub_Doi</t>
   </si>
@@ -9429,6 +9429,12 @@
   </si>
   <si>
     <t>MED</t>
+  </si>
+  <si>
+    <t>Baix Llobregat Council</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
   <si>
     <t>First autochthonous dengue outbreak in Italy, Auguest 2020</t>
@@ -10644,12 +10650,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI649"/>
+  <dimension ref="A1:AI651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D632" sqref="D632"/>
+      <selection pane="bottomLeft" activeCell="N652" sqref="N652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -39145,136 +39151,130 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="643" customHeight="1" spans="2:9">
-      <c r="B643" s="2" t="s">
-        <v>1196</v>
-      </c>
+    <row r="643" customHeight="1" spans="3:8">
       <c r="C643" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="D643" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E643" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F643" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G643" s="2" t="s">
-        <v>1198</v>
+        <v>2016</v>
       </c>
       <c r="H643" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="I643" s="2" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="644" customHeight="1" spans="3:8">
+    </row>
+    <row r="644" customHeight="1" spans="3:9">
       <c r="C644" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="D644" s="3">
-        <v>2022</v>
+        <v>2018</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>1197</v>
       </c>
       <c r="H644" s="2" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="645" customHeight="1" spans="2:15">
+      <c r="I644" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="645" customHeight="1" spans="2:9">
       <c r="B645" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D645" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E645" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="C645" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D645" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E645" s="2" t="s">
+      <c r="F645" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G645" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="F645" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G645" s="2" t="s">
-        <v>1012</v>
       </c>
       <c r="H645" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="I645" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J645" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K645" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M645" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N645" s="2">
-        <v>2023</v>
-      </c>
-      <c r="O645" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="646" customHeight="1" spans="3:9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="646" customHeight="1" spans="3:8">
       <c r="C646" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="D646" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="H646" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="I646" s="2" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="647" customHeight="1" spans="3:9">
+    </row>
+    <row r="647" customHeight="1" spans="2:15">
+      <c r="B647" s="2" t="s">
+        <v>1201</v>
+      </c>
       <c r="C647" s="2" t="s">
-        <v>1194</v>
+        <v>95</v>
       </c>
       <c r="D647" s="3">
         <v>2023</v>
       </c>
+      <c r="E647" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>1012</v>
+      </c>
       <c r="H647" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="I647" s="2" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="648" customHeight="1" spans="2:9">
-      <c r="B648" s="2" t="s">
-        <v>1202</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="J647" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K647" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M647" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N647" s="2">
+        <v>2023</v>
+      </c>
+      <c r="O647" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="648" customHeight="1" spans="3:9">
       <c r="C648" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="D648" s="3">
-        <v>2024</v>
-      </c>
-      <c r="E648" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F648" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G648" s="2" t="s">
-        <v>1142</v>
+        <v>2023</v>
       </c>
       <c r="H648" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="I648" s="2" t="s">
-        <v>1142</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="649" customHeight="1" spans="3:9">
@@ -39282,17 +39282,67 @@
         <v>1194</v>
       </c>
       <c r="D649" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H649" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="I649" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="650" customHeight="1" spans="3:9">
+      <c r="C650" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E650" s="2"/>
+      <c r="F650" s="2"/>
+      <c r="G650" s="2"/>
+      <c r="H650" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I650" s="2" t="s">
         <v>1142</v>
       </c>
     </row>
+    <row r="651" customHeight="1" spans="2:15">
+      <c r="B651" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H651" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I651" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J651" s="2"/>
+      <c r="N651" s="2">
+        <v>2023</v>
+      </c>
+      <c r="O651" s="2">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI645">
+  <autoFilter ref="A1:AI650">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
